--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-200-3 (Фляга 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B77C6B-DECC-4BA9-AFE9-5F9293F1F4A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-15" windowWidth="14445" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -40,12 +41,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="157">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -473,30 +481,6 @@
     <t xml:space="preserve">Полная высота </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Вес, гр. (ном. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t>400</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial Cyr"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> гр.)</t>
-    </r>
-  </si>
-  <si>
     <t>XXI-В-28-2-200-3 (Фляга 0,2 л.)</t>
   </si>
   <si>
@@ -534,18 +518,24 @@
   </si>
   <si>
     <t>Формокомплект не соответствует требованиям КД.</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 195 гр.)</t>
+  </si>
+  <si>
+    <t>стоит</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -2222,10 +2212,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="655">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3399,7 +3389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3414,7 +3404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3476,25 +3466,25 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3506,11 +3496,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3520,7 +3510,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3534,29 +3524,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3639,25 +3627,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="78" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3704,26 +3680,53 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3732,6 +3735,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3741,77 +3792,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3912,40 +3924,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3965,84 +4025,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4073,41 +4055,56 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4378,7 +4375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4424,7 +4427,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4469,7 +4478,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4513,7 +4528,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4562,7 +4583,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4608,7 +4635,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4652,7 +4685,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4696,7 +4735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4745,7 +4790,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4791,7 +4842,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4835,7 +4892,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4879,7 +4942,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4928,7 +4997,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4974,7 +5049,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5018,7 +5099,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5062,7 +5149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5111,7 +5204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5157,7 +5256,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5201,7 +5306,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5245,7 +5356,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5294,7 +5411,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5340,7 +5463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5384,7 +5513,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5428,7 +5563,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5472,7 +5613,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5515,7 +5662,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5561,7 +5714,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5605,7 +5764,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
+        <xdr:cNvPr id="4" name="Прямая соединительная линия 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5649,7 +5814,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5698,7 +5869,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5744,7 +5921,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5788,7 +5971,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5832,7 +6021,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5881,7 +6076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5927,7 +6128,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5971,7 +6178,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6015,7 +6228,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6064,7 +6283,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6110,7 +6335,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6154,7 +6385,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6198,7 +6435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6306,6 +6549,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6341,6 +6601,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6516,7 +6793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6532,25 +6809,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="496" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
+      <c r="B1" s="500"/>
+      <c r="C1" s="500"/>
+      <c r="D1" s="500"/>
+      <c r="E1" s="500"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="505" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="507"/>
+      <c r="A2" s="497" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="499"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6561,45 +6838,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="509" t="s">
+      <c r="A4" s="501" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="510"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="510"/>
-      <c r="E4" s="510"/>
+      <c r="B4" s="502"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
+      <c r="E4" s="502"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="511" t="s">
+      <c r="A5" s="503" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="512"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="513"/>
+      <c r="B5" s="504"/>
+      <c r="C5" s="504"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="505"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="504" t="s">
+      <c r="A7" s="496" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="508"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="508"/>
+      <c r="B7" s="500"/>
+      <c r="C7" s="500"/>
+      <c r="D7" s="500"/>
+      <c r="E7" s="500"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="514"/>
-      <c r="B8" s="515"/>
-      <c r="C8" s="515"/>
-      <c r="D8" s="515"/>
-      <c r="E8" s="516"/>
+      <c r="A8" s="506"/>
+      <c r="B8" s="507"/>
+      <c r="C8" s="507"/>
+      <c r="D8" s="507"/>
+      <c r="E8" s="508"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="504" t="s">
+      <c r="A10" s="496" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="504"/>
+      <c r="B10" s="496"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6610,33 +6887,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="502"/>
-      <c r="B11" s="503"/>
+      <c r="A11" s="494"/>
+      <c r="B11" s="495"/>
       <c r="D11" s="369">
         <v>43931</v>
       </c>
-      <c r="F11" s="499" t="s">
+      <c r="F11" s="509" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="499"/>
-      <c r="H11" s="499"/>
-      <c r="I11" s="499"/>
-      <c r="J11" s="500" t="s">
+      <c r="G11" s="509"/>
+      <c r="H11" s="509"/>
+      <c r="I11" s="509"/>
+      <c r="J11" s="510" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="500"/>
+      <c r="K11" s="510"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="499" t="s">
+      <c r="F12" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="499"/>
-      <c r="H12" s="499"/>
-      <c r="I12" s="499"/>
-      <c r="J12" s="500" t="s">
+      <c r="G12" s="509"/>
+      <c r="H12" s="509"/>
+      <c r="I12" s="509"/>
+      <c r="J12" s="510" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="500"/>
+      <c r="K12" s="510"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6651,19 +6928,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="474" t="s">
+      <c r="E13" s="472" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="499" t="s">
+      <c r="F13" s="509" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="499"/>
-      <c r="H13" s="499"/>
-      <c r="I13" s="499"/>
-      <c r="J13" s="500" t="s">
+      <c r="G13" s="509"/>
+      <c r="H13" s="509"/>
+      <c r="I13" s="509"/>
+      <c r="J13" s="510" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="500"/>
+      <c r="K13" s="510"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -6673,7 +6950,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="366">
         <v>32.5</v>
@@ -6691,7 +6968,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="366">
         <v>3</v>
@@ -6709,7 +6986,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="366">
         <v>34.200000000000003</v>
@@ -6727,7 +7004,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="366">
         <v>1.3</v>
@@ -6745,7 +7022,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="366">
         <v>1.29</v>
@@ -6763,7 +7040,7 @@
         <v>100</v>
       </c>
       <c r="C19" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="366">
         <v>0.3</v>
@@ -6781,7 +7058,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="366">
         <v>0.5</v>
@@ -6829,7 +7106,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="366">
         <v>1.7</v>
@@ -6847,7 +7124,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="372" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="366">
         <v>3</v>
@@ -6912,19 +7189,25 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="501" t="s">
+      <c r="A29" s="493" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="501"/>
-      <c r="C29" s="501"/>
+      <c r="B29" s="493"/>
+      <c r="C29" s="493"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6934,12 +7217,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6947,7 +7224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
@@ -6993,47 +7270,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7044,9 +7321,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7065,22 +7342,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7091,22 +7368,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7117,27 +7394,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7522,33 +7799,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="634" t="s">
+      <c r="L21" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="634"/>
-      <c r="N21" s="634"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="628"/>
+      <c r="N21" s="628"/>
+      <c r="O21" s="473"/>
+      <c r="P21" s="473"/>
+      <c r="Q21" s="489"/>
+      <c r="R21" s="489"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="556" t="s">
+      <c r="O22" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="556"/>
-      <c r="Q22" s="557" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="558"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7565,6 +7837,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7584,7 +7861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7630,47 +7907,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7681,9 +7958,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7702,22 +7979,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -7728,22 +8005,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -7754,27 +8031,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8103,12 +8380,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="645" t="s">
+      <c r="B18" s="638" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="646"/>
-      <c r="D18" s="646"/>
-      <c r="E18" s="647"/>
+      <c r="C18" s="639"/>
+      <c r="D18" s="639"/>
+      <c r="E18" s="640"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8151,37 +8428,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="634" t="s">
+      <c r="L21" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="634"/>
-      <c r="N21" s="634"/>
-      <c r="O21" s="475"/>
-      <c r="P21" s="475"/>
-      <c r="Q21" s="491"/>
-      <c r="R21" s="491"/>
+      <c r="M21" s="628"/>
+      <c r="N21" s="628"/>
+      <c r="O21" s="473"/>
+      <c r="P21" s="473"/>
+      <c r="Q21" s="489"/>
+      <c r="R21" s="489"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="556" t="s">
+      <c r="O22" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="556"/>
-      <c r="Q22" s="557" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="558"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8195,6 +8463,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8223,7 +8500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8269,47 +8546,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8320,9 +8597,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8341,22 +8618,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8367,22 +8644,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8393,27 +8670,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -8724,33 +9001,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="634" t="s">
+      <c r="L19" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="634"/>
-      <c r="N19" s="634"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="628"/>
+      <c r="N19" s="628"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="556" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -8767,6 +9039,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -8777,7 +9054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
@@ -8823,47 +9100,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="650">
+      <c r="J2" s="615"/>
+      <c r="K2" s="643">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="651"/>
+      <c r="L2" s="644"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="649"/>
-      <c r="Q2" s="649"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="652"/>
-      <c r="L3" s="653"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="645"/>
+      <c r="L3" s="646"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -8874,9 +9151,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8895,22 +9172,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -8921,22 +9198,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -8947,27 +9224,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9036,7 +9313,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="378" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="280">
         <v>0.1</v>
@@ -9237,33 +9514,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="634" t="s">
+      <c r="L18" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="634"/>
-      <c r="N18" s="634"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="628"/>
+      <c r="N18" s="628"/>
+      <c r="O18" s="473"/>
+      <c r="P18" s="473"/>
+      <c r="Q18" s="489"/>
+      <c r="R18" s="489"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="556" t="s">
+      <c r="O19" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="556"/>
-      <c r="Q19" s="557" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="558"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9280,6 +9552,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9305,18 +9582,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
@@ -9330,11 +9607,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="473" t="s">
+      <c r="B1" s="471" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="472" t="str">
+      <c r="D1" s="470" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
@@ -9350,7 +9627,7 @@
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="380"/>
       <c r="B2" s="380" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="380"/>
       <c r="D2" s="380"/>
@@ -9364,17 +9641,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="522" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="522"/>
-      <c r="H3" s="522"/>
-      <c r="I3" s="522"/>
+      <c r="A3" s="513" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="513"/>
+      <c r="C3" s="513"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="513"/>
+      <c r="F3" s="513"/>
+      <c r="G3" s="513"/>
+      <c r="H3" s="513"/>
+      <c r="I3" s="513"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9687,7 +9964,7 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="471">
+      <c r="E14" s="469">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -9853,7 +10130,7 @@
         <v>125</v>
       </c>
       <c r="J20" s="421" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K20" s="391"/>
       <c r="L20" s="391"/>
@@ -9864,56 +10141,70 @@
         <v>16800000</v>
       </c>
       <c r="B21" s="423">
-        <v>43759</v>
+        <v>43942</v>
       </c>
       <c r="C21" s="424">
-        <v>43765</v>
+        <v>43955</v>
       </c>
       <c r="D21" s="423">
-        <v>43769</v>
+        <v>43958</v>
       </c>
       <c r="E21" s="425">
-        <v>948096</v>
+        <v>1924560</v>
       </c>
       <c r="F21" s="425">
-        <v>1031915</v>
+        <v>2017634</v>
       </c>
       <c r="G21" s="426">
         <f>F21/A$21</f>
-        <v>6.1423511904761904E-2</v>
+        <v>0.1200972619047619</v>
       </c>
       <c r="H21" s="427">
         <f>A21-F21</f>
-        <v>15768085</v>
+        <v>14782366</v>
       </c>
       <c r="I21" s="428">
         <f>1-G21</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J21" s="492"/>
+        <v>0.87990273809523811</v>
+      </c>
+      <c r="J21" s="648">
+        <v>190</v>
+      </c>
       <c r="K21" s="403"/>
       <c r="L21" s="403"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="430"/>
-      <c r="B22" s="431"/>
-      <c r="C22" s="431"/>
-      <c r="D22" s="431"/>
-      <c r="E22" s="432"/>
-      <c r="F22" s="432"/>
+      <c r="B22" s="431">
+        <v>43965</v>
+      </c>
+      <c r="C22" s="492" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="431">
+        <v>43983</v>
+      </c>
+      <c r="E22" s="432">
+        <v>3546585</v>
+      </c>
+      <c r="F22" s="432">
+        <v>3673418</v>
+      </c>
       <c r="G22" s="426">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>0.21865583333333333</v>
       </c>
       <c r="H22" s="433">
         <f>H21-F22</f>
-        <v>15768085</v>
+        <v>11108948</v>
       </c>
       <c r="I22" s="434">
         <f>I21-G22</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J22" s="493"/>
+        <v>0.66124690476190473</v>
+      </c>
+      <c r="J22" s="649">
+        <v>192</v>
+      </c>
       <c r="K22" s="383"/>
       <c r="L22" s="383"/>
     </row>
@@ -9927,7 +10218,7 @@
       <c r="G23" s="438"/>
       <c r="H23" s="439"/>
       <c r="I23" s="440"/>
-      <c r="J23" s="494"/>
+      <c r="J23" s="650"/>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
@@ -9941,7 +10232,7 @@
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
       <c r="I24" s="441"/>
-      <c r="J24" s="495"/>
+      <c r="J24" s="651"/>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
@@ -9955,7 +10246,7 @@
       <c r="G25" s="442"/>
       <c r="H25" s="439"/>
       <c r="I25" s="440"/>
-      <c r="J25" s="494"/>
+      <c r="J25" s="650"/>
       <c r="K25" s="443"/>
       <c r="L25" s="383"/>
     </row>
@@ -9969,7 +10260,7 @@
       <c r="G26" s="442"/>
       <c r="H26" s="439"/>
       <c r="I26" s="440"/>
-      <c r="J26" s="494"/>
+      <c r="J26" s="650"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
@@ -9983,7 +10274,7 @@
       <c r="G27" s="442"/>
       <c r="H27" s="439"/>
       <c r="I27" s="440"/>
-      <c r="J27" s="494"/>
+      <c r="J27" s="650"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
@@ -9997,7 +10288,7 @@
       <c r="G28" s="442"/>
       <c r="H28" s="439"/>
       <c r="I28" s="440"/>
-      <c r="J28" s="494"/>
+      <c r="J28" s="650"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
@@ -10011,7 +10302,7 @@
       <c r="G29" s="444"/>
       <c r="H29" s="439"/>
       <c r="I29" s="445"/>
-      <c r="J29" s="496"/>
+      <c r="J29" s="652"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
@@ -10025,7 +10316,7 @@
       <c r="G30" s="442"/>
       <c r="H30" s="439"/>
       <c r="I30" s="445"/>
-      <c r="J30" s="496"/>
+      <c r="J30" s="652"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
@@ -10039,7 +10330,7 @@
       <c r="G31" s="450"/>
       <c r="H31" s="451"/>
       <c r="I31" s="452"/>
-      <c r="J31" s="497"/>
+      <c r="J31" s="653"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
@@ -10050,29 +10341,29 @@
       <c r="B32" s="454"/>
       <c r="C32" s="454"/>
       <c r="D32" s="455"/>
-      <c r="E32" s="456">
+      <c r="E32" s="490">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
-      </c>
-      <c r="F32" s="457">
+        <v>5471145</v>
+      </c>
+      <c r="F32" s="491">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
-      </c>
-      <c r="G32" s="458">
+        <v>5691052</v>
+      </c>
+      <c r="G32" s="456">
         <f>SUM(G21:G31)</f>
-        <v>6.1423511904761904E-2</v>
-      </c>
-      <c r="H32" s="459">
+        <v>0.33875309523809521</v>
+      </c>
+      <c r="H32" s="457">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="I32" s="460">
+        <v>11108948</v>
+      </c>
+      <c r="I32" s="458">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="J32" s="498"/>
-      <c r="K32" s="461"/>
-      <c r="L32" s="461"/>
+        <v>0.66124690476190473</v>
+      </c>
+      <c r="J32" s="654"/>
+      <c r="K32" s="459"/>
+      <c r="L32" s="459"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
@@ -10087,12 +10378,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="523" t="s">
+      <c r="A36" s="514" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="523"/>
-      <c r="C36" s="523"/>
-      <c r="D36" s="523"/>
+      <c r="B36" s="514"/>
+      <c r="C36" s="514"/>
+      <c r="D36" s="514"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10101,14 +10392,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="524" t="s">
+      <c r="A37" s="515" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="524"/>
-      <c r="C37" s="462" t="s">
+      <c r="B37" s="515"/>
+      <c r="C37" s="460" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="462" t="s">
+      <c r="D37" s="460" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="383"/>
@@ -10119,27 +10410,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="525">
+      <c r="A38" s="516">
         <f>A21-F32</f>
-        <v>15768085</v>
-      </c>
-      <c r="B38" s="526"/>
-      <c r="C38" s="463">
+        <v>11108948</v>
+      </c>
+      <c r="B38" s="517"/>
+      <c r="C38" s="461">
         <f>1-G32</f>
-        <v>0.93857648809523808</v>
-      </c>
-      <c r="D38" s="464">
+        <v>0.66124690476190473</v>
+      </c>
+      <c r="D38" s="462">
         <f>(C38/0.8)*100</f>
-        <v>117.32206101190474</v>
-      </c>
-      <c r="E38" s="465" t="s">
+        <v>82.655863095238089</v>
+      </c>
+      <c r="E38" s="463" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="465"/>
-      <c r="G38" s="465"/>
-      <c r="H38" s="465"/>
-      <c r="I38" s="465"/>
-      <c r="J38" s="465"/>
+      <c r="F38" s="463"/>
+      <c r="G38" s="463"/>
+      <c r="H38" s="463"/>
+      <c r="I38" s="463"/>
+      <c r="J38" s="463"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10166,8 +10457,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="466"/>
-      <c r="C41" s="466"/>
+      <c r="B41" s="464"/>
+      <c r="C41" s="464"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10177,113 +10468,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="467"/>
-      <c r="B42" s="467"/>
-      <c r="C42" s="467"/>
-      <c r="D42" s="467"/>
-      <c r="E42" s="467"/>
-      <c r="F42" s="467"/>
-      <c r="G42" s="467"/>
-      <c r="H42" s="467"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="A42" s="465"/>
+      <c r="B42" s="465"/>
+      <c r="C42" s="465"/>
+      <c r="D42" s="465"/>
+      <c r="E42" s="465"/>
+      <c r="F42" s="465"/>
+      <c r="G42" s="465"/>
+      <c r="H42" s="465"/>
+      <c r="I42" s="518"/>
+      <c r="J42" s="519"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="468"/>
-      <c r="B43" s="469"/>
-      <c r="C43" s="469"/>
+      <c r="A43" s="466"/>
+      <c r="B43" s="467"/>
+      <c r="C43" s="467"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="469"/>
+      <c r="F43" s="467"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="469"/>
+      <c r="H43" s="467"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="468"/>
-      <c r="B44" s="469"/>
-      <c r="C44" s="469"/>
-      <c r="D44" s="469"/>
-      <c r="E44" s="469"/>
-      <c r="F44" s="469"/>
+      <c r="A44" s="466"/>
+      <c r="B44" s="467"/>
+      <c r="C44" s="467"/>
+      <c r="D44" s="467"/>
+      <c r="E44" s="467"/>
+      <c r="F44" s="467"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="469"/>
+      <c r="H44" s="467"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="468"/>
-      <c r="B45" s="469"/>
-      <c r="C45" s="469"/>
+      <c r="A45" s="466"/>
+      <c r="B45" s="467"/>
+      <c r="C45" s="467"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="469"/>
+      <c r="F45" s="467"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="469"/>
+      <c r="H45" s="467"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="468"/>
-      <c r="B46" s="469"/>
-      <c r="C46" s="469"/>
-      <c r="D46" s="469"/>
-      <c r="E46" s="469"/>
-      <c r="F46" s="469"/>
+      <c r="A46" s="466"/>
+      <c r="B46" s="467"/>
+      <c r="C46" s="467"/>
+      <c r="D46" s="467"/>
+      <c r="E46" s="467"/>
+      <c r="F46" s="467"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="469"/>
+      <c r="H46" s="467"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="468"/>
-      <c r="B47" s="469"/>
-      <c r="C47" s="469"/>
+      <c r="A47" s="466"/>
+      <c r="B47" s="467"/>
+      <c r="C47" s="467"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="469"/>
+      <c r="F47" s="467"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="469"/>
+      <c r="H47" s="467"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="468"/>
-      <c r="B48" s="469"/>
+      <c r="A48" s="466"/>
+      <c r="B48" s="467"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="470"/>
-      <c r="E48" s="470"/>
+      <c r="D48" s="468"/>
+      <c r="E48" s="468"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="468"/>
-      <c r="B49" s="469"/>
-      <c r="C49" s="469"/>
-      <c r="D49" s="469"/>
-      <c r="E49" s="469"/>
-      <c r="F49" s="469"/>
+      <c r="A49" s="466"/>
+      <c r="B49" s="467"/>
+      <c r="C49" s="467"/>
+      <c r="D49" s="467"/>
+      <c r="E49" s="467"/>
+      <c r="F49" s="467"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="469"/>
+      <c r="H49" s="467"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="468"/>
-      <c r="B50" s="469"/>
-      <c r="C50" s="469"/>
-      <c r="D50" s="469"/>
-      <c r="E50" s="469"/>
-      <c r="F50" s="469"/>
+      <c r="A50" s="466"/>
+      <c r="B50" s="467"/>
+      <c r="C50" s="467"/>
+      <c r="D50" s="467"/>
+      <c r="E50" s="467"/>
+      <c r="F50" s="467"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="469"/>
+      <c r="H50" s="467"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="468"/>
-      <c r="B51" s="469"/>
-      <c r="C51" s="469"/>
+      <c r="A51" s="466"/>
+      <c r="B51" s="467"/>
+      <c r="C51" s="467"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="469"/>
+      <c r="F51" s="467"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="469"/>
+      <c r="H51" s="467"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="520"/>
-      <c r="C52" s="520"/>
-      <c r="D52" s="521"/>
-      <c r="E52" s="465"/>
+      <c r="B52" s="511"/>
+      <c r="C52" s="511"/>
+      <c r="D52" s="512"/>
+      <c r="E52" s="463"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10291,31 +10582,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="467"/>
-      <c r="B53" s="467"/>
-      <c r="C53" s="467"/>
-      <c r="D53" s="467"/>
-      <c r="E53" s="467"/>
-      <c r="F53" s="467"/>
-      <c r="G53" s="467"/>
-      <c r="H53" s="467"/>
-      <c r="I53" s="517"/>
-      <c r="J53" s="518"/>
+      <c r="A53" s="465"/>
+      <c r="B53" s="465"/>
+      <c r="C53" s="465"/>
+      <c r="D53" s="465"/>
+      <c r="E53" s="465"/>
+      <c r="F53" s="465"/>
+      <c r="G53" s="465"/>
+      <c r="H53" s="465"/>
+      <c r="I53" s="518"/>
+      <c r="J53" s="519"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="468"/>
+      <c r="A54" s="466"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="469"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
+      <c r="H54" s="467"/>
+      <c r="I54" s="520"/>
+      <c r="J54" s="520"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="468"/>
+      <c r="A55" s="466"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10323,8 +10614,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="519"/>
-      <c r="J55" s="519"/>
+      <c r="I55" s="520"/>
+      <c r="J55" s="520"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10337,30 +10628,30 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="517"/>
-      <c r="C61" s="518"/>
+      <c r="B61" s="518"/>
+      <c r="C61" s="519"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="517"/>
-      <c r="C68" s="518"/>
+      <c r="B68" s="518"/>
+      <c r="C68" s="519"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10368,10 +10659,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A40" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -10439,47 +10730,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="551" t="s">
+      <c r="A11" s="522" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="551"/>
-      <c r="C11" s="551"/>
-      <c r="D11" s="551"/>
-      <c r="E11" s="551"/>
-      <c r="F11" s="551"/>
-      <c r="G11" s="551"/>
-      <c r="H11" s="551"/>
-      <c r="I11" s="551"/>
-      <c r="J11" s="551"/>
+      <c r="B11" s="522"/>
+      <c r="C11" s="522"/>
+      <c r="D11" s="522"/>
+      <c r="E11" s="522"/>
+      <c r="F11" s="522"/>
+      <c r="G11" s="522"/>
+      <c r="H11" s="522"/>
+      <c r="I11" s="522"/>
+      <c r="J11" s="522"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="550" t="s">
+      <c r="A12" s="521" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="550"/>
-      <c r="C12" s="550"/>
-      <c r="D12" s="550"/>
-      <c r="E12" s="550"/>
-      <c r="F12" s="550"/>
-      <c r="G12" s="550"/>
-      <c r="H12" s="550"/>
-      <c r="I12" s="550"/>
-      <c r="J12" s="550"/>
+      <c r="B12" s="521"/>
+      <c r="C12" s="521"/>
+      <c r="D12" s="521"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="521"/>
+      <c r="G12" s="521"/>
+      <c r="H12" s="521"/>
+      <c r="I12" s="521"/>
+      <c r="J12" s="521"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="552" t="str">
+      <c r="A13" s="523" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="B13" s="551"/>
-      <c r="C13" s="551"/>
-      <c r="D13" s="551"/>
-      <c r="E13" s="551"/>
-      <c r="F13" s="551"/>
-      <c r="G13" s="551"/>
-      <c r="H13" s="551"/>
-      <c r="I13" s="551"/>
-      <c r="J13" s="551"/>
+      <c r="B13" s="522"/>
+      <c r="C13" s="522"/>
+      <c r="D13" s="522"/>
+      <c r="E13" s="522"/>
+      <c r="F13" s="522"/>
+      <c r="G13" s="522"/>
+      <c r="H13" s="522"/>
+      <c r="I13" s="522"/>
+      <c r="J13" s="522"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10604,497 +10895,497 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="548" t="s">
+      <c r="A22" s="527" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="548" t="s">
+      <c r="B22" s="527" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="548"/>
-      <c r="D22" s="548"/>
-      <c r="E22" s="548" t="s">
+      <c r="C22" s="527"/>
+      <c r="D22" s="527"/>
+      <c r="E22" s="527" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="548"/>
-      <c r="G22" s="549" t="s">
+      <c r="F22" s="527"/>
+      <c r="G22" s="545" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="548" t="s">
+      <c r="H22" s="527" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="548"/>
-      <c r="J22" s="548"/>
+      <c r="I22" s="527"/>
+      <c r="J22" s="527"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="548"/>
-      <c r="B23" s="548"/>
-      <c r="C23" s="548"/>
-      <c r="D23" s="548"/>
-      <c r="E23" s="548"/>
-      <c r="F23" s="548"/>
-      <c r="G23" s="549"/>
-      <c r="H23" s="548"/>
-      <c r="I23" s="548"/>
-      <c r="J23" s="548"/>
+      <c r="A23" s="527"/>
+      <c r="B23" s="527"/>
+      <c r="C23" s="527"/>
+      <c r="D23" s="527"/>
+      <c r="E23" s="527"/>
+      <c r="F23" s="527"/>
+      <c r="G23" s="545"/>
+      <c r="H23" s="527"/>
+      <c r="I23" s="527"/>
+      <c r="J23" s="527"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="527">
+      <c r="A24" s="528">
         <v>1</v>
       </c>
-      <c r="B24" s="553" t="s">
+      <c r="B24" s="542" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="554"/>
-      <c r="D24" s="555"/>
-      <c r="E24" s="532" t="str">
+      <c r="C24" s="543"/>
+      <c r="D24" s="544"/>
+      <c r="E24" s="530" t="str">
         <f>Данные!C14</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F24" s="533"/>
-      <c r="G24" s="536">
+      <c r="F24" s="531"/>
+      <c r="G24" s="534">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="538"/>
-      <c r="I24" s="539"/>
-      <c r="J24" s="540"/>
+      <c r="H24" s="536"/>
+      <c r="I24" s="537"/>
+      <c r="J24" s="538"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="528"/>
-      <c r="B25" s="544" t="str">
+      <c r="A25" s="529"/>
+      <c r="B25" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C25" s="545"/>
-      <c r="D25" s="546"/>
-      <c r="E25" s="547"/>
-      <c r="F25" s="535"/>
-      <c r="G25" s="537"/>
-      <c r="H25" s="541"/>
-      <c r="I25" s="542"/>
-      <c r="J25" s="543"/>
+      <c r="C25" s="525"/>
+      <c r="D25" s="526"/>
+      <c r="E25" s="532"/>
+      <c r="F25" s="533"/>
+      <c r="G25" s="535"/>
+      <c r="H25" s="539"/>
+      <c r="I25" s="540"/>
+      <c r="J25" s="541"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="527">
+      <c r="A26" s="528">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="529" t="s">
+      <c r="B26" s="546" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="530"/>
-      <c r="D26" s="531"/>
-      <c r="E26" s="532" t="str">
+      <c r="C26" s="547"/>
+      <c r="D26" s="548"/>
+      <c r="E26" s="530" t="str">
         <f>Данные!C15</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F26" s="533"/>
-      <c r="G26" s="536">
+      <c r="F26" s="531"/>
+      <c r="G26" s="534">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="538"/>
-      <c r="I26" s="539"/>
-      <c r="J26" s="540"/>
+      <c r="H26" s="536"/>
+      <c r="I26" s="537"/>
+      <c r="J26" s="538"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="528"/>
-      <c r="B27" s="544" t="str">
+      <c r="A27" s="529"/>
+      <c r="B27" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C27" s="545"/>
-      <c r="D27" s="546"/>
-      <c r="E27" s="547"/>
-      <c r="F27" s="535"/>
-      <c r="G27" s="537"/>
-      <c r="H27" s="541"/>
-      <c r="I27" s="542"/>
-      <c r="J27" s="543"/>
+      <c r="C27" s="525"/>
+      <c r="D27" s="526"/>
+      <c r="E27" s="532"/>
+      <c r="F27" s="533"/>
+      <c r="G27" s="535"/>
+      <c r="H27" s="539"/>
+      <c r="I27" s="540"/>
+      <c r="J27" s="541"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="527">
+      <c r="A28" s="528">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="529" t="s">
+      <c r="B28" s="546" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="530"/>
-      <c r="D28" s="531"/>
-      <c r="E28" s="532" t="str">
+      <c r="C28" s="547"/>
+      <c r="D28" s="548"/>
+      <c r="E28" s="530" t="str">
         <f>Данные!C16</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F28" s="533"/>
-      <c r="G28" s="536">
+      <c r="F28" s="531"/>
+      <c r="G28" s="534">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="538" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="539"/>
-      <c r="J28" s="540"/>
+      <c r="H28" s="536" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" s="537"/>
+      <c r="J28" s="538"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="528"/>
-      <c r="B29" s="544" t="str">
+      <c r="A29" s="529"/>
+      <c r="B29" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C29" s="545"/>
-      <c r="D29" s="546"/>
-      <c r="E29" s="547"/>
-      <c r="F29" s="535"/>
-      <c r="G29" s="537"/>
-      <c r="H29" s="541"/>
-      <c r="I29" s="542"/>
-      <c r="J29" s="543"/>
+      <c r="C29" s="525"/>
+      <c r="D29" s="526"/>
+      <c r="E29" s="532"/>
+      <c r="F29" s="533"/>
+      <c r="G29" s="535"/>
+      <c r="H29" s="539"/>
+      <c r="I29" s="540"/>
+      <c r="J29" s="541"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="527">
+      <c r="A30" s="528">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="529" t="s">
+      <c r="B30" s="546" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="530"/>
-      <c r="D30" s="531"/>
-      <c r="E30" s="532" t="str">
+      <c r="C30" s="547"/>
+      <c r="D30" s="548"/>
+      <c r="E30" s="530" t="str">
         <f>Данные!C17</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F30" s="533"/>
-      <c r="G30" s="536">
+      <c r="F30" s="531"/>
+      <c r="G30" s="534">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="538"/>
-      <c r="I30" s="539"/>
-      <c r="J30" s="540"/>
+      <c r="H30" s="536"/>
+      <c r="I30" s="537"/>
+      <c r="J30" s="538"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="528"/>
-      <c r="B31" s="544" t="str">
+      <c r="A31" s="529"/>
+      <c r="B31" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C31" s="545"/>
-      <c r="D31" s="546"/>
-      <c r="E31" s="534"/>
-      <c r="F31" s="535"/>
-      <c r="G31" s="537"/>
-      <c r="H31" s="541"/>
-      <c r="I31" s="542"/>
-      <c r="J31" s="543"/>
+      <c r="C31" s="525"/>
+      <c r="D31" s="526"/>
+      <c r="E31" s="549"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="535"/>
+      <c r="H31" s="539"/>
+      <c r="I31" s="540"/>
+      <c r="J31" s="541"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="527">
+      <c r="A32" s="528">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="529" t="s">
+      <c r="B32" s="546" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="530"/>
-      <c r="D32" s="531"/>
-      <c r="E32" s="532" t="str">
+      <c r="C32" s="547"/>
+      <c r="D32" s="548"/>
+      <c r="E32" s="530" t="str">
         <f>Данные!C18</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F32" s="533"/>
-      <c r="G32" s="536">
+      <c r="F32" s="531"/>
+      <c r="G32" s="534">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="538" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" s="539"/>
-      <c r="J32" s="540"/>
+      <c r="H32" s="536" t="s">
+        <v>153</v>
+      </c>
+      <c r="I32" s="537"/>
+      <c r="J32" s="538"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="528"/>
-      <c r="B33" s="544" t="str">
+      <c r="A33" s="529"/>
+      <c r="B33" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C33" s="545"/>
-      <c r="D33" s="546"/>
-      <c r="E33" s="534"/>
-      <c r="F33" s="535"/>
-      <c r="G33" s="537"/>
-      <c r="H33" s="541"/>
-      <c r="I33" s="542"/>
-      <c r="J33" s="543"/>
+      <c r="C33" s="525"/>
+      <c r="D33" s="526"/>
+      <c r="E33" s="549"/>
+      <c r="F33" s="533"/>
+      <c r="G33" s="535"/>
+      <c r="H33" s="539"/>
+      <c r="I33" s="540"/>
+      <c r="J33" s="541"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="527">
+      <c r="A34" s="528">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="529" t="s">
+      <c r="B34" s="546" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="530"/>
-      <c r="D34" s="531"/>
-      <c r="E34" s="532" t="str">
+      <c r="C34" s="547"/>
+      <c r="D34" s="548"/>
+      <c r="E34" s="530" t="str">
         <f>Данные!C19</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F34" s="533"/>
-      <c r="G34" s="536">
+      <c r="F34" s="531"/>
+      <c r="G34" s="534">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="H34" s="538"/>
-      <c r="I34" s="539"/>
-      <c r="J34" s="540"/>
+      <c r="H34" s="536"/>
+      <c r="I34" s="537"/>
+      <c r="J34" s="538"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="528"/>
-      <c r="B35" s="544" t="str">
+      <c r="A35" s="529"/>
+      <c r="B35" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C35" s="545"/>
-      <c r="D35" s="546"/>
-      <c r="E35" s="534"/>
-      <c r="F35" s="535"/>
-      <c r="G35" s="537"/>
-      <c r="H35" s="541"/>
-      <c r="I35" s="542"/>
-      <c r="J35" s="543"/>
+      <c r="C35" s="525"/>
+      <c r="D35" s="526"/>
+      <c r="E35" s="549"/>
+      <c r="F35" s="533"/>
+      <c r="G35" s="535"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="540"/>
+      <c r="J35" s="541"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="527">
+      <c r="A36" s="528">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="529" t="s">
+      <c r="B36" s="546" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="530"/>
-      <c r="D36" s="531"/>
-      <c r="E36" s="532" t="str">
+      <c r="C36" s="547"/>
+      <c r="D36" s="548"/>
+      <c r="E36" s="530" t="str">
         <f>Данные!C20</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F36" s="533"/>
-      <c r="G36" s="536">
+      <c r="F36" s="531"/>
+      <c r="G36" s="534">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="538"/>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
+      <c r="H36" s="536"/>
+      <c r="I36" s="537"/>
+      <c r="J36" s="538"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="528"/>
-      <c r="B37" s="544" t="str">
+      <c r="A37" s="529"/>
+      <c r="B37" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C37" s="545"/>
-      <c r="D37" s="546"/>
-      <c r="E37" s="534"/>
-      <c r="F37" s="535"/>
-      <c r="G37" s="537"/>
-      <c r="H37" s="541"/>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
+      <c r="C37" s="525"/>
+      <c r="D37" s="526"/>
+      <c r="E37" s="549"/>
+      <c r="F37" s="533"/>
+      <c r="G37" s="535"/>
+      <c r="H37" s="539"/>
+      <c r="I37" s="540"/>
+      <c r="J37" s="541"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="527">
+      <c r="A38" s="528">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="529" t="s">
+      <c r="B38" s="546" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="530"/>
-      <c r="D38" s="531"/>
-      <c r="E38" s="532">
+      <c r="C38" s="547"/>
+      <c r="D38" s="548"/>
+      <c r="E38" s="530">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="533"/>
-      <c r="G38" s="536">
+      <c r="F38" s="531"/>
+      <c r="G38" s="534">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="538"/>
-      <c r="I38" s="539"/>
-      <c r="J38" s="540"/>
+      <c r="H38" s="536"/>
+      <c r="I38" s="537"/>
+      <c r="J38" s="538"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="528"/>
-      <c r="B39" s="544" t="str">
+      <c r="A39" s="529"/>
+      <c r="B39" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C39" s="545"/>
-      <c r="D39" s="546"/>
-      <c r="E39" s="534"/>
-      <c r="F39" s="535"/>
-      <c r="G39" s="537"/>
-      <c r="H39" s="541"/>
-      <c r="I39" s="542"/>
-      <c r="J39" s="543"/>
+      <c r="C39" s="525"/>
+      <c r="D39" s="526"/>
+      <c r="E39" s="549"/>
+      <c r="F39" s="533"/>
+      <c r="G39" s="535"/>
+      <c r="H39" s="539"/>
+      <c r="I39" s="540"/>
+      <c r="J39" s="541"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="527">
+      <c r="A40" s="528">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="529" t="s">
+      <c r="B40" s="546" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="530"/>
-      <c r="D40" s="531"/>
-      <c r="E40" s="532" t="str">
+      <c r="C40" s="547"/>
+      <c r="D40" s="548"/>
+      <c r="E40" s="530" t="str">
         <f>Данные!C23</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F40" s="533"/>
-      <c r="G40" s="536">
+      <c r="F40" s="531"/>
+      <c r="G40" s="534">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="538"/>
-      <c r="I40" s="539"/>
-      <c r="J40" s="540"/>
+      <c r="H40" s="536"/>
+      <c r="I40" s="537"/>
+      <c r="J40" s="538"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="528"/>
-      <c r="B41" s="544" t="str">
+      <c r="A41" s="529"/>
+      <c r="B41" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C41" s="545"/>
-      <c r="D41" s="546"/>
-      <c r="E41" s="534"/>
-      <c r="F41" s="535"/>
-      <c r="G41" s="537"/>
-      <c r="H41" s="541"/>
-      <c r="I41" s="542"/>
-      <c r="J41" s="543"/>
+      <c r="C41" s="525"/>
+      <c r="D41" s="526"/>
+      <c r="E41" s="549"/>
+      <c r="F41" s="533"/>
+      <c r="G41" s="535"/>
+      <c r="H41" s="539"/>
+      <c r="I41" s="540"/>
+      <c r="J41" s="541"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="527">
+      <c r="A42" s="528">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="529" t="s">
+      <c r="B42" s="546" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="530"/>
-      <c r="D42" s="531"/>
-      <c r="E42" s="532">
+      <c r="C42" s="547"/>
+      <c r="D42" s="548"/>
+      <c r="E42" s="530">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="533"/>
-      <c r="G42" s="536">
+      <c r="F42" s="531"/>
+      <c r="G42" s="534">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="538"/>
-      <c r="I42" s="539"/>
-      <c r="J42" s="540"/>
+      <c r="H42" s="536"/>
+      <c r="I42" s="537"/>
+      <c r="J42" s="538"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="528"/>
-      <c r="B43" s="544" t="str">
+      <c r="A43" s="529"/>
+      <c r="B43" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C43" s="545"/>
-      <c r="D43" s="546"/>
-      <c r="E43" s="534"/>
-      <c r="F43" s="535"/>
-      <c r="G43" s="537"/>
-      <c r="H43" s="541"/>
-      <c r="I43" s="542"/>
-      <c r="J43" s="543"/>
+      <c r="C43" s="525"/>
+      <c r="D43" s="526"/>
+      <c r="E43" s="549"/>
+      <c r="F43" s="533"/>
+      <c r="G43" s="535"/>
+      <c r="H43" s="539"/>
+      <c r="I43" s="540"/>
+      <c r="J43" s="541"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="527">
+      <c r="A44" s="528">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="529" t="s">
+      <c r="B44" s="546" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="530"/>
-      <c r="D44" s="531"/>
-      <c r="E44" s="532">
+      <c r="C44" s="547"/>
+      <c r="D44" s="548"/>
+      <c r="E44" s="530">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="533"/>
-      <c r="G44" s="536">
+      <c r="F44" s="531"/>
+      <c r="G44" s="534">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="538"/>
-      <c r="I44" s="539"/>
-      <c r="J44" s="540"/>
+      <c r="H44" s="536"/>
+      <c r="I44" s="537"/>
+      <c r="J44" s="538"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="528"/>
-      <c r="B45" s="544" t="str">
+      <c r="A45" s="529"/>
+      <c r="B45" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C45" s="545"/>
-      <c r="D45" s="546"/>
-      <c r="E45" s="534"/>
-      <c r="F45" s="535"/>
-      <c r="G45" s="537"/>
-      <c r="H45" s="541"/>
-      <c r="I45" s="542"/>
-      <c r="J45" s="543"/>
+      <c r="C45" s="525"/>
+      <c r="D45" s="526"/>
+      <c r="E45" s="549"/>
+      <c r="F45" s="533"/>
+      <c r="G45" s="535"/>
+      <c r="H45" s="539"/>
+      <c r="I45" s="540"/>
+      <c r="J45" s="541"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="527">
+      <c r="A46" s="528">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="529" t="s">
+      <c r="B46" s="546" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="530"/>
-      <c r="D46" s="531"/>
-      <c r="E46" s="532" t="str">
+      <c r="C46" s="547"/>
+      <c r="D46" s="548"/>
+      <c r="E46" s="530" t="str">
         <f>Данные!C24</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F46" s="533"/>
-      <c r="G46" s="536">
+      <c r="F46" s="531"/>
+      <c r="G46" s="534">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="538"/>
-      <c r="I46" s="539"/>
-      <c r="J46" s="540"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="537"/>
+      <c r="J46" s="538"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="528"/>
-      <c r="B47" s="544" t="str">
+      <c r="A47" s="529"/>
+      <c r="B47" s="524" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C47" s="545"/>
-      <c r="D47" s="546"/>
-      <c r="E47" s="534"/>
-      <c r="F47" s="535"/>
-      <c r="G47" s="537"/>
-      <c r="H47" s="541"/>
-      <c r="I47" s="542"/>
-      <c r="J47" s="543"/>
+      <c r="C47" s="525"/>
+      <c r="D47" s="526"/>
+      <c r="E47" s="549"/>
+      <c r="F47" s="533"/>
+      <c r="G47" s="535"/>
+      <c r="H47" s="539"/>
+      <c r="I47" s="540"/>
+      <c r="J47" s="541"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11140,7 +11431,7 @@
         <v>72</v>
       </c>
       <c r="C51" s="304" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="304"/>
       <c r="E51" s="304"/>
@@ -11223,6 +11514,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11239,70 +11594,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11311,7 +11602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11357,47 +11648,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11408,9 +11699,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11429,22 +11720,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11455,22 +11746,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11481,27 +11772,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="598"/>
-      <c r="D7" s="514">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="597" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11896,7 +12187,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="104">
         <v>0.05</v>
@@ -11962,7 +12253,7 @@
         <v>41</v>
       </c>
       <c r="C22" s="353" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="104">
         <v>0.02</v>
@@ -11991,12 +12282,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="594" t="s">
+      <c r="B23" s="550" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="595"/>
-      <c r="D23" s="595"/>
-      <c r="E23" s="596"/>
+      <c r="C23" s="551"/>
+      <c r="D23" s="551"/>
+      <c r="E23" s="552"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12018,12 +12309,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="584" t="s">
+      <c r="B24" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="585"/>
-      <c r="D24" s="585"/>
-      <c r="E24" s="586"/>
+      <c r="C24" s="589"/>
+      <c r="D24" s="589"/>
+      <c r="E24" s="590"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12066,35 +12357,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="559" t="s">
+      <c r="K27" s="563" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="559"/>
-      <c r="M27" s="559"/>
-      <c r="N27" s="475"/>
-      <c r="O27" s="475"/>
-      <c r="P27" s="491"/>
-      <c r="Q27" s="491"/>
+      <c r="L27" s="563"/>
+      <c r="M27" s="563"/>
+      <c r="N27" s="473"/>
+      <c r="O27" s="473"/>
+      <c r="P27" s="489"/>
+      <c r="Q27" s="489"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="556" t="s">
+      <c r="N28" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="556"/>
-      <c r="P28" s="557" t="s">
+      <c r="O28" s="560"/>
+      <c r="P28" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="558"/>
+      <c r="Q28" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12111,6 +12395,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12130,7 +12421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12176,50 +12467,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="608">
+      <c r="B2" s="599">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12230,9 +12521,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12251,22 +12542,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12277,22 +12568,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12303,27 +12594,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12514,12 +12805,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="632" t="s">
+      <c r="B14" s="597" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="633"/>
-      <c r="D14" s="633"/>
-      <c r="E14" s="633"/>
+      <c r="C14" s="598"/>
+      <c r="D14" s="598"/>
+      <c r="E14" s="598"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12541,13 +12832,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="594" t="s">
+      <c r="B15" s="550" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="595"/>
-      <c r="D15" s="595"/>
-      <c r="E15" s="595"/>
-      <c r="F15" s="631"/>
+      <c r="C15" s="551"/>
+      <c r="D15" s="551"/>
+      <c r="E15" s="551"/>
+      <c r="F15" s="596"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12566,12 +12857,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12618,39 +12909,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="559" t="s">
+      <c r="L19" s="563" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="559"/>
-      <c r="N19" s="559"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="563"/>
+      <c r="N19" s="563"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="556" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12664,6 +12944,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12691,7 +12982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12737,47 +13028,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12788,9 +13079,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12809,22 +13100,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12835,22 +13126,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12861,27 +13152,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="598"/>
-      <c r="D7" s="514">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="597" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13241,7 +13532,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="104">
         <v>0.05</v>
@@ -13361,28 +13652,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="634" t="s">
+      <c r="L23" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="634"/>
-      <c r="N23" s="634"/>
-      <c r="O23" s="475"/>
-      <c r="P23" s="475"/>
-      <c r="Q23" s="491"/>
-      <c r="R23" s="491"/>
+      <c r="M23" s="628"/>
+      <c r="N23" s="628"/>
+      <c r="O23" s="473"/>
+      <c r="P23" s="473"/>
+      <c r="Q23" s="489"/>
+      <c r="R23" s="489"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="556" t="s">
+      <c r="O24" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="556"/>
-      <c r="Q24" s="557" t="s">
+      <c r="P24" s="560"/>
+      <c r="Q24" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="558"/>
+      <c r="R24" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13397,13 +13695,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13425,7 +13716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -13471,47 +13762,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="629"/>
+      <c r="Q2" s="629"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13522,9 +13813,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13543,22 +13834,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="553"/>
+      <c r="J5" s="554"/>
+      <c r="K5" s="504"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13569,22 +13860,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="593"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="553"/>
+      <c r="J6" s="554"/>
+      <c r="K6" s="504"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13595,27 +13886,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="598"/>
-      <c r="D7" s="514">
+      <c r="C7" s="556"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="597" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="555" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="559"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13684,7 +13975,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="377" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -13899,28 +14190,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="634" t="s">
+      <c r="L18" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="634"/>
-      <c r="N18" s="634"/>
-      <c r="O18" s="475"/>
-      <c r="P18" s="475"/>
-      <c r="Q18" s="491"/>
-      <c r="R18" s="491"/>
+      <c r="M18" s="628"/>
+      <c r="N18" s="628"/>
+      <c r="O18" s="473"/>
+      <c r="P18" s="473"/>
+      <c r="Q18" s="489"/>
+      <c r="R18" s="489"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="556" t="s">
+      <c r="O19" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="556"/>
-      <c r="Q19" s="557" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="558"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -13936,12 +14233,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13964,7 +14255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14013,60 +14304,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="628"/>
-      <c r="M2" s="636"/>
-      <c r="N2" s="637"/>
-      <c r="O2" s="637"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
-      <c r="R2" s="638"/>
+      <c r="L2" s="619"/>
+      <c r="M2" s="630"/>
+      <c r="N2" s="631"/>
+      <c r="O2" s="631"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
+      <c r="R2" s="632"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
-      <c r="M3" s="639"/>
-      <c r="N3" s="640"/>
-      <c r="O3" s="640"/>
-      <c r="P3" s="640"/>
-      <c r="Q3" s="640"/>
-      <c r="R3" s="641"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
+      <c r="M3" s="633"/>
+      <c r="N3" s="634"/>
+      <c r="O3" s="634"/>
+      <c r="P3" s="634"/>
+      <c r="Q3" s="634"/>
+      <c r="R3" s="635"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14075,95 +14366,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="639"/>
-      <c r="N4" s="640"/>
-      <c r="O4" s="640"/>
-      <c r="P4" s="640"/>
-      <c r="Q4" s="640"/>
-      <c r="R4" s="641"/>
+      <c r="M4" s="633"/>
+      <c r="N4" s="634"/>
+      <c r="O4" s="634"/>
+      <c r="P4" s="634"/>
+      <c r="Q4" s="634"/>
+      <c r="R4" s="635"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
-      <c r="M5" s="639"/>
-      <c r="N5" s="640"/>
-      <c r="O5" s="640"/>
-      <c r="P5" s="640"/>
-      <c r="Q5" s="640"/>
-      <c r="R5" s="641"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
+      <c r="M5" s="633"/>
+      <c r="N5" s="634"/>
+      <c r="O5" s="634"/>
+      <c r="P5" s="634"/>
+      <c r="Q5" s="634"/>
+      <c r="R5" s="635"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
-      <c r="M6" s="639"/>
-      <c r="N6" s="640"/>
-      <c r="O6" s="640"/>
-      <c r="P6" s="640"/>
-      <c r="Q6" s="640"/>
-      <c r="R6" s="641"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
+      <c r="M6" s="633"/>
+      <c r="N6" s="634"/>
+      <c r="O6" s="634"/>
+      <c r="P6" s="634"/>
+      <c r="Q6" s="634"/>
+      <c r="R6" s="635"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
-      <c r="M7" s="639"/>
-      <c r="N7" s="640"/>
-      <c r="O7" s="640"/>
-      <c r="P7" s="640"/>
-      <c r="Q7" s="640"/>
-      <c r="R7" s="641"/>
+      <c r="L7" s="495"/>
+      <c r="M7" s="633"/>
+      <c r="N7" s="634"/>
+      <c r="O7" s="634"/>
+      <c r="P7" s="634"/>
+      <c r="Q7" s="634"/>
+      <c r="R7" s="635"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14319,38 +14610,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="486" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="476"/>
-      <c r="B13" s="477" t="s">
+    <row r="13" spans="1:19" s="484" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="474"/>
+      <c r="B13" s="475" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="478">
+      <c r="C13" s="476">
         <v>38.1</v>
       </c>
-      <c r="D13" s="479">
+      <c r="D13" s="477">
         <v>0.03</v>
       </c>
-      <c r="E13" s="479">
+      <c r="E13" s="477">
         <v>0</v>
       </c>
-      <c r="F13" s="480" t="s">
+      <c r="F13" s="478" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="481"/>
-      <c r="I13" s="482"/>
-      <c r="J13" s="482"/>
-      <c r="K13" s="482"/>
-      <c r="L13" s="482"/>
-      <c r="M13" s="483"/>
-      <c r="N13" s="483"/>
-      <c r="O13" s="483"/>
-      <c r="P13" s="483"/>
-      <c r="Q13" s="483"/>
-      <c r="R13" s="484"/>
-      <c r="S13" s="485"/>
+      <c r="H13" s="479"/>
+      <c r="I13" s="480"/>
+      <c r="J13" s="480"/>
+      <c r="K13" s="480"/>
+      <c r="L13" s="480"/>
+      <c r="M13" s="481"/>
+      <c r="N13" s="481"/>
+      <c r="O13" s="481"/>
+      <c r="P13" s="481"/>
+      <c r="Q13" s="481"/>
+      <c r="R13" s="482"/>
+      <c r="S13" s="483"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14577,12 +14868,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="584" t="s">
+      <c r="B21" s="588" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="585"/>
-      <c r="D21" s="585"/>
-      <c r="E21" s="586"/>
+      <c r="C21" s="589"/>
+      <c r="D21" s="589"/>
+      <c r="E21" s="590"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14627,34 +14918,28 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="634" t="s">
+      <c r="L24" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="634"/>
-      <c r="N24" s="634"/>
-      <c r="O24" s="475"/>
-      <c r="P24" s="475"/>
-      <c r="Q24" s="491"/>
-      <c r="R24" s="491"/>
+      <c r="M24" s="628"/>
+      <c r="N24" s="628"/>
+      <c r="O24" s="473"/>
+      <c r="P24" s="473"/>
+      <c r="Q24" s="489"/>
+      <c r="R24" s="489"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="556" t="s">
+      <c r="O25" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="556"/>
-      <c r="Q25" s="557" t="s">
+      <c r="P25" s="560"/>
+      <c r="Q25" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="558"/>
+      <c r="R25" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14671,6 +14956,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -14690,7 +14981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
@@ -14735,47 +15026,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="599"/>
+      <c r="C2" s="600"/>
+      <c r="D2" s="601"/>
+      <c r="E2" s="608" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="609"/>
+      <c r="G2" s="609"/>
+      <c r="H2" s="610"/>
+      <c r="I2" s="614" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="615"/>
+      <c r="K2" s="618">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="619"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="602"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="604"/>
+      <c r="E3" s="611" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="612"/>
+      <c r="G3" s="612"/>
+      <c r="H3" s="613"/>
+      <c r="I3" s="616"/>
+      <c r="J3" s="617"/>
+      <c r="K3" s="620"/>
+      <c r="L3" s="621"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14786,9 +15077,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="605"/>
+      <c r="C4" s="606"/>
+      <c r="D4" s="607"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14807,22 +15098,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="622"/>
+      <c r="D5" s="503" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
+      <c r="H5" s="505"/>
+      <c r="I5" s="623"/>
+      <c r="J5" s="624"/>
+      <c r="K5" s="625"/>
+      <c r="L5" s="505"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14833,22 +15124,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="622"/>
+      <c r="D6" s="497" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="594"/>
+      <c r="F6" s="594"/>
+      <c r="G6" s="594"/>
+      <c r="H6" s="595"/>
+      <c r="I6" s="623"/>
+      <c r="J6" s="624"/>
+      <c r="K6" s="625"/>
+      <c r="L6" s="505"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14859,27 +15150,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="555" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="626"/>
+      <c r="D7" s="506">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="557"/>
+      <c r="F7" s="557"/>
+      <c r="G7" s="557"/>
+      <c r="H7" s="558"/>
+      <c r="I7" s="627" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="626"/>
+      <c r="K7" s="494">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="495"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15008,38 +15299,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="486" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="476"/>
-      <c r="B12" s="487" t="s">
+    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="474"/>
+      <c r="B12" s="485" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="488">
+      <c r="C12" s="486">
         <v>28.6</v>
       </c>
-      <c r="D12" s="482">
+      <c r="D12" s="480">
         <v>0</v>
       </c>
-      <c r="E12" s="482">
+      <c r="E12" s="480">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="480" t="s">
+      <c r="F12" s="478" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="489"/>
-      <c r="I12" s="482"/>
-      <c r="J12" s="482"/>
-      <c r="K12" s="482"/>
-      <c r="L12" s="482"/>
-      <c r="M12" s="482"/>
-      <c r="N12" s="482"/>
-      <c r="O12" s="482"/>
-      <c r="P12" s="482"/>
-      <c r="Q12" s="482"/>
-      <c r="R12" s="490"/>
-      <c r="S12" s="485"/>
+      <c r="H12" s="487"/>
+      <c r="I12" s="480"/>
+      <c r="J12" s="480"/>
+      <c r="K12" s="480"/>
+      <c r="L12" s="480"/>
+      <c r="M12" s="480"/>
+      <c r="N12" s="480"/>
+      <c r="O12" s="480"/>
+      <c r="P12" s="480"/>
+      <c r="Q12" s="480"/>
+      <c r="R12" s="488"/>
+      <c r="S12" s="483"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15142,12 +15433,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="588" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15192,38 +15483,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="634" t="s">
+      <c r="L19" s="628" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="634"/>
-      <c r="N19" s="634"/>
-      <c r="O19" s="475"/>
-      <c r="P19" s="475"/>
-      <c r="Q19" s="491"/>
-      <c r="R19" s="491"/>
+      <c r="M19" s="628"/>
+      <c r="N19" s="628"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="473"/>
+      <c r="Q19" s="489"/>
+      <c r="R19" s="489"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="556" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15236,6 +15517,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-200-3 (Фляга 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B77C6B-DECC-4BA9-AFE9-5F9293F1F4A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB94E2-B134-4913-8947-4945A6FF53EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="157">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -3497,9 +3497,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3636,6 +3633,27 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3680,11 +3698,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3703,10 +3720,74 @@
     <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3717,60 +3798,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3780,29 +3807,104 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3810,6 +3912,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3825,110 +3941,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3938,93 +4037,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4055,6 +4067,9 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4064,12 +4079,12 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4082,22 +4097,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6809,25 +6809,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="496" t="s">
+      <c r="A1" s="504" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="500"/>
-      <c r="C1" s="500"/>
-      <c r="D1" s="500"/>
-      <c r="E1" s="500"/>
+      <c r="B1" s="508"/>
+      <c r="C1" s="508"/>
+      <c r="D1" s="508"/>
+      <c r="E1" s="508"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="497" t="s">
+      <c r="A2" s="505" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="499"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="507"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6838,45 +6838,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="509" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="502"/>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
+      <c r="B4" s="510"/>
+      <c r="C4" s="510"/>
+      <c r="D4" s="510"/>
+      <c r="E4" s="510"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="503" t="s">
+      <c r="A5" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="504"/>
-      <c r="C5" s="504"/>
-      <c r="D5" s="504"/>
-      <c r="E5" s="505"/>
+      <c r="B5" s="512"/>
+      <c r="C5" s="512"/>
+      <c r="D5" s="512"/>
+      <c r="E5" s="513"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="496" t="s">
+      <c r="A7" s="504" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="500"/>
-      <c r="C7" s="500"/>
-      <c r="D7" s="500"/>
-      <c r="E7" s="500"/>
+      <c r="B7" s="508"/>
+      <c r="C7" s="508"/>
+      <c r="D7" s="508"/>
+      <c r="E7" s="508"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="506"/>
-      <c r="B8" s="507"/>
-      <c r="C8" s="507"/>
-      <c r="D8" s="507"/>
-      <c r="E8" s="508"/>
+      <c r="A8" s="514"/>
+      <c r="B8" s="515"/>
+      <c r="C8" s="515"/>
+      <c r="D8" s="515"/>
+      <c r="E8" s="516"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="496" t="s">
+      <c r="A10" s="504" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="496"/>
+      <c r="B10" s="504"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6887,33 +6887,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="494"/>
-      <c r="B11" s="495"/>
+      <c r="A11" s="502"/>
+      <c r="B11" s="503"/>
       <c r="D11" s="369">
         <v>43931</v>
       </c>
-      <c r="F11" s="509" t="s">
+      <c r="F11" s="499" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="509"/>
-      <c r="H11" s="509"/>
-      <c r="I11" s="509"/>
-      <c r="J11" s="510" t="s">
+      <c r="G11" s="499"/>
+      <c r="H11" s="499"/>
+      <c r="I11" s="499"/>
+      <c r="J11" s="500" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="510"/>
+      <c r="K11" s="500"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="509" t="s">
+      <c r="F12" s="499" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="509"/>
-      <c r="H12" s="509"/>
-      <c r="I12" s="509"/>
-      <c r="J12" s="510" t="s">
+      <c r="G12" s="499"/>
+      <c r="H12" s="499"/>
+      <c r="I12" s="499"/>
+      <c r="J12" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="510"/>
+      <c r="K12" s="500"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6928,19 +6928,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="472" t="s">
+      <c r="E13" s="471" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="509" t="s">
+      <c r="F13" s="499" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="509"/>
-      <c r="H13" s="509"/>
-      <c r="I13" s="509"/>
-      <c r="J13" s="510" t="s">
+      <c r="G13" s="499"/>
+      <c r="H13" s="499"/>
+      <c r="I13" s="499"/>
+      <c r="J13" s="500" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="510"/>
+      <c r="K13" s="500"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7189,11 +7189,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="493" t="s">
+      <c r="A29" s="501" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="493"/>
-      <c r="C29" s="493"/>
+      <c r="B29" s="501"/>
+      <c r="C29" s="501"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7202,12 +7202,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7217,6 +7211,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7270,47 +7270,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
+      <c r="P2" s="643"/>
+      <c r="Q2" s="643"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7321,9 +7321,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7342,22 +7342,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7368,22 +7368,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7394,27 +7394,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="606"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="606"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7799,28 +7799,33 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="628" t="s">
+      <c r="L21" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="628"/>
-      <c r="N21" s="628"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="634"/>
+      <c r="N21" s="634"/>
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="556"/>
+      <c r="Q22" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7837,11 +7842,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7907,47 +7907,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
+      <c r="P2" s="644"/>
+      <c r="Q2" s="644"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7958,9 +7958,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7979,22 +7979,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8005,22 +8005,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8031,27 +8031,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="606"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="606"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8380,12 +8380,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="638" t="s">
+      <c r="B18" s="645" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="639"/>
-      <c r="D18" s="639"/>
-      <c r="E18" s="640"/>
+      <c r="C18" s="646"/>
+      <c r="D18" s="646"/>
+      <c r="E18" s="647"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8428,28 +8428,37 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="628" t="s">
+      <c r="L21" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="628"/>
-      <c r="N21" s="628"/>
-      <c r="O21" s="473"/>
-      <c r="P21" s="473"/>
-      <c r="Q21" s="489"/>
-      <c r="R21" s="489"/>
+      <c r="M21" s="634"/>
+      <c r="N21" s="634"/>
+      <c r="O21" s="472"/>
+      <c r="P21" s="472"/>
+      <c r="Q21" s="488"/>
+      <c r="R21" s="488"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="556"/>
+      <c r="Q22" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8463,15 +8472,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8546,47 +8546,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8597,9 +8597,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8618,22 +8618,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8644,22 +8644,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8670,27 +8670,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="606"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="606"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -9001,28 +9001,33 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="628" t="s">
+      <c r="L19" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="628"/>
-      <c r="N19" s="628"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="634"/>
+      <c r="N19" s="634"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="556"/>
+      <c r="Q20" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9039,11 +9044,6 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9100,47 +9100,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="643">
+      <c r="J2" s="624"/>
+      <c r="K2" s="650">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="644"/>
+      <c r="L2" s="651"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="649"/>
+      <c r="Q2" s="649"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="645"/>
-      <c r="L3" s="646"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="652"/>
+      <c r="L3" s="653"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9151,9 +9151,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9172,22 +9172,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9198,22 +9198,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9224,27 +9224,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="606"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="606"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9514,28 +9514,33 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="628" t="s">
+      <c r="L18" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="628"/>
-      <c r="N18" s="628"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="634"/>
+      <c r="N18" s="634"/>
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="556"/>
+      <c r="Q19" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9552,11 +9557,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9585,8 +9585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9607,11 +9607,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="471" t="s">
+      <c r="B1" s="470" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="470" t="str">
+      <c r="D1" s="469" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
@@ -9641,17 +9641,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="513" t="s">
+      <c r="A3" s="522" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="513"/>
-      <c r="C3" s="513"/>
-      <c r="D3" s="513"/>
-      <c r="E3" s="513"/>
-      <c r="F3" s="513"/>
-      <c r="G3" s="513"/>
-      <c r="H3" s="513"/>
-      <c r="I3" s="513"/>
+      <c r="B3" s="522"/>
+      <c r="C3" s="522"/>
+      <c r="D3" s="522"/>
+      <c r="E3" s="522"/>
+      <c r="F3" s="522"/>
+      <c r="G3" s="522"/>
+      <c r="H3" s="522"/>
+      <c r="I3" s="522"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9964,7 +9964,7 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="469">
+      <c r="E14" s="468">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -10167,7 +10167,7 @@
         <f>1-G21</f>
         <v>0.87990273809523811</v>
       </c>
-      <c r="J21" s="648">
+      <c r="J21" s="492">
         <v>190</v>
       </c>
       <c r="K21" s="403"/>
@@ -10178,7 +10178,7 @@
       <c r="B22" s="431">
         <v>43965</v>
       </c>
-      <c r="C22" s="492" t="s">
+      <c r="C22" s="491" t="s">
         <v>156</v>
       </c>
       <c r="D22" s="431">
@@ -10202,7 +10202,7 @@
         <f>I21-G22</f>
         <v>0.66124690476190473</v>
       </c>
-      <c r="J22" s="649">
+      <c r="J22" s="493">
         <v>192</v>
       </c>
       <c r="K22" s="383"/>
@@ -10210,15 +10210,36 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="435"/>
-      <c r="B23" s="436"/>
-      <c r="C23" s="436"/>
-      <c r="D23" s="436"/>
-      <c r="E23" s="437"/>
-      <c r="F23" s="437"/>
-      <c r="G23" s="438"/>
-      <c r="H23" s="439"/>
-      <c r="I23" s="440"/>
-      <c r="J23" s="650"/>
+      <c r="B23" s="654" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="436">
+        <v>43983</v>
+      </c>
+      <c r="D23" s="436">
+        <v>43993</v>
+      </c>
+      <c r="E23" s="437">
+        <v>204120</v>
+      </c>
+      <c r="F23" s="437">
+        <v>205981</v>
+      </c>
+      <c r="G23" s="426">
+        <f>F23/A$21</f>
+        <v>1.226077380952381E-2</v>
+      </c>
+      <c r="H23" s="433">
+        <f>H22-F23</f>
+        <v>10902967</v>
+      </c>
+      <c r="I23" s="434">
+        <f>I22-G23</f>
+        <v>0.64898613095238089</v>
+      </c>
+      <c r="J23" s="494">
+        <v>193</v>
+      </c>
       <c r="K23" s="403"/>
       <c r="L23" s="403"/>
     </row>
@@ -10231,8 +10252,8 @@
       <c r="F24" s="375"/>
       <c r="G24" s="375"/>
       <c r="H24" s="375"/>
-      <c r="I24" s="441"/>
-      <c r="J24" s="651"/>
+      <c r="I24" s="440"/>
+      <c r="J24" s="495"/>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
@@ -10243,11 +10264,11 @@
       <c r="D25" s="436"/>
       <c r="E25" s="437"/>
       <c r="F25" s="437"/>
-      <c r="G25" s="442"/>
-      <c r="H25" s="439"/>
-      <c r="I25" s="440"/>
-      <c r="J25" s="650"/>
-      <c r="K25" s="443"/>
+      <c r="G25" s="441"/>
+      <c r="H25" s="438"/>
+      <c r="I25" s="439"/>
+      <c r="J25" s="494"/>
+      <c r="K25" s="442"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -10257,10 +10278,10 @@
       <c r="D26" s="436"/>
       <c r="E26" s="437"/>
       <c r="F26" s="437"/>
-      <c r="G26" s="442"/>
-      <c r="H26" s="439"/>
-      <c r="I26" s="440"/>
-      <c r="J26" s="650"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="438"/>
+      <c r="I26" s="439"/>
+      <c r="J26" s="494"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
@@ -10269,12 +10290,12 @@
       <c r="B27" s="436"/>
       <c r="C27" s="436"/>
       <c r="D27" s="436"/>
-      <c r="E27" s="439"/>
+      <c r="E27" s="438"/>
       <c r="F27" s="437"/>
-      <c r="G27" s="442"/>
-      <c r="H27" s="439"/>
-      <c r="I27" s="440"/>
-      <c r="J27" s="650"/>
+      <c r="G27" s="441"/>
+      <c r="H27" s="438"/>
+      <c r="I27" s="439"/>
+      <c r="J27" s="494"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
@@ -10283,12 +10304,12 @@
       <c r="B28" s="436"/>
       <c r="C28" s="436"/>
       <c r="D28" s="436"/>
-      <c r="E28" s="439"/>
+      <c r="E28" s="438"/>
       <c r="F28" s="437"/>
-      <c r="G28" s="442"/>
-      <c r="H28" s="439"/>
-      <c r="I28" s="440"/>
-      <c r="J28" s="650"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="438"/>
+      <c r="I28" s="439"/>
+      <c r="J28" s="494"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
@@ -10299,10 +10320,10 @@
       <c r="D29" s="375"/>
       <c r="E29" s="375"/>
       <c r="F29" s="437"/>
-      <c r="G29" s="444"/>
-      <c r="H29" s="439"/>
-      <c r="I29" s="445"/>
-      <c r="J29" s="652"/>
+      <c r="G29" s="443"/>
+      <c r="H29" s="438"/>
+      <c r="I29" s="444"/>
+      <c r="J29" s="496"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
@@ -10313,57 +10334,57 @@
       <c r="D30" s="375"/>
       <c r="E30" s="375"/>
       <c r="F30" s="437"/>
-      <c r="G30" s="442"/>
-      <c r="H30" s="439"/>
-      <c r="I30" s="445"/>
-      <c r="J30" s="652"/>
+      <c r="G30" s="441"/>
+      <c r="H30" s="438"/>
+      <c r="I30" s="444"/>
+      <c r="J30" s="496"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="448"/>
-      <c r="E31" s="448"/>
-      <c r="F31" s="449"/>
-      <c r="G31" s="450"/>
-      <c r="H31" s="451"/>
-      <c r="I31" s="452"/>
-      <c r="J31" s="653"/>
+      <c r="A31" s="445"/>
+      <c r="B31" s="446"/>
+      <c r="C31" s="446"/>
+      <c r="D31" s="447"/>
+      <c r="E31" s="447"/>
+      <c r="F31" s="448"/>
+      <c r="G31" s="449"/>
+      <c r="H31" s="450"/>
+      <c r="I31" s="451"/>
+      <c r="J31" s="497"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="453" t="s">
+      <c r="A32" s="452" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="454"/>
-      <c r="C32" s="454"/>
-      <c r="D32" s="455"/>
-      <c r="E32" s="490">
+      <c r="B32" s="453"/>
+      <c r="C32" s="453"/>
+      <c r="D32" s="454"/>
+      <c r="E32" s="489">
         <f>SUM(E21:E31)</f>
-        <v>5471145</v>
-      </c>
-      <c r="F32" s="491">
+        <v>5675265</v>
+      </c>
+      <c r="F32" s="490">
         <f>SUM(F21:F31)</f>
-        <v>5691052</v>
-      </c>
-      <c r="G32" s="456">
+        <v>5897033</v>
+      </c>
+      <c r="G32" s="455">
         <f>SUM(G21:G31)</f>
-        <v>0.33875309523809521</v>
-      </c>
-      <c r="H32" s="457">
+        <v>0.351013869047619</v>
+      </c>
+      <c r="H32" s="456">
         <f>A21-F32</f>
-        <v>11108948</v>
-      </c>
-      <c r="I32" s="458">
+        <v>10902967</v>
+      </c>
+      <c r="I32" s="457">
         <f>1-G32</f>
-        <v>0.66124690476190473</v>
-      </c>
-      <c r="J32" s="654"/>
-      <c r="K32" s="459"/>
-      <c r="L32" s="459"/>
+        <v>0.648986130952381</v>
+      </c>
+      <c r="J32" s="498"/>
+      <c r="K32" s="458"/>
+      <c r="L32" s="458"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
@@ -10378,12 +10399,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="514" t="s">
+      <c r="A36" s="523" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="514"/>
-      <c r="C36" s="514"/>
-      <c r="D36" s="514"/>
+      <c r="B36" s="523"/>
+      <c r="C36" s="523"/>
+      <c r="D36" s="523"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10392,14 +10413,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="515" t="s">
+      <c r="A37" s="524" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="515"/>
-      <c r="C37" s="460" t="s">
+      <c r="B37" s="524"/>
+      <c r="C37" s="459" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="460" t="s">
+      <c r="D37" s="459" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="383"/>
@@ -10410,27 +10431,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="516">
+      <c r="A38" s="525">
         <f>A21-F32</f>
-        <v>11108948</v>
-      </c>
-      <c r="B38" s="517"/>
-      <c r="C38" s="461">
+        <v>10902967</v>
+      </c>
+      <c r="B38" s="526"/>
+      <c r="C38" s="460">
         <f>1-G32</f>
-        <v>0.66124690476190473</v>
-      </c>
-      <c r="D38" s="462">
+        <v>0.648986130952381</v>
+      </c>
+      <c r="D38" s="461">
         <f>(C38/0.8)*100</f>
-        <v>82.655863095238089</v>
-      </c>
-      <c r="E38" s="463" t="s">
+        <v>81.123266369047613</v>
+      </c>
+      <c r="E38" s="462" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="463"/>
-      <c r="G38" s="463"/>
-      <c r="H38" s="463"/>
-      <c r="I38" s="463"/>
-      <c r="J38" s="463"/>
+      <c r="F38" s="462"/>
+      <c r="G38" s="462"/>
+      <c r="H38" s="462"/>
+      <c r="I38" s="462"/>
+      <c r="J38" s="462"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10457,8 +10478,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="464"/>
-      <c r="C41" s="464"/>
+      <c r="B41" s="463"/>
+      <c r="C41" s="463"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10468,113 +10489,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="465"/>
-      <c r="B42" s="465"/>
-      <c r="C42" s="465"/>
-      <c r="D42" s="465"/>
-      <c r="E42" s="465"/>
-      <c r="F42" s="465"/>
-      <c r="G42" s="465"/>
-      <c r="H42" s="465"/>
-      <c r="I42" s="518"/>
-      <c r="J42" s="519"/>
+      <c r="A42" s="464"/>
+      <c r="B42" s="464"/>
+      <c r="C42" s="464"/>
+      <c r="D42" s="464"/>
+      <c r="E42" s="464"/>
+      <c r="F42" s="464"/>
+      <c r="G42" s="464"/>
+      <c r="H42" s="464"/>
+      <c r="I42" s="517"/>
+      <c r="J42" s="518"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="466"/>
-      <c r="B43" s="467"/>
-      <c r="C43" s="467"/>
+      <c r="A43" s="465"/>
+      <c r="B43" s="466"/>
+      <c r="C43" s="466"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="467"/>
+      <c r="F43" s="466"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="467"/>
+      <c r="H43" s="466"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="466"/>
-      <c r="B44" s="467"/>
-      <c r="C44" s="467"/>
-      <c r="D44" s="467"/>
-      <c r="E44" s="467"/>
-      <c r="F44" s="467"/>
+      <c r="A44" s="465"/>
+      <c r="B44" s="466"/>
+      <c r="C44" s="466"/>
+      <c r="D44" s="466"/>
+      <c r="E44" s="466"/>
+      <c r="F44" s="466"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="467"/>
+      <c r="H44" s="466"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="466"/>
-      <c r="B45" s="467"/>
-      <c r="C45" s="467"/>
+      <c r="A45" s="465"/>
+      <c r="B45" s="466"/>
+      <c r="C45" s="466"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="467"/>
+      <c r="F45" s="466"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="467"/>
+      <c r="H45" s="466"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="466"/>
-      <c r="B46" s="467"/>
-      <c r="C46" s="467"/>
-      <c r="D46" s="467"/>
-      <c r="E46" s="467"/>
-      <c r="F46" s="467"/>
+      <c r="A46" s="465"/>
+      <c r="B46" s="466"/>
+      <c r="C46" s="466"/>
+      <c r="D46" s="466"/>
+      <c r="E46" s="466"/>
+      <c r="F46" s="466"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="467"/>
+      <c r="H46" s="466"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="466"/>
-      <c r="B47" s="467"/>
-      <c r="C47" s="467"/>
+      <c r="A47" s="465"/>
+      <c r="B47" s="466"/>
+      <c r="C47" s="466"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="467"/>
+      <c r="F47" s="466"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="467"/>
+      <c r="H47" s="466"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="466"/>
-      <c r="B48" s="467"/>
+      <c r="A48" s="465"/>
+      <c r="B48" s="466"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="468"/>
-      <c r="E48" s="468"/>
+      <c r="D48" s="467"/>
+      <c r="E48" s="467"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="466"/>
-      <c r="B49" s="467"/>
-      <c r="C49" s="467"/>
-      <c r="D49" s="467"/>
-      <c r="E49" s="467"/>
-      <c r="F49" s="467"/>
+      <c r="A49" s="465"/>
+      <c r="B49" s="466"/>
+      <c r="C49" s="466"/>
+      <c r="D49" s="466"/>
+      <c r="E49" s="466"/>
+      <c r="F49" s="466"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="467"/>
+      <c r="H49" s="466"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="466"/>
-      <c r="B50" s="467"/>
-      <c r="C50" s="467"/>
-      <c r="D50" s="467"/>
-      <c r="E50" s="467"/>
-      <c r="F50" s="467"/>
+      <c r="A50" s="465"/>
+      <c r="B50" s="466"/>
+      <c r="C50" s="466"/>
+      <c r="D50" s="466"/>
+      <c r="E50" s="466"/>
+      <c r="F50" s="466"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="467"/>
+      <c r="H50" s="466"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="466"/>
-      <c r="B51" s="467"/>
-      <c r="C51" s="467"/>
+      <c r="A51" s="465"/>
+      <c r="B51" s="466"/>
+      <c r="C51" s="466"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="467"/>
+      <c r="F51" s="466"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="467"/>
+      <c r="H51" s="466"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="511"/>
-      <c r="C52" s="511"/>
-      <c r="D52" s="512"/>
-      <c r="E52" s="463"/>
+      <c r="B52" s="520"/>
+      <c r="C52" s="520"/>
+      <c r="D52" s="521"/>
+      <c r="E52" s="462"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10582,31 +10603,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="465"/>
-      <c r="B53" s="465"/>
-      <c r="C53" s="465"/>
-      <c r="D53" s="465"/>
-      <c r="E53" s="465"/>
-      <c r="F53" s="465"/>
-      <c r="G53" s="465"/>
-      <c r="H53" s="465"/>
-      <c r="I53" s="518"/>
-      <c r="J53" s="519"/>
+      <c r="A53" s="464"/>
+      <c r="B53" s="464"/>
+      <c r="C53" s="464"/>
+      <c r="D53" s="464"/>
+      <c r="E53" s="464"/>
+      <c r="F53" s="464"/>
+      <c r="G53" s="464"/>
+      <c r="H53" s="464"/>
+      <c r="I53" s="517"/>
+      <c r="J53" s="518"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="466"/>
+      <c r="A54" s="465"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="467"/>
-      <c r="I54" s="520"/>
-      <c r="J54" s="520"/>
+      <c r="H54" s="466"/>
+      <c r="I54" s="519"/>
+      <c r="J54" s="519"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="466"/>
+      <c r="A55" s="465"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10614,8 +10635,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="520"/>
-      <c r="J55" s="520"/>
+      <c r="I55" s="519"/>
+      <c r="J55" s="519"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10628,26 +10649,26 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="518"/>
-      <c r="C61" s="519"/>
+      <c r="B61" s="517"/>
+      <c r="C61" s="518"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="518"/>
-      <c r="C68" s="519"/>
+      <c r="B68" s="517"/>
+      <c r="C68" s="518"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10730,47 +10751,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="522" t="s">
+      <c r="A11" s="551" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="522"/>
-      <c r="C11" s="522"/>
-      <c r="D11" s="522"/>
-      <c r="E11" s="522"/>
-      <c r="F11" s="522"/>
-      <c r="G11" s="522"/>
-      <c r="H11" s="522"/>
-      <c r="I11" s="522"/>
-      <c r="J11" s="522"/>
+      <c r="B11" s="551"/>
+      <c r="C11" s="551"/>
+      <c r="D11" s="551"/>
+      <c r="E11" s="551"/>
+      <c r="F11" s="551"/>
+      <c r="G11" s="551"/>
+      <c r="H11" s="551"/>
+      <c r="I11" s="551"/>
+      <c r="J11" s="551"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="521" t="s">
+      <c r="A12" s="550" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="521"/>
-      <c r="C12" s="521"/>
-      <c r="D12" s="521"/>
-      <c r="E12" s="521"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="521"/>
-      <c r="H12" s="521"/>
-      <c r="I12" s="521"/>
-      <c r="J12" s="521"/>
+      <c r="B12" s="550"/>
+      <c r="C12" s="550"/>
+      <c r="D12" s="550"/>
+      <c r="E12" s="550"/>
+      <c r="F12" s="550"/>
+      <c r="G12" s="550"/>
+      <c r="H12" s="550"/>
+      <c r="I12" s="550"/>
+      <c r="J12" s="550"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="523" t="str">
+      <c r="A13" s="552" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="B13" s="522"/>
-      <c r="C13" s="522"/>
-      <c r="D13" s="522"/>
-      <c r="E13" s="522"/>
-      <c r="F13" s="522"/>
-      <c r="G13" s="522"/>
-      <c r="H13" s="522"/>
-      <c r="I13" s="522"/>
-      <c r="J13" s="522"/>
+      <c r="B13" s="551"/>
+      <c r="C13" s="551"/>
+      <c r="D13" s="551"/>
+      <c r="E13" s="551"/>
+      <c r="F13" s="551"/>
+      <c r="G13" s="551"/>
+      <c r="H13" s="551"/>
+      <c r="I13" s="551"/>
+      <c r="J13" s="551"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10895,497 +10916,497 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="527" t="s">
+      <c r="A22" s="548" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="527" t="s">
+      <c r="B22" s="548" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="527"/>
-      <c r="D22" s="527"/>
-      <c r="E22" s="527" t="s">
+      <c r="C22" s="548"/>
+      <c r="D22" s="548"/>
+      <c r="E22" s="548" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="527"/>
-      <c r="G22" s="545" t="s">
+      <c r="F22" s="548"/>
+      <c r="G22" s="549" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="527" t="s">
+      <c r="H22" s="548" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="527"/>
-      <c r="J22" s="527"/>
+      <c r="I22" s="548"/>
+      <c r="J22" s="548"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="527"/>
-      <c r="B23" s="527"/>
-      <c r="C23" s="527"/>
-      <c r="D23" s="527"/>
-      <c r="E23" s="527"/>
-      <c r="F23" s="527"/>
-      <c r="G23" s="545"/>
-      <c r="H23" s="527"/>
-      <c r="I23" s="527"/>
-      <c r="J23" s="527"/>
+      <c r="A23" s="548"/>
+      <c r="B23" s="548"/>
+      <c r="C23" s="548"/>
+      <c r="D23" s="548"/>
+      <c r="E23" s="548"/>
+      <c r="F23" s="548"/>
+      <c r="G23" s="549"/>
+      <c r="H23" s="548"/>
+      <c r="I23" s="548"/>
+      <c r="J23" s="548"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="528">
+      <c r="A24" s="527">
         <v>1</v>
       </c>
-      <c r="B24" s="542" t="s">
+      <c r="B24" s="553" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="543"/>
-      <c r="D24" s="544"/>
-      <c r="E24" s="530" t="str">
+      <c r="C24" s="554"/>
+      <c r="D24" s="555"/>
+      <c r="E24" s="532" t="str">
         <f>Данные!C14</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F24" s="531"/>
-      <c r="G24" s="534">
+      <c r="F24" s="533"/>
+      <c r="G24" s="536">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="536"/>
-      <c r="I24" s="537"/>
-      <c r="J24" s="538"/>
+      <c r="H24" s="538"/>
+      <c r="I24" s="539"/>
+      <c r="J24" s="540"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="529"/>
-      <c r="B25" s="524" t="str">
+      <c r="A25" s="528"/>
+      <c r="B25" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C25" s="525"/>
-      <c r="D25" s="526"/>
-      <c r="E25" s="532"/>
-      <c r="F25" s="533"/>
-      <c r="G25" s="535"/>
-      <c r="H25" s="539"/>
-      <c r="I25" s="540"/>
-      <c r="J25" s="541"/>
+      <c r="C25" s="545"/>
+      <c r="D25" s="546"/>
+      <c r="E25" s="547"/>
+      <c r="F25" s="535"/>
+      <c r="G25" s="537"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="542"/>
+      <c r="J25" s="543"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="528">
+      <c r="A26" s="527">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="546" t="s">
+      <c r="B26" s="529" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="547"/>
-      <c r="D26" s="548"/>
-      <c r="E26" s="530" t="str">
+      <c r="C26" s="530"/>
+      <c r="D26" s="531"/>
+      <c r="E26" s="532" t="str">
         <f>Данные!C15</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F26" s="531"/>
-      <c r="G26" s="534">
+      <c r="F26" s="533"/>
+      <c r="G26" s="536">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="536"/>
-      <c r="I26" s="537"/>
-      <c r="J26" s="538"/>
+      <c r="H26" s="538"/>
+      <c r="I26" s="539"/>
+      <c r="J26" s="540"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="529"/>
-      <c r="B27" s="524" t="str">
+      <c r="A27" s="528"/>
+      <c r="B27" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C27" s="525"/>
-      <c r="D27" s="526"/>
-      <c r="E27" s="532"/>
-      <c r="F27" s="533"/>
-      <c r="G27" s="535"/>
-      <c r="H27" s="539"/>
-      <c r="I27" s="540"/>
-      <c r="J27" s="541"/>
+      <c r="C27" s="545"/>
+      <c r="D27" s="546"/>
+      <c r="E27" s="547"/>
+      <c r="F27" s="535"/>
+      <c r="G27" s="537"/>
+      <c r="H27" s="541"/>
+      <c r="I27" s="542"/>
+      <c r="J27" s="543"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="528">
+      <c r="A28" s="527">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="546" t="s">
+      <c r="B28" s="529" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="547"/>
-      <c r="D28" s="548"/>
-      <c r="E28" s="530" t="str">
+      <c r="C28" s="530"/>
+      <c r="D28" s="531"/>
+      <c r="E28" s="532" t="str">
         <f>Данные!C16</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F28" s="531"/>
-      <c r="G28" s="534">
+      <c r="F28" s="533"/>
+      <c r="G28" s="536">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="536" t="s">
+      <c r="H28" s="538" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="537"/>
-      <c r="J28" s="538"/>
+      <c r="I28" s="539"/>
+      <c r="J28" s="540"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="529"/>
-      <c r="B29" s="524" t="str">
+      <c r="A29" s="528"/>
+      <c r="B29" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C29" s="525"/>
-      <c r="D29" s="526"/>
-      <c r="E29" s="532"/>
-      <c r="F29" s="533"/>
-      <c r="G29" s="535"/>
-      <c r="H29" s="539"/>
-      <c r="I29" s="540"/>
-      <c r="J29" s="541"/>
+      <c r="C29" s="545"/>
+      <c r="D29" s="546"/>
+      <c r="E29" s="547"/>
+      <c r="F29" s="535"/>
+      <c r="G29" s="537"/>
+      <c r="H29" s="541"/>
+      <c r="I29" s="542"/>
+      <c r="J29" s="543"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="528">
+      <c r="A30" s="527">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="546" t="s">
+      <c r="B30" s="529" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="547"/>
-      <c r="D30" s="548"/>
-      <c r="E30" s="530" t="str">
+      <c r="C30" s="530"/>
+      <c r="D30" s="531"/>
+      <c r="E30" s="532" t="str">
         <f>Данные!C17</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F30" s="531"/>
-      <c r="G30" s="534">
+      <c r="F30" s="533"/>
+      <c r="G30" s="536">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="536"/>
-      <c r="I30" s="537"/>
-      <c r="J30" s="538"/>
+      <c r="H30" s="538"/>
+      <c r="I30" s="539"/>
+      <c r="J30" s="540"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="529"/>
-      <c r="B31" s="524" t="str">
+      <c r="A31" s="528"/>
+      <c r="B31" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C31" s="525"/>
-      <c r="D31" s="526"/>
-      <c r="E31" s="549"/>
-      <c r="F31" s="533"/>
-      <c r="G31" s="535"/>
-      <c r="H31" s="539"/>
-      <c r="I31" s="540"/>
-      <c r="J31" s="541"/>
+      <c r="C31" s="545"/>
+      <c r="D31" s="546"/>
+      <c r="E31" s="534"/>
+      <c r="F31" s="535"/>
+      <c r="G31" s="537"/>
+      <c r="H31" s="541"/>
+      <c r="I31" s="542"/>
+      <c r="J31" s="543"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="528">
+      <c r="A32" s="527">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="546" t="s">
+      <c r="B32" s="529" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="547"/>
-      <c r="D32" s="548"/>
-      <c r="E32" s="530" t="str">
+      <c r="C32" s="530"/>
+      <c r="D32" s="531"/>
+      <c r="E32" s="532" t="str">
         <f>Данные!C18</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F32" s="531"/>
-      <c r="G32" s="534">
+      <c r="F32" s="533"/>
+      <c r="G32" s="536">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="536" t="s">
+      <c r="H32" s="538" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="537"/>
-      <c r="J32" s="538"/>
+      <c r="I32" s="539"/>
+      <c r="J32" s="540"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="529"/>
-      <c r="B33" s="524" t="str">
+      <c r="A33" s="528"/>
+      <c r="B33" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C33" s="525"/>
-      <c r="D33" s="526"/>
-      <c r="E33" s="549"/>
-      <c r="F33" s="533"/>
-      <c r="G33" s="535"/>
-      <c r="H33" s="539"/>
-      <c r="I33" s="540"/>
-      <c r="J33" s="541"/>
+      <c r="C33" s="545"/>
+      <c r="D33" s="546"/>
+      <c r="E33" s="534"/>
+      <c r="F33" s="535"/>
+      <c r="G33" s="537"/>
+      <c r="H33" s="541"/>
+      <c r="I33" s="542"/>
+      <c r="J33" s="543"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="528">
+      <c r="A34" s="527">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="546" t="s">
+      <c r="B34" s="529" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="547"/>
-      <c r="D34" s="548"/>
-      <c r="E34" s="530" t="str">
+      <c r="C34" s="530"/>
+      <c r="D34" s="531"/>
+      <c r="E34" s="532" t="str">
         <f>Данные!C19</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F34" s="531"/>
-      <c r="G34" s="534">
+      <c r="F34" s="533"/>
+      <c r="G34" s="536">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="H34" s="536"/>
-      <c r="I34" s="537"/>
-      <c r="J34" s="538"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="539"/>
+      <c r="J34" s="540"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="529"/>
-      <c r="B35" s="524" t="str">
+      <c r="A35" s="528"/>
+      <c r="B35" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C35" s="525"/>
-      <c r="D35" s="526"/>
-      <c r="E35" s="549"/>
-      <c r="F35" s="533"/>
-      <c r="G35" s="535"/>
-      <c r="H35" s="539"/>
-      <c r="I35" s="540"/>
-      <c r="J35" s="541"/>
+      <c r="C35" s="545"/>
+      <c r="D35" s="546"/>
+      <c r="E35" s="534"/>
+      <c r="F35" s="535"/>
+      <c r="G35" s="537"/>
+      <c r="H35" s="541"/>
+      <c r="I35" s="542"/>
+      <c r="J35" s="543"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="528">
+      <c r="A36" s="527">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="546" t="s">
+      <c r="B36" s="529" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="547"/>
-      <c r="D36" s="548"/>
-      <c r="E36" s="530" t="str">
+      <c r="C36" s="530"/>
+      <c r="D36" s="531"/>
+      <c r="E36" s="532" t="str">
         <f>Данные!C20</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F36" s="531"/>
-      <c r="G36" s="534">
+      <c r="F36" s="533"/>
+      <c r="G36" s="536">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="536"/>
-      <c r="I36" s="537"/>
-      <c r="J36" s="538"/>
+      <c r="H36" s="538"/>
+      <c r="I36" s="539"/>
+      <c r="J36" s="540"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="529"/>
-      <c r="B37" s="524" t="str">
+      <c r="A37" s="528"/>
+      <c r="B37" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C37" s="525"/>
-      <c r="D37" s="526"/>
-      <c r="E37" s="549"/>
-      <c r="F37" s="533"/>
-      <c r="G37" s="535"/>
-      <c r="H37" s="539"/>
-      <c r="I37" s="540"/>
-      <c r="J37" s="541"/>
+      <c r="C37" s="545"/>
+      <c r="D37" s="546"/>
+      <c r="E37" s="534"/>
+      <c r="F37" s="535"/>
+      <c r="G37" s="537"/>
+      <c r="H37" s="541"/>
+      <c r="I37" s="542"/>
+      <c r="J37" s="543"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="528">
+      <c r="A38" s="527">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="546" t="s">
+      <c r="B38" s="529" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="547"/>
-      <c r="D38" s="548"/>
-      <c r="E38" s="530">
+      <c r="C38" s="530"/>
+      <c r="D38" s="531"/>
+      <c r="E38" s="532">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="531"/>
-      <c r="G38" s="534">
+      <c r="F38" s="533"/>
+      <c r="G38" s="536">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="536"/>
-      <c r="I38" s="537"/>
-      <c r="J38" s="538"/>
+      <c r="H38" s="538"/>
+      <c r="I38" s="539"/>
+      <c r="J38" s="540"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="529"/>
-      <c r="B39" s="524" t="str">
+      <c r="A39" s="528"/>
+      <c r="B39" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C39" s="525"/>
-      <c r="D39" s="526"/>
-      <c r="E39" s="549"/>
-      <c r="F39" s="533"/>
-      <c r="G39" s="535"/>
-      <c r="H39" s="539"/>
-      <c r="I39" s="540"/>
-      <c r="J39" s="541"/>
+      <c r="C39" s="545"/>
+      <c r="D39" s="546"/>
+      <c r="E39" s="534"/>
+      <c r="F39" s="535"/>
+      <c r="G39" s="537"/>
+      <c r="H39" s="541"/>
+      <c r="I39" s="542"/>
+      <c r="J39" s="543"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="528">
+      <c r="A40" s="527">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="546" t="s">
+      <c r="B40" s="529" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="547"/>
-      <c r="D40" s="548"/>
-      <c r="E40" s="530" t="str">
+      <c r="C40" s="530"/>
+      <c r="D40" s="531"/>
+      <c r="E40" s="532" t="str">
         <f>Данные!C23</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F40" s="531"/>
-      <c r="G40" s="534">
+      <c r="F40" s="533"/>
+      <c r="G40" s="536">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="536"/>
-      <c r="I40" s="537"/>
-      <c r="J40" s="538"/>
+      <c r="H40" s="538"/>
+      <c r="I40" s="539"/>
+      <c r="J40" s="540"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="529"/>
-      <c r="B41" s="524" t="str">
+      <c r="A41" s="528"/>
+      <c r="B41" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C41" s="525"/>
-      <c r="D41" s="526"/>
-      <c r="E41" s="549"/>
-      <c r="F41" s="533"/>
-      <c r="G41" s="535"/>
-      <c r="H41" s="539"/>
-      <c r="I41" s="540"/>
-      <c r="J41" s="541"/>
+      <c r="C41" s="545"/>
+      <c r="D41" s="546"/>
+      <c r="E41" s="534"/>
+      <c r="F41" s="535"/>
+      <c r="G41" s="537"/>
+      <c r="H41" s="541"/>
+      <c r="I41" s="542"/>
+      <c r="J41" s="543"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="528">
+      <c r="A42" s="527">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="546" t="s">
+      <c r="B42" s="529" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="547"/>
-      <c r="D42" s="548"/>
-      <c r="E42" s="530">
+      <c r="C42" s="530"/>
+      <c r="D42" s="531"/>
+      <c r="E42" s="532">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="531"/>
-      <c r="G42" s="534">
+      <c r="F42" s="533"/>
+      <c r="G42" s="536">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="536"/>
-      <c r="I42" s="537"/>
-      <c r="J42" s="538"/>
+      <c r="H42" s="538"/>
+      <c r="I42" s="539"/>
+      <c r="J42" s="540"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="529"/>
-      <c r="B43" s="524" t="str">
+      <c r="A43" s="528"/>
+      <c r="B43" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C43" s="525"/>
-      <c r="D43" s="526"/>
-      <c r="E43" s="549"/>
-      <c r="F43" s="533"/>
-      <c r="G43" s="535"/>
-      <c r="H43" s="539"/>
-      <c r="I43" s="540"/>
-      <c r="J43" s="541"/>
+      <c r="C43" s="545"/>
+      <c r="D43" s="546"/>
+      <c r="E43" s="534"/>
+      <c r="F43" s="535"/>
+      <c r="G43" s="537"/>
+      <c r="H43" s="541"/>
+      <c r="I43" s="542"/>
+      <c r="J43" s="543"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="528">
+      <c r="A44" s="527">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="546" t="s">
+      <c r="B44" s="529" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="547"/>
-      <c r="D44" s="548"/>
-      <c r="E44" s="530">
+      <c r="C44" s="530"/>
+      <c r="D44" s="531"/>
+      <c r="E44" s="532">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="531"/>
-      <c r="G44" s="534">
+      <c r="F44" s="533"/>
+      <c r="G44" s="536">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="536"/>
-      <c r="I44" s="537"/>
-      <c r="J44" s="538"/>
+      <c r="H44" s="538"/>
+      <c r="I44" s="539"/>
+      <c r="J44" s="540"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="529"/>
-      <c r="B45" s="524" t="str">
+      <c r="A45" s="528"/>
+      <c r="B45" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C45" s="525"/>
-      <c r="D45" s="526"/>
-      <c r="E45" s="549"/>
-      <c r="F45" s="533"/>
-      <c r="G45" s="535"/>
-      <c r="H45" s="539"/>
-      <c r="I45" s="540"/>
-      <c r="J45" s="541"/>
+      <c r="C45" s="545"/>
+      <c r="D45" s="546"/>
+      <c r="E45" s="534"/>
+      <c r="F45" s="535"/>
+      <c r="G45" s="537"/>
+      <c r="H45" s="541"/>
+      <c r="I45" s="542"/>
+      <c r="J45" s="543"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="528">
+      <c r="A46" s="527">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="546" t="s">
+      <c r="B46" s="529" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="547"/>
-      <c r="D46" s="548"/>
-      <c r="E46" s="530" t="str">
+      <c r="C46" s="530"/>
+      <c r="D46" s="531"/>
+      <c r="E46" s="532" t="str">
         <f>Данные!C24</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F46" s="531"/>
-      <c r="G46" s="534">
+      <c r="F46" s="533"/>
+      <c r="G46" s="536">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="536"/>
-      <c r="I46" s="537"/>
-      <c r="J46" s="538"/>
+      <c r="H46" s="538"/>
+      <c r="I46" s="539"/>
+      <c r="J46" s="540"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="529"/>
-      <c r="B47" s="524" t="str">
+      <c r="A47" s="528"/>
+      <c r="B47" s="544" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C47" s="525"/>
-      <c r="D47" s="526"/>
-      <c r="E47" s="549"/>
-      <c r="F47" s="533"/>
-      <c r="G47" s="535"/>
-      <c r="H47" s="539"/>
-      <c r="I47" s="540"/>
-      <c r="J47" s="541"/>
+      <c r="C47" s="545"/>
+      <c r="D47" s="546"/>
+      <c r="E47" s="534"/>
+      <c r="F47" s="535"/>
+      <c r="G47" s="537"/>
+      <c r="H47" s="541"/>
+      <c r="I47" s="542"/>
+      <c r="J47" s="543"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11514,70 +11535,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11594,6 +11551,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11648,47 +11669,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11699,9 +11720,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11720,22 +11741,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11746,22 +11767,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11772,27 +11793,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="506">
+      <c r="C7" s="598"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="597" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="494">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12282,12 +12303,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="550" t="s">
+      <c r="B23" s="594" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="551"/>
-      <c r="D23" s="551"/>
-      <c r="E23" s="552"/>
+      <c r="C23" s="595"/>
+      <c r="D23" s="595"/>
+      <c r="E23" s="596"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12309,12 +12330,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="588" t="s">
+      <c r="B24" s="584" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="589"/>
-      <c r="D24" s="589"/>
-      <c r="E24" s="590"/>
+      <c r="C24" s="585"/>
+      <c r="D24" s="585"/>
+      <c r="E24" s="586"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12357,28 +12378,35 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="563" t="s">
+      <c r="K27" s="559" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="563"/>
-      <c r="M27" s="563"/>
-      <c r="N27" s="473"/>
-      <c r="O27" s="473"/>
-      <c r="P27" s="489"/>
-      <c r="Q27" s="489"/>
+      <c r="L27" s="559"/>
+      <c r="M27" s="559"/>
+      <c r="N27" s="472"/>
+      <c r="O27" s="472"/>
+      <c r="P27" s="488"/>
+      <c r="Q27" s="488"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="560" t="s">
+      <c r="N28" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="560"/>
-      <c r="P28" s="561" t="s">
+      <c r="O28" s="556"/>
+      <c r="P28" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="562"/>
+      <c r="Q28" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12395,13 +12423,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12467,50 +12488,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="599">
+      <c r="B2" s="608">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12521,9 +12542,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12542,22 +12563,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12568,22 +12589,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12594,27 +12615,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="606"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="606"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12805,12 +12826,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="597" t="s">
+      <c r="B14" s="632" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="598"/>
-      <c r="D14" s="598"/>
-      <c r="E14" s="598"/>
+      <c r="C14" s="633"/>
+      <c r="D14" s="633"/>
+      <c r="E14" s="633"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12832,13 +12853,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="550" t="s">
+      <c r="B15" s="594" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="551"/>
-      <c r="D15" s="551"/>
-      <c r="E15" s="551"/>
-      <c r="F15" s="596"/>
+      <c r="C15" s="595"/>
+      <c r="D15" s="595"/>
+      <c r="E15" s="595"/>
+      <c r="F15" s="631"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12857,12 +12878,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="584" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="585"/>
+      <c r="D16" s="585"/>
+      <c r="E16" s="586"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12909,28 +12930,39 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="563" t="s">
+      <c r="L19" s="559" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="563"/>
-      <c r="N19" s="563"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="559"/>
+      <c r="N19" s="559"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="556"/>
+      <c r="Q20" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12944,17 +12976,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13028,47 +13049,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13079,9 +13100,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13100,22 +13121,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13126,22 +13147,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13152,27 +13173,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="506">
+      <c r="C7" s="598"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="597" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="494">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13652,35 +13673,28 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="628" t="s">
+      <c r="L23" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="628"/>
-      <c r="N23" s="628"/>
-      <c r="O23" s="473"/>
-      <c r="P23" s="473"/>
-      <c r="Q23" s="489"/>
-      <c r="R23" s="489"/>
+      <c r="M23" s="634"/>
+      <c r="N23" s="634"/>
+      <c r="O23" s="472"/>
+      <c r="P23" s="472"/>
+      <c r="Q23" s="488"/>
+      <c r="R23" s="488"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="560" t="s">
+      <c r="O24" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="560"/>
-      <c r="Q24" s="561" t="s">
+      <c r="P24" s="556"/>
+      <c r="Q24" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="562"/>
+      <c r="R24" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13695,6 +13709,13 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13762,47 +13783,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="629"/>
-      <c r="Q2" s="629"/>
+      <c r="P2" s="635"/>
+      <c r="Q2" s="635"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13813,9 +13834,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13834,22 +13855,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="553"/>
-      <c r="J5" s="554"/>
-      <c r="K5" s="504"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="512"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13860,22 +13881,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="593"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="591"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="553"/>
-      <c r="J6" s="554"/>
-      <c r="K6" s="504"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="512"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13886,27 +13907,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="556"/>
-      <c r="D7" s="506">
+      <c r="C7" s="598"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="555" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="597" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="559"/>
-      <c r="K7" s="494">
+      <c r="J7" s="601"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14190,34 +14211,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="628" t="s">
+      <c r="L18" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="628"/>
-      <c r="N18" s="628"/>
-      <c r="O18" s="473"/>
-      <c r="P18" s="473"/>
-      <c r="Q18" s="489"/>
-      <c r="R18" s="489"/>
+      <c r="M18" s="634"/>
+      <c r="N18" s="634"/>
+      <c r="O18" s="472"/>
+      <c r="P18" s="472"/>
+      <c r="Q18" s="488"/>
+      <c r="R18" s="488"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="556"/>
+      <c r="Q19" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14233,6 +14248,12 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14304,60 +14325,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="619"/>
-      <c r="M2" s="630"/>
-      <c r="N2" s="631"/>
-      <c r="O2" s="631"/>
-      <c r="P2" s="631"/>
-      <c r="Q2" s="631"/>
-      <c r="R2" s="632"/>
+      <c r="L2" s="628"/>
+      <c r="M2" s="636"/>
+      <c r="N2" s="637"/>
+      <c r="O2" s="637"/>
+      <c r="P2" s="637"/>
+      <c r="Q2" s="637"/>
+      <c r="R2" s="638"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
-      <c r="M3" s="633"/>
-      <c r="N3" s="634"/>
-      <c r="O3" s="634"/>
-      <c r="P3" s="634"/>
-      <c r="Q3" s="634"/>
-      <c r="R3" s="635"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
+      <c r="M3" s="639"/>
+      <c r="N3" s="640"/>
+      <c r="O3" s="640"/>
+      <c r="P3" s="640"/>
+      <c r="Q3" s="640"/>
+      <c r="R3" s="641"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14366,95 +14387,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="633"/>
-      <c r="N4" s="634"/>
-      <c r="O4" s="634"/>
-      <c r="P4" s="634"/>
-      <c r="Q4" s="634"/>
-      <c r="R4" s="635"/>
+      <c r="M4" s="639"/>
+      <c r="N4" s="640"/>
+      <c r="O4" s="640"/>
+      <c r="P4" s="640"/>
+      <c r="Q4" s="640"/>
+      <c r="R4" s="641"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
-      <c r="M5" s="633"/>
-      <c r="N5" s="634"/>
-      <c r="O5" s="634"/>
-      <c r="P5" s="634"/>
-      <c r="Q5" s="634"/>
-      <c r="R5" s="635"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="513"/>
+      <c r="M5" s="639"/>
+      <c r="N5" s="640"/>
+      <c r="O5" s="640"/>
+      <c r="P5" s="640"/>
+      <c r="Q5" s="640"/>
+      <c r="R5" s="641"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
-      <c r="M6" s="633"/>
-      <c r="N6" s="634"/>
-      <c r="O6" s="634"/>
-      <c r="P6" s="634"/>
-      <c r="Q6" s="634"/>
-      <c r="R6" s="635"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="513"/>
+      <c r="M6" s="639"/>
+      <c r="N6" s="640"/>
+      <c r="O6" s="640"/>
+      <c r="P6" s="640"/>
+      <c r="Q6" s="640"/>
+      <c r="R6" s="641"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="606"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="606"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
-      <c r="M7" s="633"/>
-      <c r="N7" s="634"/>
-      <c r="O7" s="634"/>
-      <c r="P7" s="634"/>
-      <c r="Q7" s="634"/>
-      <c r="R7" s="635"/>
+      <c r="L7" s="503"/>
+      <c r="M7" s="639"/>
+      <c r="N7" s="640"/>
+      <c r="O7" s="640"/>
+      <c r="P7" s="640"/>
+      <c r="Q7" s="640"/>
+      <c r="R7" s="641"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14610,38 +14631,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="484" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="474"/>
-      <c r="B13" s="475" t="s">
+    <row r="13" spans="1:19" s="483" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="473"/>
+      <c r="B13" s="474" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="476">
+      <c r="C13" s="475">
         <v>38.1</v>
       </c>
-      <c r="D13" s="477">
+      <c r="D13" s="476">
         <v>0.03</v>
       </c>
-      <c r="E13" s="477">
+      <c r="E13" s="476">
         <v>0</v>
       </c>
-      <c r="F13" s="478" t="s">
+      <c r="F13" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="479"/>
-      <c r="I13" s="480"/>
-      <c r="J13" s="480"/>
-      <c r="K13" s="480"/>
-      <c r="L13" s="480"/>
-      <c r="M13" s="481"/>
-      <c r="N13" s="481"/>
-      <c r="O13" s="481"/>
-      <c r="P13" s="481"/>
-      <c r="Q13" s="481"/>
-      <c r="R13" s="482"/>
-      <c r="S13" s="483"/>
+      <c r="H13" s="478"/>
+      <c r="I13" s="479"/>
+      <c r="J13" s="479"/>
+      <c r="K13" s="479"/>
+      <c r="L13" s="479"/>
+      <c r="M13" s="480"/>
+      <c r="N13" s="480"/>
+      <c r="O13" s="480"/>
+      <c r="P13" s="480"/>
+      <c r="Q13" s="480"/>
+      <c r="R13" s="481"/>
+      <c r="S13" s="482"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14868,12 +14889,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="588" t="s">
+      <c r="B21" s="584" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="589"/>
-      <c r="D21" s="589"/>
-      <c r="E21" s="590"/>
+      <c r="C21" s="585"/>
+      <c r="D21" s="585"/>
+      <c r="E21" s="586"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14918,28 +14939,34 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="628" t="s">
+      <c r="L24" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="628"/>
-      <c r="N24" s="628"/>
-      <c r="O24" s="473"/>
-      <c r="P24" s="473"/>
-      <c r="Q24" s="489"/>
-      <c r="R24" s="489"/>
+      <c r="M24" s="634"/>
+      <c r="N24" s="634"/>
+      <c r="O24" s="472"/>
+      <c r="P24" s="472"/>
+      <c r="Q24" s="488"/>
+      <c r="R24" s="488"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="560" t="s">
+      <c r="O25" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="560"/>
-      <c r="Q25" s="561" t="s">
+      <c r="P25" s="556"/>
+      <c r="Q25" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="562"/>
+      <c r="R25" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -14956,12 +14983,6 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15026,47 +15047,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="599"/>
-      <c r="C2" s="600"/>
-      <c r="D2" s="601"/>
-      <c r="E2" s="608" t="s">
+      <c r="B2" s="608"/>
+      <c r="C2" s="609"/>
+      <c r="D2" s="610"/>
+      <c r="E2" s="617" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="609"/>
-      <c r="G2" s="609"/>
-      <c r="H2" s="610"/>
-      <c r="I2" s="614" t="s">
+      <c r="F2" s="618"/>
+      <c r="G2" s="618"/>
+      <c r="H2" s="619"/>
+      <c r="I2" s="623" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="615"/>
-      <c r="K2" s="618">
+      <c r="J2" s="624"/>
+      <c r="K2" s="627">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="L2" s="619"/>
+      <c r="L2" s="628"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="636"/>
-      <c r="Q2" s="636"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="602"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="604"/>
-      <c r="E3" s="611" t="s">
+      <c r="B3" s="611"/>
+      <c r="C3" s="612"/>
+      <c r="D3" s="613"/>
+      <c r="E3" s="620" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="612"/>
-      <c r="G3" s="612"/>
-      <c r="H3" s="613"/>
-      <c r="I3" s="616"/>
-      <c r="J3" s="617"/>
-      <c r="K3" s="620"/>
-      <c r="L3" s="621"/>
+      <c r="F3" s="621"/>
+      <c r="G3" s="621"/>
+      <c r="H3" s="622"/>
+      <c r="I3" s="625"/>
+      <c r="J3" s="626"/>
+      <c r="K3" s="629"/>
+      <c r="L3" s="630"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15077,9 +15098,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="605"/>
-      <c r="C4" s="606"/>
-      <c r="D4" s="607"/>
+      <c r="B4" s="614"/>
+      <c r="C4" s="615"/>
+      <c r="D4" s="616"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15098,22 +15119,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="587" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="622"/>
-      <c r="D5" s="503" t="str">
+      <c r="C5" s="602"/>
+      <c r="D5" s="511" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
-      <c r="H5" s="505"/>
-      <c r="I5" s="623"/>
-      <c r="J5" s="624"/>
-      <c r="K5" s="625"/>
-      <c r="L5" s="505"/>
+      <c r="E5" s="512"/>
+      <c r="F5" s="512"/>
+      <c r="G5" s="512"/>
+      <c r="H5" s="513"/>
+      <c r="I5" s="603"/>
+      <c r="J5" s="604"/>
+      <c r="K5" s="605"/>
+      <c r="L5" s="513"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15124,22 +15145,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="587" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="622"/>
-      <c r="D6" s="497" t="str">
+      <c r="C6" s="602"/>
+      <c r="D6" s="505" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="594"/>
-      <c r="F6" s="594"/>
-      <c r="G6" s="594"/>
-      <c r="H6" s="595"/>
-      <c r="I6" s="623"/>
-      <c r="J6" s="624"/>
-      <c r="K6" s="625"/>
-      <c r="L6" s="505"/>
+      <c r="E6" s="592"/>
+      <c r="F6" s="592"/>
+      <c r="G6" s="592"/>
+      <c r="H6" s="593"/>
+      <c r="I6" s="603"/>
+      <c r="J6" s="604"/>
+      <c r="K6" s="605"/>
+      <c r="L6" s="513"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15150,27 +15171,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="555" t="s">
+      <c r="B7" s="597" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="626"/>
-      <c r="D7" s="506">
+      <c r="C7" s="606"/>
+      <c r="D7" s="514">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="557"/>
-      <c r="F7" s="557"/>
-      <c r="G7" s="557"/>
-      <c r="H7" s="558"/>
-      <c r="I7" s="627" t="s">
+      <c r="E7" s="599"/>
+      <c r="F7" s="599"/>
+      <c r="G7" s="599"/>
+      <c r="H7" s="600"/>
+      <c r="I7" s="607" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="626"/>
-      <c r="K7" s="494">
+      <c r="J7" s="606"/>
+      <c r="K7" s="502">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="495"/>
+      <c r="L7" s="503"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15299,38 +15320,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="484" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="474"/>
-      <c r="B12" s="485" t="s">
+    <row r="12" spans="1:19" s="483" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="473"/>
+      <c r="B12" s="484" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="486">
+      <c r="C12" s="485">
         <v>28.6</v>
       </c>
-      <c r="D12" s="480">
+      <c r="D12" s="479">
         <v>0</v>
       </c>
-      <c r="E12" s="480">
+      <c r="E12" s="479">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="478" t="s">
+      <c r="F12" s="477" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="487"/>
-      <c r="I12" s="480"/>
-      <c r="J12" s="480"/>
-      <c r="K12" s="480"/>
-      <c r="L12" s="480"/>
-      <c r="M12" s="480"/>
-      <c r="N12" s="480"/>
-      <c r="O12" s="480"/>
-      <c r="P12" s="480"/>
-      <c r="Q12" s="480"/>
-      <c r="R12" s="488"/>
-      <c r="S12" s="483"/>
+      <c r="H12" s="486"/>
+      <c r="I12" s="479"/>
+      <c r="J12" s="479"/>
+      <c r="K12" s="479"/>
+      <c r="L12" s="479"/>
+      <c r="M12" s="479"/>
+      <c r="N12" s="479"/>
+      <c r="O12" s="479"/>
+      <c r="P12" s="479"/>
+      <c r="Q12" s="479"/>
+      <c r="R12" s="487"/>
+      <c r="S12" s="482"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15433,12 +15454,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="584" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="585"/>
+      <c r="D16" s="585"/>
+      <c r="E16" s="586"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15483,28 +15504,38 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="628" t="s">
+      <c r="L19" s="634" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="628"/>
-      <c r="N19" s="628"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="473"/>
-      <c r="Q19" s="489"/>
-      <c r="R19" s="489"/>
+      <c r="M19" s="634"/>
+      <c r="N19" s="634"/>
+      <c r="O19" s="472"/>
+      <c r="P19" s="472"/>
+      <c r="Q19" s="488"/>
+      <c r="R19" s="488"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="556" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="556"/>
+      <c r="Q20" s="557" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="558"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15517,16 +15548,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-200-3 (Фляга 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB94E2-B134-4913-8947-4945A6FF53EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB52B9-BA25-4318-A850-8AA36BF5CA34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2215,7 +2215,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="655">
+  <cellXfs count="658">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3503,7 +3503,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3513,22 +3512,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
@@ -3642,10 +3637,43 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4096,9 +4124,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6809,25 +6834,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="508" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="508"/>
-      <c r="C1" s="508"/>
-      <c r="D1" s="508"/>
-      <c r="E1" s="508"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="505" t="s">
+      <c r="A2" s="509" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="507"/>
+      <c r="B2" s="510"/>
+      <c r="C2" s="510"/>
+      <c r="D2" s="510"/>
+      <c r="E2" s="511"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6838,45 +6863,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="509" t="s">
+      <c r="A4" s="513" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="510"/>
-      <c r="C4" s="510"/>
-      <c r="D4" s="510"/>
-      <c r="E4" s="510"/>
+      <c r="B4" s="514"/>
+      <c r="C4" s="514"/>
+      <c r="D4" s="514"/>
+      <c r="E4" s="514"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="511" t="s">
+      <c r="A5" s="515" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="512"/>
-      <c r="C5" s="512"/>
-      <c r="D5" s="512"/>
-      <c r="E5" s="513"/>
+      <c r="B5" s="516"/>
+      <c r="C5" s="516"/>
+      <c r="D5" s="516"/>
+      <c r="E5" s="517"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="504" t="s">
+      <c r="A7" s="508" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="508"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="508"/>
-      <c r="E7" s="508"/>
+      <c r="B7" s="512"/>
+      <c r="C7" s="512"/>
+      <c r="D7" s="512"/>
+      <c r="E7" s="512"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="514"/>
-      <c r="B8" s="515"/>
-      <c r="C8" s="515"/>
-      <c r="D8" s="515"/>
-      <c r="E8" s="516"/>
+      <c r="A8" s="518"/>
+      <c r="B8" s="519"/>
+      <c r="C8" s="519"/>
+      <c r="D8" s="519"/>
+      <c r="E8" s="520"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="504" t="s">
+      <c r="A10" s="508" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="504"/>
+      <c r="B10" s="508"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6887,33 +6912,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="502"/>
-      <c r="B11" s="503"/>
+      <c r="A11" s="506"/>
+      <c r="B11" s="507"/>
       <c r="D11" s="369">
         <v>43931</v>
       </c>
-      <c r="F11" s="499" t="s">
+      <c r="F11" s="503" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="499"/>
-      <c r="H11" s="499"/>
-      <c r="I11" s="499"/>
-      <c r="J11" s="500" t="s">
+      <c r="G11" s="503"/>
+      <c r="H11" s="503"/>
+      <c r="I11" s="503"/>
+      <c r="J11" s="504" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="500"/>
+      <c r="K11" s="504"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="499" t="s">
+      <c r="F12" s="503" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="499"/>
-      <c r="H12" s="499"/>
-      <c r="I12" s="499"/>
-      <c r="J12" s="500" t="s">
+      <c r="G12" s="503"/>
+      <c r="H12" s="503"/>
+      <c r="I12" s="503"/>
+      <c r="J12" s="504" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="500"/>
+      <c r="K12" s="504"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6928,19 +6953,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="471" t="s">
+      <c r="E13" s="466" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="499" t="s">
+      <c r="F13" s="503" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="499"/>
-      <c r="H13" s="499"/>
-      <c r="I13" s="499"/>
-      <c r="J13" s="500" t="s">
+      <c r="G13" s="503"/>
+      <c r="H13" s="503"/>
+      <c r="I13" s="503"/>
+      <c r="J13" s="504" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="500"/>
+      <c r="K13" s="504"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7189,11 +7214,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="501" t="s">
+      <c r="A29" s="505" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="501"/>
-      <c r="C29" s="501"/>
+      <c r="B29" s="505"/>
+      <c r="C29" s="505"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7270,47 +7295,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="612"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="614"/>
+      <c r="E2" s="621" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="628"/>
+      <c r="K2" s="631">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="632"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="643"/>
-      <c r="Q2" s="643"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="615"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="617"/>
+      <c r="E3" s="624" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="625"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="629"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="633"/>
+      <c r="L3" s="634"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7321,9 +7346,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="619"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7342,22 +7367,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="606"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="607"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7368,22 +7393,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="606"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7394,27 +7419,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="610"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="610"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7799,25 +7824,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="634" t="s">
+      <c r="L21" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="634"/>
-      <c r="N21" s="634"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
-      <c r="Q21" s="488"/>
-      <c r="R21" s="488"/>
+      <c r="M21" s="638"/>
+      <c r="N21" s="638"/>
+      <c r="O21" s="467"/>
+      <c r="P21" s="467"/>
+      <c r="Q21" s="483"/>
+      <c r="R21" s="483"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="556" t="s">
+      <c r="O22" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="556"/>
-      <c r="Q22" s="557" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="558"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -7907,47 +7932,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="612"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="614"/>
+      <c r="E2" s="621" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="628"/>
+      <c r="K2" s="631">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="632"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="644"/>
-      <c r="Q2" s="644"/>
+      <c r="P2" s="648"/>
+      <c r="Q2" s="648"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="615"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="617"/>
+      <c r="E3" s="624" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="625"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="629"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="633"/>
+      <c r="L3" s="634"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7958,9 +7983,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="619"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7979,22 +8004,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="606"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="607"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8005,22 +8030,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="606"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8031,27 +8056,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="610"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="610"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8380,12 +8405,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="645" t="s">
+      <c r="B18" s="649" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="646"/>
-      <c r="D18" s="646"/>
-      <c r="E18" s="647"/>
+      <c r="C18" s="650"/>
+      <c r="D18" s="650"/>
+      <c r="E18" s="651"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8428,25 +8453,25 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="634" t="s">
+      <c r="L21" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="634"/>
-      <c r="N21" s="634"/>
-      <c r="O21" s="472"/>
-      <c r="P21" s="472"/>
-      <c r="Q21" s="488"/>
-      <c r="R21" s="488"/>
+      <c r="M21" s="638"/>
+      <c r="N21" s="638"/>
+      <c r="O21" s="467"/>
+      <c r="P21" s="467"/>
+      <c r="Q21" s="483"/>
+      <c r="R21" s="483"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="556" t="s">
+      <c r="O22" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="556"/>
-      <c r="Q22" s="557" t="s">
+      <c r="P22" s="560"/>
+      <c r="Q22" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="558"/>
+      <c r="R22" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8546,47 +8571,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="612"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="614"/>
+      <c r="E2" s="621" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="628"/>
+      <c r="K2" s="631">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="632"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="652"/>
+      <c r="Q2" s="652"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="615"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="617"/>
+      <c r="E3" s="624" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="625"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="629"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="633"/>
+      <c r="L3" s="634"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8597,9 +8622,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="619"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8618,22 +8643,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="606"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="607"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8644,22 +8669,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="606"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8670,27 +8695,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="610"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="610"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -9001,25 +9026,25 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="634" t="s">
+      <c r="L19" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="634"/>
-      <c r="N19" s="634"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="M19" s="638"/>
+      <c r="N19" s="638"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="556" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9100,47 +9125,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="612"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="614"/>
+      <c r="E2" s="621" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="650">
+      <c r="J2" s="628"/>
+      <c r="K2" s="654">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="651"/>
+      <c r="L2" s="655"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="649"/>
-      <c r="Q2" s="649"/>
+      <c r="P2" s="653"/>
+      <c r="Q2" s="653"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="615"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="617"/>
+      <c r="E3" s="624" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="652"/>
-      <c r="L3" s="653"/>
+      <c r="F3" s="625"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="629"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="656"/>
+      <c r="L3" s="657"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9151,9 +9176,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="619"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9172,22 +9197,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="606"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="607"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9198,22 +9223,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="606"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9224,27 +9249,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="610"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="610"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9514,25 +9539,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="634" t="s">
+      <c r="L18" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="634"/>
-      <c r="N18" s="634"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
-      <c r="Q18" s="488"/>
-      <c r="R18" s="488"/>
+      <c r="M18" s="638"/>
+      <c r="N18" s="638"/>
+      <c r="O18" s="467"/>
+      <c r="P18" s="467"/>
+      <c r="Q18" s="483"/>
+      <c r="R18" s="483"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="556" t="s">
+      <c r="O19" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="556"/>
-      <c r="Q19" s="557" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="558"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9585,8 +9610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9607,11 +9632,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="470" t="s">
+      <c r="B1" s="465" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="469" t="str">
+      <c r="D1" s="464" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
@@ -9641,17 +9666,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="522" t="s">
+      <c r="A3" s="526" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="522"/>
-      <c r="C3" s="522"/>
-      <c r="D3" s="522"/>
-      <c r="E3" s="522"/>
-      <c r="F3" s="522"/>
-      <c r="G3" s="522"/>
-      <c r="H3" s="522"/>
-      <c r="I3" s="522"/>
+      <c r="B3" s="526"/>
+      <c r="C3" s="526"/>
+      <c r="D3" s="526"/>
+      <c r="E3" s="526"/>
+      <c r="F3" s="526"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="526"/>
+      <c r="I3" s="526"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9964,7 +9989,7 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="468">
+      <c r="E14" s="463">
         <v>24</v>
       </c>
       <c r="F14" s="379"/>
@@ -10167,7 +10192,7 @@
         <f>1-G21</f>
         <v>0.87990273809523811</v>
       </c>
-      <c r="J21" s="492">
+      <c r="J21" s="487">
         <v>190</v>
       </c>
       <c r="K21" s="403"/>
@@ -10178,7 +10203,7 @@
       <c r="B22" s="431">
         <v>43965</v>
       </c>
-      <c r="C22" s="491" t="s">
+      <c r="C22" s="486" t="s">
         <v>156</v>
       </c>
       <c r="D22" s="431">
@@ -10195,14 +10220,14 @@
         <v>0.21865583333333333</v>
       </c>
       <c r="H22" s="433">
-        <f>H21-F22</f>
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>11108948</v>
       </c>
       <c r="I22" s="434">
-        <f>I21-G22</f>
+        <f t="shared" si="2"/>
         <v>0.66124690476190473</v>
       </c>
-      <c r="J22" s="493">
+      <c r="J22" s="488">
         <v>192</v>
       </c>
       <c r="K22" s="383"/>
@@ -10210,7 +10235,7 @@
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="435"/>
-      <c r="B23" s="654" t="s">
+      <c r="B23" s="492" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="436">
@@ -10230,14 +10255,14 @@
         <v>1.226077380952381E-2</v>
       </c>
       <c r="H23" s="433">
-        <f>H22-F23</f>
+        <f t="shared" si="2"/>
         <v>10902967</v>
       </c>
       <c r="I23" s="434">
-        <f>I22-G23</f>
+        <f t="shared" si="2"/>
         <v>0.64898613095238089</v>
       </c>
-      <c r="J23" s="494">
+      <c r="J23" s="489">
         <v>193</v>
       </c>
       <c r="K23" s="403"/>
@@ -10245,15 +10270,34 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="435"/>
-      <c r="B24" s="375"/>
-      <c r="C24" s="375"/>
-      <c r="D24" s="375"/>
-      <c r="E24" s="375"/>
-      <c r="F24" s="375"/>
-      <c r="G24" s="375"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="440"/>
-      <c r="J24" s="495"/>
+      <c r="B24" s="436">
+        <v>43987</v>
+      </c>
+      <c r="C24" s="491"/>
+      <c r="D24" s="436">
+        <v>44006</v>
+      </c>
+      <c r="E24" s="499">
+        <v>5110290</v>
+      </c>
+      <c r="F24" s="499">
+        <v>5309982</v>
+      </c>
+      <c r="G24" s="426">
+        <f>F24/A$21</f>
+        <v>0.31607035714285714</v>
+      </c>
+      <c r="H24" s="433">
+        <f t="shared" si="2"/>
+        <v>5592985</v>
+      </c>
+      <c r="I24" s="434">
+        <f t="shared" si="2"/>
+        <v>0.33291577380952375</v>
+      </c>
+      <c r="J24" s="493">
+        <v>192</v>
+      </c>
       <c r="K24" s="429"/>
       <c r="L24" s="383"/>
     </row>
@@ -10262,13 +10306,13 @@
       <c r="B25" s="436"/>
       <c r="C25" s="436"/>
       <c r="D25" s="436"/>
-      <c r="E25" s="437"/>
-      <c r="F25" s="437"/>
-      <c r="G25" s="441"/>
+      <c r="E25" s="500"/>
+      <c r="F25" s="500"/>
+      <c r="G25" s="440"/>
       <c r="H25" s="438"/>
       <c r="I25" s="439"/>
-      <c r="J25" s="494"/>
-      <c r="K25" s="442"/>
+      <c r="J25" s="489"/>
+      <c r="K25" s="441"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -10276,12 +10320,12 @@
       <c r="B26" s="436"/>
       <c r="C26" s="436"/>
       <c r="D26" s="436"/>
-      <c r="E26" s="437"/>
-      <c r="F26" s="437"/>
-      <c r="G26" s="441"/>
+      <c r="E26" s="500"/>
+      <c r="F26" s="500"/>
+      <c r="G26" s="440"/>
       <c r="H26" s="438"/>
       <c r="I26" s="439"/>
-      <c r="J26" s="494"/>
+      <c r="J26" s="489"/>
       <c r="K26" s="429"/>
       <c r="L26" s="383"/>
     </row>
@@ -10290,12 +10334,12 @@
       <c r="B27" s="436"/>
       <c r="C27" s="436"/>
       <c r="D27" s="436"/>
-      <c r="E27" s="438"/>
-      <c r="F27" s="437"/>
-      <c r="G27" s="441"/>
+      <c r="E27" s="500"/>
+      <c r="F27" s="500"/>
+      <c r="G27" s="440"/>
       <c r="H27" s="438"/>
       <c r="I27" s="439"/>
-      <c r="J27" s="494"/>
+      <c r="J27" s="489"/>
       <c r="K27" s="429"/>
       <c r="L27" s="383"/>
     </row>
@@ -10304,12 +10348,12 @@
       <c r="B28" s="436"/>
       <c r="C28" s="436"/>
       <c r="D28" s="436"/>
-      <c r="E28" s="438"/>
-      <c r="F28" s="437"/>
-      <c r="G28" s="441"/>
+      <c r="E28" s="500"/>
+      <c r="F28" s="500"/>
+      <c r="G28" s="440"/>
       <c r="H28" s="438"/>
       <c r="I28" s="439"/>
-      <c r="J28" s="494"/>
+      <c r="J28" s="489"/>
       <c r="K28" s="429"/>
       <c r="L28" s="383"/>
     </row>
@@ -10317,13 +10361,13 @@
       <c r="A29" s="435"/>
       <c r="B29" s="436"/>
       <c r="C29" s="436"/>
-      <c r="D29" s="375"/>
-      <c r="E29" s="375"/>
-      <c r="F29" s="437"/>
-      <c r="G29" s="443"/>
+      <c r="D29" s="491"/>
+      <c r="E29" s="499"/>
+      <c r="F29" s="500"/>
+      <c r="G29" s="442"/>
       <c r="H29" s="438"/>
-      <c r="I29" s="444"/>
-      <c r="J29" s="496"/>
+      <c r="I29" s="494"/>
+      <c r="J29" s="495"/>
       <c r="K29" s="429"/>
       <c r="L29" s="383"/>
     </row>
@@ -10331,60 +10375,60 @@
       <c r="A30" s="435"/>
       <c r="B30" s="436"/>
       <c r="C30" s="436"/>
-      <c r="D30" s="375"/>
-      <c r="E30" s="375"/>
-      <c r="F30" s="437"/>
-      <c r="G30" s="441"/>
+      <c r="D30" s="491"/>
+      <c r="E30" s="499"/>
+      <c r="F30" s="500"/>
+      <c r="G30" s="440"/>
       <c r="H30" s="438"/>
-      <c r="I30" s="444"/>
-      <c r="J30" s="496"/>
+      <c r="I30" s="494"/>
+      <c r="J30" s="495"/>
       <c r="K30" s="429"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="445"/>
-      <c r="B31" s="446"/>
-      <c r="C31" s="446"/>
-      <c r="D31" s="447"/>
-      <c r="E31" s="447"/>
-      <c r="F31" s="448"/>
-      <c r="G31" s="449"/>
-      <c r="H31" s="450"/>
-      <c r="I31" s="451"/>
-      <c r="J31" s="497"/>
+      <c r="A31" s="443"/>
+      <c r="B31" s="444"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="496"/>
+      <c r="E31" s="501"/>
+      <c r="F31" s="502"/>
+      <c r="G31" s="445"/>
+      <c r="H31" s="446"/>
+      <c r="I31" s="497"/>
+      <c r="J31" s="498"/>
       <c r="K31" s="383"/>
       <c r="L31" s="383"/>
     </row>
     <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="452" t="s">
+      <c r="A32" s="447" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="453"/>
-      <c r="C32" s="453"/>
-      <c r="D32" s="454"/>
-      <c r="E32" s="489">
+      <c r="B32" s="448"/>
+      <c r="C32" s="448"/>
+      <c r="D32" s="449"/>
+      <c r="E32" s="484">
         <f>SUM(E21:E31)</f>
-        <v>5675265</v>
-      </c>
-      <c r="F32" s="490">
+        <v>10785555</v>
+      </c>
+      <c r="F32" s="485">
         <f>SUM(F21:F31)</f>
-        <v>5897033</v>
-      </c>
-      <c r="G32" s="455">
+        <v>11207015</v>
+      </c>
+      <c r="G32" s="450">
         <f>SUM(G21:G31)</f>
-        <v>0.351013869047619</v>
-      </c>
-      <c r="H32" s="456">
+        <v>0.66708422619047614</v>
+      </c>
+      <c r="H32" s="451">
         <f>A21-F32</f>
-        <v>10902967</v>
-      </c>
-      <c r="I32" s="457">
+        <v>5592985</v>
+      </c>
+      <c r="I32" s="452">
         <f>1-G32</f>
-        <v>0.648986130952381</v>
-      </c>
-      <c r="J32" s="498"/>
-      <c r="K32" s="458"/>
-      <c r="L32" s="458"/>
+        <v>0.33291577380952386</v>
+      </c>
+      <c r="J32" s="490"/>
+      <c r="K32" s="453"/>
+      <c r="L32" s="453"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="383"/>
@@ -10399,12 +10443,12 @@
       <c r="J35" s="383"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="523" t="s">
+      <c r="A36" s="527" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="523"/>
-      <c r="C36" s="523"/>
-      <c r="D36" s="523"/>
+      <c r="B36" s="527"/>
+      <c r="C36" s="527"/>
+      <c r="D36" s="527"/>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10413,14 +10457,14 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="524" t="s">
+      <c r="A37" s="528" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="524"/>
-      <c r="C37" s="459" t="s">
+      <c r="B37" s="528"/>
+      <c r="C37" s="454" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="459" t="s">
+      <c r="D37" s="454" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="383"/>
@@ -10431,27 +10475,27 @@
       <c r="J37" s="383"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="525">
+      <c r="A38" s="529">
         <f>A21-F32</f>
-        <v>10902967</v>
-      </c>
-      <c r="B38" s="526"/>
-      <c r="C38" s="460">
+        <v>5592985</v>
+      </c>
+      <c r="B38" s="530"/>
+      <c r="C38" s="455">
         <f>1-G32</f>
-        <v>0.648986130952381</v>
-      </c>
-      <c r="D38" s="461">
+        <v>0.33291577380952386</v>
+      </c>
+      <c r="D38" s="456">
         <f>(C38/0.8)*100</f>
-        <v>81.123266369047613</v>
-      </c>
-      <c r="E38" s="462" t="s">
+        <v>41.61447172619048</v>
+      </c>
+      <c r="E38" s="457" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="462"/>
-      <c r="G38" s="462"/>
-      <c r="H38" s="462"/>
-      <c r="I38" s="462"/>
-      <c r="J38" s="462"/>
+      <c r="F38" s="457"/>
+      <c r="G38" s="457"/>
+      <c r="H38" s="457"/>
+      <c r="I38" s="457"/>
+      <c r="J38" s="457"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10478,8 +10522,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="383"/>
-      <c r="B41" s="463"/>
-      <c r="C41" s="463"/>
+      <c r="B41" s="458"/>
+      <c r="C41" s="458"/>
       <c r="D41" s="383"/>
       <c r="E41" s="383"/>
       <c r="F41" s="383"/>
@@ -10489,113 +10533,113 @@
       <c r="J41" s="383"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="464"/>
-      <c r="B42" s="464"/>
-      <c r="C42" s="464"/>
-      <c r="D42" s="464"/>
-      <c r="E42" s="464"/>
-      <c r="F42" s="464"/>
-      <c r="G42" s="464"/>
-      <c r="H42" s="464"/>
-      <c r="I42" s="517"/>
-      <c r="J42" s="518"/>
+      <c r="A42" s="459"/>
+      <c r="B42" s="459"/>
+      <c r="C42" s="459"/>
+      <c r="D42" s="459"/>
+      <c r="E42" s="459"/>
+      <c r="F42" s="459"/>
+      <c r="G42" s="459"/>
+      <c r="H42" s="459"/>
+      <c r="I42" s="521"/>
+      <c r="J42" s="522"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="465"/>
-      <c r="B43" s="466"/>
-      <c r="C43" s="466"/>
+      <c r="A43" s="460"/>
+      <c r="B43" s="461"/>
+      <c r="C43" s="461"/>
       <c r="D43" s="383"/>
       <c r="E43" s="383"/>
-      <c r="F43" s="466"/>
+      <c r="F43" s="461"/>
       <c r="G43" s="413"/>
-      <c r="H43" s="466"/>
+      <c r="H43" s="461"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="465"/>
-      <c r="B44" s="466"/>
-      <c r="C44" s="466"/>
-      <c r="D44" s="466"/>
-      <c r="E44" s="466"/>
-      <c r="F44" s="466"/>
+      <c r="A44" s="460"/>
+      <c r="B44" s="461"/>
+      <c r="C44" s="461"/>
+      <c r="D44" s="461"/>
+      <c r="E44" s="461"/>
+      <c r="F44" s="461"/>
       <c r="G44" s="413"/>
-      <c r="H44" s="466"/>
+      <c r="H44" s="461"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="465"/>
-      <c r="B45" s="466"/>
-      <c r="C45" s="466"/>
+      <c r="A45" s="460"/>
+      <c r="B45" s="461"/>
+      <c r="C45" s="461"/>
       <c r="D45" s="383"/>
       <c r="E45" s="383"/>
-      <c r="F45" s="466"/>
+      <c r="F45" s="461"/>
       <c r="G45" s="413"/>
-      <c r="H45" s="466"/>
+      <c r="H45" s="461"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="465"/>
-      <c r="B46" s="466"/>
-      <c r="C46" s="466"/>
-      <c r="D46" s="466"/>
-      <c r="E46" s="466"/>
-      <c r="F46" s="466"/>
+      <c r="A46" s="460"/>
+      <c r="B46" s="461"/>
+      <c r="C46" s="461"/>
+      <c r="D46" s="461"/>
+      <c r="E46" s="461"/>
+      <c r="F46" s="461"/>
       <c r="G46" s="413"/>
-      <c r="H46" s="466"/>
+      <c r="H46" s="461"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="465"/>
-      <c r="B47" s="466"/>
-      <c r="C47" s="466"/>
+      <c r="A47" s="460"/>
+      <c r="B47" s="461"/>
+      <c r="C47" s="461"/>
       <c r="D47" s="383"/>
       <c r="E47" s="383"/>
-      <c r="F47" s="466"/>
+      <c r="F47" s="461"/>
       <c r="G47" s="413"/>
-      <c r="H47" s="466"/>
+      <c r="H47" s="461"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="465"/>
-      <c r="B48" s="466"/>
+      <c r="A48" s="460"/>
+      <c r="B48" s="461"/>
       <c r="C48" s="403"/>
-      <c r="D48" s="467"/>
-      <c r="E48" s="467"/>
+      <c r="D48" s="462"/>
+      <c r="E48" s="462"/>
       <c r="F48" s="403"/>
       <c r="G48" s="403"/>
       <c r="H48" s="403"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="465"/>
-      <c r="B49" s="466"/>
-      <c r="C49" s="466"/>
-      <c r="D49" s="466"/>
-      <c r="E49" s="466"/>
-      <c r="F49" s="466"/>
+      <c r="A49" s="460"/>
+      <c r="B49" s="461"/>
+      <c r="C49" s="461"/>
+      <c r="D49" s="461"/>
+      <c r="E49" s="461"/>
+      <c r="F49" s="461"/>
       <c r="G49" s="413"/>
-      <c r="H49" s="466"/>
+      <c r="H49" s="461"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="465"/>
-      <c r="B50" s="466"/>
-      <c r="C50" s="466"/>
-      <c r="D50" s="466"/>
-      <c r="E50" s="466"/>
-      <c r="F50" s="466"/>
+      <c r="A50" s="460"/>
+      <c r="B50" s="461"/>
+      <c r="C50" s="461"/>
+      <c r="D50" s="461"/>
+      <c r="E50" s="461"/>
+      <c r="F50" s="461"/>
       <c r="G50" s="413"/>
-      <c r="H50" s="466"/>
+      <c r="H50" s="461"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="465"/>
-      <c r="B51" s="466"/>
-      <c r="C51" s="466"/>
+      <c r="A51" s="460"/>
+      <c r="B51" s="461"/>
+      <c r="C51" s="461"/>
       <c r="D51" s="383"/>
       <c r="E51" s="383"/>
-      <c r="F51" s="466"/>
+      <c r="F51" s="461"/>
       <c r="G51" s="413"/>
-      <c r="H51" s="466"/>
+      <c r="H51" s="461"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="383"/>
-      <c r="B52" s="520"/>
-      <c r="C52" s="520"/>
-      <c r="D52" s="521"/>
-      <c r="E52" s="462"/>
+      <c r="B52" s="524"/>
+      <c r="C52" s="524"/>
+      <c r="D52" s="525"/>
+      <c r="E52" s="457"/>
       <c r="F52" s="383"/>
       <c r="G52" s="383"/>
       <c r="H52" s="383"/>
@@ -10603,31 +10647,31 @@
       <c r="J52" s="383"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="464"/>
-      <c r="B53" s="464"/>
-      <c r="C53" s="464"/>
-      <c r="D53" s="464"/>
-      <c r="E53" s="464"/>
-      <c r="F53" s="464"/>
-      <c r="G53" s="464"/>
-      <c r="H53" s="464"/>
-      <c r="I53" s="517"/>
-      <c r="J53" s="518"/>
+      <c r="A53" s="459"/>
+      <c r="B53" s="459"/>
+      <c r="C53" s="459"/>
+      <c r="D53" s="459"/>
+      <c r="E53" s="459"/>
+      <c r="F53" s="459"/>
+      <c r="G53" s="459"/>
+      <c r="H53" s="459"/>
+      <c r="I53" s="521"/>
+      <c r="J53" s="522"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="465"/>
+      <c r="A54" s="460"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
       <c r="D54" s="383"/>
       <c r="E54" s="383"/>
       <c r="F54" s="413"/>
       <c r="G54" s="413"/>
-      <c r="H54" s="466"/>
-      <c r="I54" s="519"/>
-      <c r="J54" s="519"/>
+      <c r="H54" s="461"/>
+      <c r="I54" s="523"/>
+      <c r="J54" s="523"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="465"/>
+      <c r="A55" s="460"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
       <c r="D55" s="403"/>
@@ -10635,8 +10679,8 @@
       <c r="F55" s="403"/>
       <c r="G55" s="403"/>
       <c r="H55" s="403"/>
-      <c r="I55" s="519"/>
-      <c r="J55" s="519"/>
+      <c r="I55" s="523"/>
+      <c r="J55" s="523"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="383"/>
@@ -10649,12 +10693,12 @@
       <c r="H56" s="383"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="517"/>
-      <c r="C61" s="518"/>
+      <c r="B61" s="521"/>
+      <c r="C61" s="522"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="517"/>
-      <c r="C68" s="518"/>
+      <c r="B68" s="521"/>
+      <c r="C68" s="522"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10751,47 +10795,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="551" t="s">
+      <c r="A11" s="555" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="551"/>
-      <c r="C11" s="551"/>
-      <c r="D11" s="551"/>
-      <c r="E11" s="551"/>
-      <c r="F11" s="551"/>
-      <c r="G11" s="551"/>
-      <c r="H11" s="551"/>
-      <c r="I11" s="551"/>
-      <c r="J11" s="551"/>
+      <c r="B11" s="555"/>
+      <c r="C11" s="555"/>
+      <c r="D11" s="555"/>
+      <c r="E11" s="555"/>
+      <c r="F11" s="555"/>
+      <c r="G11" s="555"/>
+      <c r="H11" s="555"/>
+      <c r="I11" s="555"/>
+      <c r="J11" s="555"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="550" t="s">
+      <c r="A12" s="554" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="550"/>
-      <c r="C12" s="550"/>
-      <c r="D12" s="550"/>
-      <c r="E12" s="550"/>
-      <c r="F12" s="550"/>
-      <c r="G12" s="550"/>
-      <c r="H12" s="550"/>
-      <c r="I12" s="550"/>
-      <c r="J12" s="550"/>
+      <c r="B12" s="554"/>
+      <c r="C12" s="554"/>
+      <c r="D12" s="554"/>
+      <c r="E12" s="554"/>
+      <c r="F12" s="554"/>
+      <c r="G12" s="554"/>
+      <c r="H12" s="554"/>
+      <c r="I12" s="554"/>
+      <c r="J12" s="554"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="552" t="str">
+      <c r="A13" s="556" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="B13" s="551"/>
-      <c r="C13" s="551"/>
-      <c r="D13" s="551"/>
-      <c r="E13" s="551"/>
-      <c r="F13" s="551"/>
-      <c r="G13" s="551"/>
-      <c r="H13" s="551"/>
-      <c r="I13" s="551"/>
-      <c r="J13" s="551"/>
+      <c r="B13" s="555"/>
+      <c r="C13" s="555"/>
+      <c r="D13" s="555"/>
+      <c r="E13" s="555"/>
+      <c r="F13" s="555"/>
+      <c r="G13" s="555"/>
+      <c r="H13" s="555"/>
+      <c r="I13" s="555"/>
+      <c r="J13" s="555"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10916,497 +10960,497 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="548" t="s">
+      <c r="A22" s="552" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="548" t="s">
+      <c r="B22" s="552" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="548"/>
-      <c r="D22" s="548"/>
-      <c r="E22" s="548" t="s">
+      <c r="C22" s="552"/>
+      <c r="D22" s="552"/>
+      <c r="E22" s="552" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="548"/>
-      <c r="G22" s="549" t="s">
+      <c r="F22" s="552"/>
+      <c r="G22" s="553" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="548" t="s">
+      <c r="H22" s="552" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="548"/>
-      <c r="J22" s="548"/>
+      <c r="I22" s="552"/>
+      <c r="J22" s="552"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="548"/>
-      <c r="B23" s="548"/>
-      <c r="C23" s="548"/>
-      <c r="D23" s="548"/>
-      <c r="E23" s="548"/>
-      <c r="F23" s="548"/>
-      <c r="G23" s="549"/>
-      <c r="H23" s="548"/>
-      <c r="I23" s="548"/>
-      <c r="J23" s="548"/>
+      <c r="A23" s="552"/>
+      <c r="B23" s="552"/>
+      <c r="C23" s="552"/>
+      <c r="D23" s="552"/>
+      <c r="E23" s="552"/>
+      <c r="F23" s="552"/>
+      <c r="G23" s="553"/>
+      <c r="H23" s="552"/>
+      <c r="I23" s="552"/>
+      <c r="J23" s="552"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="527">
+      <c r="A24" s="531">
         <v>1</v>
       </c>
-      <c r="B24" s="553" t="s">
+      <c r="B24" s="557" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="554"/>
-      <c r="D24" s="555"/>
-      <c r="E24" s="532" t="str">
+      <c r="C24" s="558"/>
+      <c r="D24" s="559"/>
+      <c r="E24" s="536" t="str">
         <f>Данные!C14</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F24" s="533"/>
-      <c r="G24" s="536">
+      <c r="F24" s="537"/>
+      <c r="G24" s="540">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="538"/>
-      <c r="I24" s="539"/>
-      <c r="J24" s="540"/>
+      <c r="H24" s="542"/>
+      <c r="I24" s="543"/>
+      <c r="J24" s="544"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="528"/>
-      <c r="B25" s="544" t="str">
+      <c r="A25" s="532"/>
+      <c r="B25" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C25" s="545"/>
-      <c r="D25" s="546"/>
-      <c r="E25" s="547"/>
-      <c r="F25" s="535"/>
-      <c r="G25" s="537"/>
-      <c r="H25" s="541"/>
-      <c r="I25" s="542"/>
-      <c r="J25" s="543"/>
+      <c r="C25" s="549"/>
+      <c r="D25" s="550"/>
+      <c r="E25" s="551"/>
+      <c r="F25" s="539"/>
+      <c r="G25" s="541"/>
+      <c r="H25" s="545"/>
+      <c r="I25" s="546"/>
+      <c r="J25" s="547"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="527">
+      <c r="A26" s="531">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="529" t="s">
+      <c r="B26" s="533" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="530"/>
-      <c r="D26" s="531"/>
-      <c r="E26" s="532" t="str">
+      <c r="C26" s="534"/>
+      <c r="D26" s="535"/>
+      <c r="E26" s="536" t="str">
         <f>Данные!C15</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F26" s="533"/>
-      <c r="G26" s="536">
+      <c r="F26" s="537"/>
+      <c r="G26" s="540">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="538"/>
-      <c r="I26" s="539"/>
-      <c r="J26" s="540"/>
+      <c r="H26" s="542"/>
+      <c r="I26" s="543"/>
+      <c r="J26" s="544"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="528"/>
-      <c r="B27" s="544" t="str">
+      <c r="A27" s="532"/>
+      <c r="B27" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C27" s="545"/>
-      <c r="D27" s="546"/>
-      <c r="E27" s="547"/>
-      <c r="F27" s="535"/>
-      <c r="G27" s="537"/>
-      <c r="H27" s="541"/>
-      <c r="I27" s="542"/>
-      <c r="J27" s="543"/>
+      <c r="C27" s="549"/>
+      <c r="D27" s="550"/>
+      <c r="E27" s="551"/>
+      <c r="F27" s="539"/>
+      <c r="G27" s="541"/>
+      <c r="H27" s="545"/>
+      <c r="I27" s="546"/>
+      <c r="J27" s="547"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="527">
+      <c r="A28" s="531">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="529" t="s">
+      <c r="B28" s="533" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="530"/>
-      <c r="D28" s="531"/>
-      <c r="E28" s="532" t="str">
+      <c r="C28" s="534"/>
+      <c r="D28" s="535"/>
+      <c r="E28" s="536" t="str">
         <f>Данные!C16</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F28" s="533"/>
-      <c r="G28" s="536">
+      <c r="F28" s="537"/>
+      <c r="G28" s="540">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="538" t="s">
+      <c r="H28" s="542" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="539"/>
-      <c r="J28" s="540"/>
+      <c r="I28" s="543"/>
+      <c r="J28" s="544"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="528"/>
-      <c r="B29" s="544" t="str">
+      <c r="A29" s="532"/>
+      <c r="B29" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C29" s="545"/>
-      <c r="D29" s="546"/>
-      <c r="E29" s="547"/>
-      <c r="F29" s="535"/>
-      <c r="G29" s="537"/>
-      <c r="H29" s="541"/>
-      <c r="I29" s="542"/>
-      <c r="J29" s="543"/>
+      <c r="C29" s="549"/>
+      <c r="D29" s="550"/>
+      <c r="E29" s="551"/>
+      <c r="F29" s="539"/>
+      <c r="G29" s="541"/>
+      <c r="H29" s="545"/>
+      <c r="I29" s="546"/>
+      <c r="J29" s="547"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="527">
+      <c r="A30" s="531">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="529" t="s">
+      <c r="B30" s="533" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="530"/>
-      <c r="D30" s="531"/>
-      <c r="E30" s="532" t="str">
+      <c r="C30" s="534"/>
+      <c r="D30" s="535"/>
+      <c r="E30" s="536" t="str">
         <f>Данные!C17</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F30" s="533"/>
-      <c r="G30" s="536">
+      <c r="F30" s="537"/>
+      <c r="G30" s="540">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="538"/>
-      <c r="I30" s="539"/>
-      <c r="J30" s="540"/>
+      <c r="H30" s="542"/>
+      <c r="I30" s="543"/>
+      <c r="J30" s="544"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="528"/>
-      <c r="B31" s="544" t="str">
+      <c r="A31" s="532"/>
+      <c r="B31" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C31" s="545"/>
-      <c r="D31" s="546"/>
-      <c r="E31" s="534"/>
-      <c r="F31" s="535"/>
-      <c r="G31" s="537"/>
-      <c r="H31" s="541"/>
-      <c r="I31" s="542"/>
-      <c r="J31" s="543"/>
+      <c r="C31" s="549"/>
+      <c r="D31" s="550"/>
+      <c r="E31" s="538"/>
+      <c r="F31" s="539"/>
+      <c r="G31" s="541"/>
+      <c r="H31" s="545"/>
+      <c r="I31" s="546"/>
+      <c r="J31" s="547"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="527">
+      <c r="A32" s="531">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="529" t="s">
+      <c r="B32" s="533" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="530"/>
-      <c r="D32" s="531"/>
-      <c r="E32" s="532" t="str">
+      <c r="C32" s="534"/>
+      <c r="D32" s="535"/>
+      <c r="E32" s="536" t="str">
         <f>Данные!C18</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F32" s="533"/>
-      <c r="G32" s="536">
+      <c r="F32" s="537"/>
+      <c r="G32" s="540">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="538" t="s">
+      <c r="H32" s="542" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="539"/>
-      <c r="J32" s="540"/>
+      <c r="I32" s="543"/>
+      <c r="J32" s="544"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="528"/>
-      <c r="B33" s="544" t="str">
+      <c r="A33" s="532"/>
+      <c r="B33" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C33" s="545"/>
-      <c r="D33" s="546"/>
-      <c r="E33" s="534"/>
-      <c r="F33" s="535"/>
-      <c r="G33" s="537"/>
-      <c r="H33" s="541"/>
-      <c r="I33" s="542"/>
-      <c r="J33" s="543"/>
+      <c r="C33" s="549"/>
+      <c r="D33" s="550"/>
+      <c r="E33" s="538"/>
+      <c r="F33" s="539"/>
+      <c r="G33" s="541"/>
+      <c r="H33" s="545"/>
+      <c r="I33" s="546"/>
+      <c r="J33" s="547"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="527">
+      <c r="A34" s="531">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="529" t="s">
+      <c r="B34" s="533" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="530"/>
-      <c r="D34" s="531"/>
-      <c r="E34" s="532" t="str">
+      <c r="C34" s="534"/>
+      <c r="D34" s="535"/>
+      <c r="E34" s="536" t="str">
         <f>Данные!C19</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F34" s="533"/>
-      <c r="G34" s="536">
+      <c r="F34" s="537"/>
+      <c r="G34" s="540">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="H34" s="538"/>
-      <c r="I34" s="539"/>
-      <c r="J34" s="540"/>
+      <c r="H34" s="542"/>
+      <c r="I34" s="543"/>
+      <c r="J34" s="544"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="528"/>
-      <c r="B35" s="544" t="str">
+      <c r="A35" s="532"/>
+      <c r="B35" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C35" s="545"/>
-      <c r="D35" s="546"/>
-      <c r="E35" s="534"/>
-      <c r="F35" s="535"/>
-      <c r="G35" s="537"/>
-      <c r="H35" s="541"/>
-      <c r="I35" s="542"/>
-      <c r="J35" s="543"/>
+      <c r="C35" s="549"/>
+      <c r="D35" s="550"/>
+      <c r="E35" s="538"/>
+      <c r="F35" s="539"/>
+      <c r="G35" s="541"/>
+      <c r="H35" s="545"/>
+      <c r="I35" s="546"/>
+      <c r="J35" s="547"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="527">
+      <c r="A36" s="531">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="529" t="s">
+      <c r="B36" s="533" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="530"/>
-      <c r="D36" s="531"/>
-      <c r="E36" s="532" t="str">
+      <c r="C36" s="534"/>
+      <c r="D36" s="535"/>
+      <c r="E36" s="536" t="str">
         <f>Данные!C20</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F36" s="533"/>
-      <c r="G36" s="536">
+      <c r="F36" s="537"/>
+      <c r="G36" s="540">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="538"/>
-      <c r="I36" s="539"/>
-      <c r="J36" s="540"/>
+      <c r="H36" s="542"/>
+      <c r="I36" s="543"/>
+      <c r="J36" s="544"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="528"/>
-      <c r="B37" s="544" t="str">
+      <c r="A37" s="532"/>
+      <c r="B37" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C37" s="545"/>
-      <c r="D37" s="546"/>
-      <c r="E37" s="534"/>
-      <c r="F37" s="535"/>
-      <c r="G37" s="537"/>
-      <c r="H37" s="541"/>
-      <c r="I37" s="542"/>
-      <c r="J37" s="543"/>
+      <c r="C37" s="549"/>
+      <c r="D37" s="550"/>
+      <c r="E37" s="538"/>
+      <c r="F37" s="539"/>
+      <c r="G37" s="541"/>
+      <c r="H37" s="545"/>
+      <c r="I37" s="546"/>
+      <c r="J37" s="547"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="527">
+      <c r="A38" s="531">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="529" t="s">
+      <c r="B38" s="533" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="530"/>
-      <c r="D38" s="531"/>
-      <c r="E38" s="532">
+      <c r="C38" s="534"/>
+      <c r="D38" s="535"/>
+      <c r="E38" s="536">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="533"/>
-      <c r="G38" s="536">
+      <c r="F38" s="537"/>
+      <c r="G38" s="540">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="538"/>
-      <c r="I38" s="539"/>
-      <c r="J38" s="540"/>
+      <c r="H38" s="542"/>
+      <c r="I38" s="543"/>
+      <c r="J38" s="544"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="528"/>
-      <c r="B39" s="544" t="str">
+      <c r="A39" s="532"/>
+      <c r="B39" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C39" s="545"/>
-      <c r="D39" s="546"/>
-      <c r="E39" s="534"/>
-      <c r="F39" s="535"/>
-      <c r="G39" s="537"/>
-      <c r="H39" s="541"/>
-      <c r="I39" s="542"/>
-      <c r="J39" s="543"/>
+      <c r="C39" s="549"/>
+      <c r="D39" s="550"/>
+      <c r="E39" s="538"/>
+      <c r="F39" s="539"/>
+      <c r="G39" s="541"/>
+      <c r="H39" s="545"/>
+      <c r="I39" s="546"/>
+      <c r="J39" s="547"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="527">
+      <c r="A40" s="531">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="529" t="s">
+      <c r="B40" s="533" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="530"/>
-      <c r="D40" s="531"/>
-      <c r="E40" s="532" t="str">
+      <c r="C40" s="534"/>
+      <c r="D40" s="535"/>
+      <c r="E40" s="536" t="str">
         <f>Данные!C23</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F40" s="533"/>
-      <c r="G40" s="536">
+      <c r="F40" s="537"/>
+      <c r="G40" s="540">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="538"/>
-      <c r="I40" s="539"/>
-      <c r="J40" s="540"/>
+      <c r="H40" s="542"/>
+      <c r="I40" s="543"/>
+      <c r="J40" s="544"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="528"/>
-      <c r="B41" s="544" t="str">
+      <c r="A41" s="532"/>
+      <c r="B41" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C41" s="545"/>
-      <c r="D41" s="546"/>
-      <c r="E41" s="534"/>
-      <c r="F41" s="535"/>
-      <c r="G41" s="537"/>
-      <c r="H41" s="541"/>
-      <c r="I41" s="542"/>
-      <c r="J41" s="543"/>
+      <c r="C41" s="549"/>
+      <c r="D41" s="550"/>
+      <c r="E41" s="538"/>
+      <c r="F41" s="539"/>
+      <c r="G41" s="541"/>
+      <c r="H41" s="545"/>
+      <c r="I41" s="546"/>
+      <c r="J41" s="547"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="527">
+      <c r="A42" s="531">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="529" t="s">
+      <c r="B42" s="533" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="530"/>
-      <c r="D42" s="531"/>
-      <c r="E42" s="532">
+      <c r="C42" s="534"/>
+      <c r="D42" s="535"/>
+      <c r="E42" s="536">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="533"/>
-      <c r="G42" s="536">
+      <c r="F42" s="537"/>
+      <c r="G42" s="540">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="538"/>
-      <c r="I42" s="539"/>
-      <c r="J42" s="540"/>
+      <c r="H42" s="542"/>
+      <c r="I42" s="543"/>
+      <c r="J42" s="544"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="528"/>
-      <c r="B43" s="544" t="str">
+      <c r="A43" s="532"/>
+      <c r="B43" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C43" s="545"/>
-      <c r="D43" s="546"/>
-      <c r="E43" s="534"/>
-      <c r="F43" s="535"/>
-      <c r="G43" s="537"/>
-      <c r="H43" s="541"/>
-      <c r="I43" s="542"/>
-      <c r="J43" s="543"/>
+      <c r="C43" s="549"/>
+      <c r="D43" s="550"/>
+      <c r="E43" s="538"/>
+      <c r="F43" s="539"/>
+      <c r="G43" s="541"/>
+      <c r="H43" s="545"/>
+      <c r="I43" s="546"/>
+      <c r="J43" s="547"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="527">
+      <c r="A44" s="531">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="529" t="s">
+      <c r="B44" s="533" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="530"/>
-      <c r="D44" s="531"/>
-      <c r="E44" s="532">
+      <c r="C44" s="534"/>
+      <c r="D44" s="535"/>
+      <c r="E44" s="536">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="533"/>
-      <c r="G44" s="536">
+      <c r="F44" s="537"/>
+      <c r="G44" s="540">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="538"/>
-      <c r="I44" s="539"/>
-      <c r="J44" s="540"/>
+      <c r="H44" s="542"/>
+      <c r="I44" s="543"/>
+      <c r="J44" s="544"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="528"/>
-      <c r="B45" s="544" t="str">
+      <c r="A45" s="532"/>
+      <c r="B45" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C45" s="545"/>
-      <c r="D45" s="546"/>
-      <c r="E45" s="534"/>
-      <c r="F45" s="535"/>
-      <c r="G45" s="537"/>
-      <c r="H45" s="541"/>
-      <c r="I45" s="542"/>
-      <c r="J45" s="543"/>
+      <c r="C45" s="549"/>
+      <c r="D45" s="550"/>
+      <c r="E45" s="538"/>
+      <c r="F45" s="539"/>
+      <c r="G45" s="541"/>
+      <c r="H45" s="545"/>
+      <c r="I45" s="546"/>
+      <c r="J45" s="547"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="527">
+      <c r="A46" s="531">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="529" t="s">
+      <c r="B46" s="533" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="530"/>
-      <c r="D46" s="531"/>
-      <c r="E46" s="532" t="str">
+      <c r="C46" s="534"/>
+      <c r="D46" s="535"/>
+      <c r="E46" s="536" t="str">
         <f>Данные!C24</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F46" s="533"/>
-      <c r="G46" s="536">
+      <c r="F46" s="537"/>
+      <c r="G46" s="540">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="538"/>
-      <c r="I46" s="539"/>
-      <c r="J46" s="540"/>
+      <c r="H46" s="542"/>
+      <c r="I46" s="543"/>
+      <c r="J46" s="544"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="528"/>
-      <c r="B47" s="544" t="str">
+      <c r="A47" s="532"/>
+      <c r="B47" s="548" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C47" s="545"/>
-      <c r="D47" s="546"/>
-      <c r="E47" s="534"/>
-      <c r="F47" s="535"/>
-      <c r="G47" s="537"/>
-      <c r="H47" s="541"/>
-      <c r="I47" s="542"/>
-      <c r="J47" s="543"/>
+      <c r="C47" s="549"/>
+      <c r="D47" s="550"/>
+      <c r="E47" s="538"/>
+      <c r="F47" s="539"/>
+      <c r="G47" s="541"/>
+      <c r="H47" s="545"/>
+      <c r="I47" s="546"/>
+      <c r="J47" s="547"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11669,47 +11713,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11720,9 +11764,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11741,22 +11785,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="593"/>
+      <c r="J5" s="594"/>
+      <c r="K5" s="516"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11767,22 +11811,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="593"/>
+      <c r="J6" s="594"/>
+      <c r="K6" s="516"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11793,27 +11837,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="598"/>
-      <c r="D7" s="514">
+      <c r="C7" s="602"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="597" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="601" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="605"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12303,12 +12347,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="594" t="s">
+      <c r="B23" s="598" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="595"/>
-      <c r="D23" s="595"/>
-      <c r="E23" s="596"/>
+      <c r="C23" s="599"/>
+      <c r="D23" s="599"/>
+      <c r="E23" s="600"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12330,12 +12374,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="584" t="s">
+      <c r="B24" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="585"/>
-      <c r="D24" s="585"/>
-      <c r="E24" s="586"/>
+      <c r="C24" s="589"/>
+      <c r="D24" s="589"/>
+      <c r="E24" s="590"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12378,25 +12422,25 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="559" t="s">
+      <c r="K27" s="563" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="559"/>
-      <c r="M27" s="559"/>
-      <c r="N27" s="472"/>
-      <c r="O27" s="472"/>
-      <c r="P27" s="488"/>
-      <c r="Q27" s="488"/>
+      <c r="L27" s="563"/>
+      <c r="M27" s="563"/>
+      <c r="N27" s="467"/>
+      <c r="O27" s="467"/>
+      <c r="P27" s="483"/>
+      <c r="Q27" s="483"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="556" t="s">
+      <c r="N28" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="556"/>
-      <c r="P28" s="557" t="s">
+      <c r="O28" s="560"/>
+      <c r="P28" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="558"/>
+      <c r="Q28" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -12488,50 +12532,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="608">
+      <c r="B2" s="612">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="C2" s="613"/>
+      <c r="D2" s="614"/>
+      <c r="E2" s="621" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="628"/>
+      <c r="K2" s="631">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="632"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="615"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="617"/>
+      <c r="E3" s="624" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="625"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="629"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="633"/>
+      <c r="L3" s="634"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12542,9 +12586,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="619"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12563,22 +12607,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="606"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="607"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12589,22 +12633,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="606"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12615,27 +12659,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="610"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="610"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12826,12 +12870,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="632" t="s">
+      <c r="B14" s="636" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="633"/>
-      <c r="D14" s="633"/>
-      <c r="E14" s="633"/>
+      <c r="C14" s="637"/>
+      <c r="D14" s="637"/>
+      <c r="E14" s="637"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12853,13 +12897,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="594" t="s">
+      <c r="B15" s="598" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="595"/>
-      <c r="D15" s="595"/>
-      <c r="E15" s="595"/>
-      <c r="F15" s="631"/>
+      <c r="C15" s="599"/>
+      <c r="D15" s="599"/>
+      <c r="E15" s="599"/>
+      <c r="F15" s="635"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12878,12 +12922,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="588" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12930,25 +12974,25 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="559" t="s">
+      <c r="L19" s="563" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="559"/>
-      <c r="N19" s="559"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="M19" s="563"/>
+      <c r="N19" s="563"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="556" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -13049,47 +13093,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13100,9 +13144,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13121,22 +13165,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="593"/>
+      <c r="J5" s="594"/>
+      <c r="K5" s="516"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13147,22 +13191,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="593"/>
+      <c r="J6" s="594"/>
+      <c r="K6" s="516"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13173,27 +13217,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="598"/>
-      <c r="D7" s="514">
+      <c r="C7" s="602"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="597" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="601" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="605"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13673,25 +13717,25 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="634" t="s">
+      <c r="L23" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="634"/>
-      <c r="N23" s="634"/>
-      <c r="O23" s="472"/>
-      <c r="P23" s="472"/>
-      <c r="Q23" s="488"/>
-      <c r="R23" s="488"/>
+      <c r="M23" s="638"/>
+      <c r="N23" s="638"/>
+      <c r="O23" s="467"/>
+      <c r="P23" s="467"/>
+      <c r="Q23" s="483"/>
+      <c r="R23" s="483"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="556" t="s">
+      <c r="O24" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="556"/>
-      <c r="Q24" s="557" t="s">
+      <c r="P24" s="560"/>
+      <c r="Q24" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="558"/>
+      <c r="R24" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13783,47 +13827,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="635"/>
-      <c r="Q2" s="635"/>
+      <c r="P2" s="639"/>
+      <c r="Q2" s="639"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13834,9 +13878,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13855,22 +13899,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="592"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="512"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="593"/>
+      <c r="J5" s="594"/>
+      <c r="K5" s="516"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13881,22 +13925,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="591"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="595"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="512"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="593"/>
+      <c r="J6" s="594"/>
+      <c r="K6" s="516"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13907,27 +13951,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="598"/>
-      <c r="D7" s="514">
+      <c r="C7" s="602"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="597" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="601" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="601"/>
-      <c r="K7" s="502">
+      <c r="J7" s="605"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14211,25 +14255,25 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="634" t="s">
+      <c r="L18" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="634"/>
-      <c r="N18" s="634"/>
-      <c r="O18" s="472"/>
-      <c r="P18" s="472"/>
-      <c r="Q18" s="488"/>
-      <c r="R18" s="488"/>
+      <c r="M18" s="638"/>
+      <c r="N18" s="638"/>
+      <c r="O18" s="467"/>
+      <c r="P18" s="467"/>
+      <c r="Q18" s="483"/>
+      <c r="R18" s="483"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="556" t="s">
+      <c r="O19" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="556"/>
-      <c r="Q19" s="557" t="s">
+      <c r="P19" s="560"/>
+      <c r="Q19" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="558"/>
+      <c r="R19" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14325,60 +14369,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="612"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="614"/>
+      <c r="E2" s="621" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="628"/>
+      <c r="K2" s="631">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="628"/>
-      <c r="M2" s="636"/>
-      <c r="N2" s="637"/>
-      <c r="O2" s="637"/>
-      <c r="P2" s="637"/>
-      <c r="Q2" s="637"/>
-      <c r="R2" s="638"/>
+      <c r="L2" s="632"/>
+      <c r="M2" s="640"/>
+      <c r="N2" s="641"/>
+      <c r="O2" s="641"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
+      <c r="R2" s="642"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="615"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="617"/>
+      <c r="E3" s="624" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
-      <c r="M3" s="639"/>
-      <c r="N3" s="640"/>
-      <c r="O3" s="640"/>
-      <c r="P3" s="640"/>
-      <c r="Q3" s="640"/>
-      <c r="R3" s="641"/>
+      <c r="F3" s="625"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="629"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="633"/>
+      <c r="L3" s="634"/>
+      <c r="M3" s="643"/>
+      <c r="N3" s="644"/>
+      <c r="O3" s="644"/>
+      <c r="P3" s="644"/>
+      <c r="Q3" s="644"/>
+      <c r="R3" s="645"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="619"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14387,95 +14431,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="639"/>
-      <c r="N4" s="640"/>
-      <c r="O4" s="640"/>
-      <c r="P4" s="640"/>
-      <c r="Q4" s="640"/>
-      <c r="R4" s="641"/>
+      <c r="M4" s="643"/>
+      <c r="N4" s="644"/>
+      <c r="O4" s="644"/>
+      <c r="P4" s="644"/>
+      <c r="Q4" s="644"/>
+      <c r="R4" s="645"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="606"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
-      <c r="M5" s="639"/>
-      <c r="N5" s="640"/>
-      <c r="O5" s="640"/>
-      <c r="P5" s="640"/>
-      <c r="Q5" s="640"/>
-      <c r="R5" s="641"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="607"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="517"/>
+      <c r="M5" s="643"/>
+      <c r="N5" s="644"/>
+      <c r="O5" s="644"/>
+      <c r="P5" s="644"/>
+      <c r="Q5" s="644"/>
+      <c r="R5" s="645"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="606"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
-      <c r="M6" s="639"/>
-      <c r="N6" s="640"/>
-      <c r="O6" s="640"/>
-      <c r="P6" s="640"/>
-      <c r="Q6" s="640"/>
-      <c r="R6" s="641"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="517"/>
+      <c r="M6" s="643"/>
+      <c r="N6" s="644"/>
+      <c r="O6" s="644"/>
+      <c r="P6" s="644"/>
+      <c r="Q6" s="644"/>
+      <c r="R6" s="645"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="610"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="610"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
-      <c r="M7" s="639"/>
-      <c r="N7" s="640"/>
-      <c r="O7" s="640"/>
-      <c r="P7" s="640"/>
-      <c r="Q7" s="640"/>
-      <c r="R7" s="641"/>
+      <c r="L7" s="507"/>
+      <c r="M7" s="643"/>
+      <c r="N7" s="644"/>
+      <c r="O7" s="644"/>
+      <c r="P7" s="644"/>
+      <c r="Q7" s="644"/>
+      <c r="R7" s="645"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14631,38 +14675,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="483" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="473"/>
-      <c r="B13" s="474" t="s">
+    <row r="13" spans="1:19" s="478" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="468"/>
+      <c r="B13" s="469" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="475">
+      <c r="C13" s="470">
         <v>38.1</v>
       </c>
-      <c r="D13" s="476">
+      <c r="D13" s="471">
         <v>0.03</v>
       </c>
-      <c r="E13" s="476">
+      <c r="E13" s="471">
         <v>0</v>
       </c>
-      <c r="F13" s="477" t="s">
+      <c r="F13" s="472" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="478"/>
-      <c r="I13" s="479"/>
-      <c r="J13" s="479"/>
-      <c r="K13" s="479"/>
-      <c r="L13" s="479"/>
-      <c r="M13" s="480"/>
-      <c r="N13" s="480"/>
-      <c r="O13" s="480"/>
-      <c r="P13" s="480"/>
-      <c r="Q13" s="480"/>
-      <c r="R13" s="481"/>
-      <c r="S13" s="482"/>
+      <c r="H13" s="473"/>
+      <c r="I13" s="474"/>
+      <c r="J13" s="474"/>
+      <c r="K13" s="474"/>
+      <c r="L13" s="474"/>
+      <c r="M13" s="475"/>
+      <c r="N13" s="475"/>
+      <c r="O13" s="475"/>
+      <c r="P13" s="475"/>
+      <c r="Q13" s="475"/>
+      <c r="R13" s="476"/>
+      <c r="S13" s="477"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14889,12 +14933,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="584" t="s">
+      <c r="B21" s="588" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="585"/>
-      <c r="D21" s="585"/>
-      <c r="E21" s="586"/>
+      <c r="C21" s="589"/>
+      <c r="D21" s="589"/>
+      <c r="E21" s="590"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14939,25 +14983,25 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="634" t="s">
+      <c r="L24" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="634"/>
-      <c r="N24" s="634"/>
-      <c r="O24" s="472"/>
-      <c r="P24" s="472"/>
-      <c r="Q24" s="488"/>
-      <c r="R24" s="488"/>
+      <c r="M24" s="638"/>
+      <c r="N24" s="638"/>
+      <c r="O24" s="467"/>
+      <c r="P24" s="467"/>
+      <c r="Q24" s="483"/>
+      <c r="R24" s="483"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="556" t="s">
+      <c r="O25" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="556"/>
-      <c r="Q25" s="557" t="s">
+      <c r="P25" s="560"/>
+      <c r="Q25" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="558"/>
+      <c r="R25" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -15047,47 +15091,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="608"/>
-      <c r="C2" s="609"/>
-      <c r="D2" s="610"/>
-      <c r="E2" s="617" t="s">
+      <c r="B2" s="612"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="614"/>
+      <c r="E2" s="621" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="618"/>
-      <c r="G2" s="618"/>
-      <c r="H2" s="619"/>
-      <c r="I2" s="623" t="s">
+      <c r="F2" s="622"/>
+      <c r="G2" s="622"/>
+      <c r="H2" s="623"/>
+      <c r="I2" s="627" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="624"/>
-      <c r="K2" s="627">
+      <c r="J2" s="628"/>
+      <c r="K2" s="631">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="L2" s="628"/>
+      <c r="L2" s="632"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="642"/>
-      <c r="Q2" s="642"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="611"/>
-      <c r="C3" s="612"/>
-      <c r="D3" s="613"/>
-      <c r="E3" s="620" t="s">
+      <c r="B3" s="615"/>
+      <c r="C3" s="616"/>
+      <c r="D3" s="617"/>
+      <c r="E3" s="624" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="621"/>
-      <c r="G3" s="621"/>
-      <c r="H3" s="622"/>
-      <c r="I3" s="625"/>
-      <c r="J3" s="626"/>
-      <c r="K3" s="629"/>
-      <c r="L3" s="630"/>
+      <c r="F3" s="625"/>
+      <c r="G3" s="625"/>
+      <c r="H3" s="626"/>
+      <c r="I3" s="629"/>
+      <c r="J3" s="630"/>
+      <c r="K3" s="633"/>
+      <c r="L3" s="634"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15098,9 +15142,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="614"/>
-      <c r="C4" s="615"/>
-      <c r="D4" s="616"/>
+      <c r="B4" s="618"/>
+      <c r="C4" s="619"/>
+      <c r="D4" s="620"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15119,22 +15163,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="591" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="511" t="str">
+      <c r="C5" s="606"/>
+      <c r="D5" s="515" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="512"/>
-      <c r="F5" s="512"/>
-      <c r="G5" s="512"/>
-      <c r="H5" s="513"/>
-      <c r="I5" s="603"/>
-      <c r="J5" s="604"/>
-      <c r="K5" s="605"/>
-      <c r="L5" s="513"/>
+      <c r="E5" s="516"/>
+      <c r="F5" s="516"/>
+      <c r="G5" s="516"/>
+      <c r="H5" s="517"/>
+      <c r="I5" s="607"/>
+      <c r="J5" s="608"/>
+      <c r="K5" s="609"/>
+      <c r="L5" s="517"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15145,22 +15189,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="587" t="s">
+      <c r="B6" s="591" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="602"/>
-      <c r="D6" s="505" t="str">
+      <c r="C6" s="606"/>
+      <c r="D6" s="509" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="593"/>
-      <c r="I6" s="603"/>
-      <c r="J6" s="604"/>
-      <c r="K6" s="605"/>
-      <c r="L6" s="513"/>
+      <c r="E6" s="596"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="597"/>
+      <c r="I6" s="607"/>
+      <c r="J6" s="608"/>
+      <c r="K6" s="609"/>
+      <c r="L6" s="517"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15171,27 +15215,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="597" t="s">
+      <c r="B7" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="606"/>
-      <c r="D7" s="514">
+      <c r="C7" s="610"/>
+      <c r="D7" s="518">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="599"/>
-      <c r="F7" s="599"/>
-      <c r="G7" s="599"/>
-      <c r="H7" s="600"/>
-      <c r="I7" s="607" t="s">
+      <c r="E7" s="603"/>
+      <c r="F7" s="603"/>
+      <c r="G7" s="603"/>
+      <c r="H7" s="604"/>
+      <c r="I7" s="611" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="606"/>
-      <c r="K7" s="502">
+      <c r="J7" s="610"/>
+      <c r="K7" s="506">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="503"/>
+      <c r="L7" s="507"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15320,38 +15364,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="483" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="473"/>
-      <c r="B12" s="484" t="s">
+    <row r="12" spans="1:19" s="478" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="468"/>
+      <c r="B12" s="479" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="485">
+      <c r="C12" s="480">
         <v>28.6</v>
       </c>
-      <c r="D12" s="479">
+      <c r="D12" s="474">
         <v>0</v>
       </c>
-      <c r="E12" s="479">
+      <c r="E12" s="474">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="477" t="s">
+      <c r="F12" s="472" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="486"/>
-      <c r="I12" s="479"/>
-      <c r="J12" s="479"/>
-      <c r="K12" s="479"/>
-      <c r="L12" s="479"/>
-      <c r="M12" s="479"/>
-      <c r="N12" s="479"/>
-      <c r="O12" s="479"/>
-      <c r="P12" s="479"/>
-      <c r="Q12" s="479"/>
-      <c r="R12" s="487"/>
-      <c r="S12" s="482"/>
+      <c r="H12" s="481"/>
+      <c r="I12" s="474"/>
+      <c r="J12" s="474"/>
+      <c r="K12" s="474"/>
+      <c r="L12" s="474"/>
+      <c r="M12" s="474"/>
+      <c r="N12" s="474"/>
+      <c r="O12" s="474"/>
+      <c r="P12" s="474"/>
+      <c r="Q12" s="474"/>
+      <c r="R12" s="482"/>
+      <c r="S12" s="477"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15454,12 +15498,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="588" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="586"/>
+      <c r="C16" s="589"/>
+      <c r="D16" s="589"/>
+      <c r="E16" s="590"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15504,25 +15548,25 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="634" t="s">
+      <c r="L19" s="638" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="634"/>
-      <c r="N19" s="634"/>
-      <c r="O19" s="472"/>
-      <c r="P19" s="472"/>
-      <c r="Q19" s="488"/>
-      <c r="R19" s="488"/>
+      <c r="M19" s="638"/>
+      <c r="N19" s="638"/>
+      <c r="O19" s="467"/>
+      <c r="P19" s="467"/>
+      <c r="Q19" s="483"/>
+      <c r="R19" s="483"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="556" t="s">
+      <c r="O20" s="560" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="556"/>
-      <c r="Q20" s="557" t="s">
+      <c r="P20" s="560"/>
+      <c r="Q20" s="561" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="558"/>
+      <c r="R20" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/XIII-В-28-2-200-3 (Фляга 0,2 л.)/XIII-В-28-2-200-3 (Фляга 0,2 л.) от 10.04.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\XIII-В-28-2-200-3 (Фляга 0,2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DB52B9-BA25-4318-A850-8AA36BF5CA34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCF41B-6CBC-4DB8-992B-50DC391E9424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">Втулка!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'Дут. головка'!$A$1:$S$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Финиш. кольцо'!$A$1:$S$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$19</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="157">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -1013,7 +1013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -2148,17 +2148,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -2215,7 +2204,7 @@
     <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="658">
+  <cellXfs count="653">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3420,24 +3409,6 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3448,7 +3419,7 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3503,13 +3474,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3527,13 +3498,13 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="97" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3637,7 +3608,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3658,10 +3629,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3676,10 +3647,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3726,26 +3694,53 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="95" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3754,6 +3749,54 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3763,77 +3806,38 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
@@ -3934,40 +3938,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3987,84 +4039,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -4095,34 +4069,34 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6834,25 +6808,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="508" t="s">
+      <c r="A1" s="501" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="512"/>
-      <c r="C1" s="512"/>
-      <c r="D1" s="512"/>
-      <c r="E1" s="512"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
       <c r="G1" s="363" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="509" t="s">
+      <c r="A2" s="502" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="510"/>
-      <c r="C2" s="510"/>
-      <c r="D2" s="510"/>
-      <c r="E2" s="511"/>
+      <c r="B2" s="503"/>
+      <c r="C2" s="503"/>
+      <c r="D2" s="503"/>
+      <c r="E2" s="504"/>
       <c r="G2" s="362" t="s">
         <v>78</v>
       </c>
@@ -6863,45 +6837,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="513" t="s">
+      <c r="A4" s="506" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="514"/>
-      <c r="C4" s="514"/>
-      <c r="D4" s="514"/>
-      <c r="E4" s="514"/>
+      <c r="B4" s="507"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="515" t="s">
+      <c r="A5" s="508" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="516"/>
-      <c r="C5" s="516"/>
-      <c r="D5" s="516"/>
-      <c r="E5" s="517"/>
+      <c r="B5" s="509"/>
+      <c r="C5" s="509"/>
+      <c r="D5" s="509"/>
+      <c r="E5" s="510"/>
     </row>
     <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="508" t="s">
+      <c r="A7" s="501" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="512"/>
-      <c r="C7" s="512"/>
-      <c r="D7" s="512"/>
-      <c r="E7" s="512"/>
+      <c r="B7" s="505"/>
+      <c r="C7" s="505"/>
+      <c r="D7" s="505"/>
+      <c r="E7" s="505"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="518"/>
-      <c r="B8" s="519"/>
-      <c r="C8" s="519"/>
-      <c r="D8" s="519"/>
-      <c r="E8" s="520"/>
+      <c r="A8" s="511"/>
+      <c r="B8" s="512"/>
+      <c r="C8" s="512"/>
+      <c r="D8" s="512"/>
+      <c r="E8" s="513"/>
     </row>
     <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="508" t="s">
+      <c r="A10" s="501" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="508"/>
+      <c r="B10" s="501"/>
       <c r="C10" s="364"/>
       <c r="D10" s="370" t="s">
         <v>92</v>
@@ -6912,33 +6886,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="506"/>
-      <c r="B11" s="507"/>
+      <c r="A11" s="499"/>
+      <c r="B11" s="500"/>
       <c r="D11" s="369">
         <v>43931</v>
       </c>
-      <c r="F11" s="503" t="s">
+      <c r="F11" s="514" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="503"/>
-      <c r="H11" s="503"/>
-      <c r="I11" s="503"/>
-      <c r="J11" s="504" t="s">
+      <c r="G11" s="514"/>
+      <c r="H11" s="514"/>
+      <c r="I11" s="514"/>
+      <c r="J11" s="515" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="504"/>
+      <c r="K11" s="515"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="503" t="s">
+      <c r="F12" s="514" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="503"/>
-      <c r="H12" s="503"/>
-      <c r="I12" s="503"/>
-      <c r="J12" s="504" t="s">
+      <c r="G12" s="514"/>
+      <c r="H12" s="514"/>
+      <c r="I12" s="514"/>
+      <c r="J12" s="515" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="504"/>
+      <c r="K12" s="515"/>
     </row>
     <row r="13" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="374" t="s">
@@ -6953,19 +6927,19 @@
       <c r="D13" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="466" t="s">
+      <c r="E13" s="460" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="503" t="s">
+      <c r="F13" s="514" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="503"/>
-      <c r="H13" s="503"/>
-      <c r="I13" s="503"/>
-      <c r="J13" s="504" t="s">
+      <c r="G13" s="514"/>
+      <c r="H13" s="514"/>
+      <c r="I13" s="514"/>
+      <c r="J13" s="515" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="504"/>
+      <c r="K13" s="515"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="365" t="s">
@@ -7214,11 +7188,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="505" t="s">
+      <c r="A29" s="498" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="505"/>
-      <c r="C29" s="505"/>
+      <c r="B29" s="498"/>
+      <c r="C29" s="498"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="363" t="s">
@@ -7227,6 +7201,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -7236,12 +7216,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -7295,47 +7269,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="163"/>
-      <c r="B2" s="612"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="614"/>
-      <c r="E2" s="621" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="622"/>
-      <c r="G2" s="622"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="627" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="628"/>
-      <c r="K2" s="631">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="632"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="164"/>
       <c r="N2" s="165"/>
       <c r="O2" s="166"/>
-      <c r="P2" s="647"/>
-      <c r="Q2" s="647"/>
+      <c r="P2" s="642"/>
+      <c r="Q2" s="642"/>
       <c r="R2" s="167"/>
       <c r="S2" s="168"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="163"/>
-      <c r="B3" s="615"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="624" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="625"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="634"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="169"/>
       <c r="N3" s="170"/>
       <c r="O3" s="170"/>
@@ -7346,9 +7320,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="163"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="619"/>
-      <c r="D4" s="620"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -7367,22 +7341,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="163"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="606"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="627"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="609"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="628"/>
+      <c r="J5" s="629"/>
+      <c r="K5" s="630"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="172"/>
       <c r="N5" s="170"/>
       <c r="O5" s="170"/>
@@ -7393,22 +7367,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="163"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="606"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="627"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="607"/>
-      <c r="J6" s="608"/>
-      <c r="K6" s="609"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="169"/>
       <c r="N6" s="170"/>
       <c r="O6" s="170"/>
@@ -7419,27 +7393,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="163"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="518">
+      <c r="C7" s="631"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="611" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="632" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="K7" s="506">
+      <c r="J7" s="631"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="172"/>
       <c r="N7" s="170"/>
       <c r="O7" s="170"/>
@@ -7824,33 +7798,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="638" t="s">
+      <c r="L21" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="638"/>
-      <c r="N21" s="638"/>
-      <c r="O21" s="467"/>
-      <c r="P21" s="467"/>
-      <c r="Q21" s="483"/>
-      <c r="R21" s="483"/>
+      <c r="M21" s="633"/>
+      <c r="N21" s="633"/>
+      <c r="O21" s="461"/>
+      <c r="P21" s="461"/>
+      <c r="Q21" s="477"/>
+      <c r="R21" s="477"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="565"/>
+      <c r="Q22" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="B2:D4"/>
@@ -7867,6 +7836,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -7932,47 +7906,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="202"/>
-      <c r="B2" s="612"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="614"/>
-      <c r="E2" s="621" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="622"/>
-      <c r="G2" s="622"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="627" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="628"/>
-      <c r="K2" s="631">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="L2" s="632"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="203"/>
       <c r="N2" s="204"/>
       <c r="O2" s="205"/>
-      <c r="P2" s="648"/>
-      <c r="Q2" s="648"/>
+      <c r="P2" s="646"/>
+      <c r="Q2" s="646"/>
       <c r="R2" s="206"/>
       <c r="S2" s="207"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="202"/>
-      <c r="B3" s="615"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="624" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="625"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="634"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="208"/>
       <c r="N3" s="209"/>
       <c r="O3" s="209"/>
@@ -7983,9 +7957,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="202"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="619"/>
-      <c r="D4" s="620"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8004,22 +7978,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="202"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="606"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="627"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="609"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="628"/>
+      <c r="J5" s="629"/>
+      <c r="K5" s="630"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="211"/>
       <c r="N5" s="209"/>
       <c r="O5" s="209"/>
@@ -8030,22 +8004,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="202"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="606"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="627"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="607"/>
-      <c r="J6" s="608"/>
-      <c r="K6" s="609"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="208"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209"/>
@@ -8056,27 +8030,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="202"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="518">
+      <c r="C7" s="631"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="611" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="632" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="K7" s="506">
+      <c r="J7" s="631"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="211"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -8405,12 +8379,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="212"/>
-      <c r="B18" s="649" t="s">
+      <c r="B18" s="643" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="650"/>
-      <c r="D18" s="650"/>
-      <c r="E18" s="651"/>
+      <c r="C18" s="644"/>
+      <c r="D18" s="644"/>
+      <c r="E18" s="645"/>
       <c r="F18" s="114" t="s">
         <v>16</v>
       </c>
@@ -8453,37 +8427,28 @@
     </row>
     <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L21" s="638" t="s">
+      <c r="L21" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M21" s="638"/>
-      <c r="N21" s="638"/>
-      <c r="O21" s="467"/>
-      <c r="P21" s="467"/>
-      <c r="Q21" s="483"/>
-      <c r="R21" s="483"/>
+      <c r="M21" s="633"/>
+      <c r="N21" s="633"/>
+      <c r="O21" s="461"/>
+      <c r="P21" s="461"/>
+      <c r="Q21" s="477"/>
+      <c r="R21" s="477"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O22" s="560" t="s">
+      <c r="O22" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P22" s="560"/>
-      <c r="Q22" s="561" t="s">
+      <c r="P22" s="565"/>
+      <c r="Q22" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R22" s="562"/>
+      <c r="R22" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="P2:Q2"/>
@@ -8497,6 +8462,15 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -8571,47 +8545,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="130"/>
-      <c r="B2" s="612"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="614"/>
-      <c r="E2" s="621" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="622"/>
-      <c r="G2" s="622"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="627" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="628"/>
-      <c r="K2" s="631">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="L2" s="632"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="131"/>
       <c r="N2" s="132"/>
       <c r="O2" s="133"/>
-      <c r="P2" s="652"/>
-      <c r="Q2" s="652"/>
+      <c r="P2" s="647"/>
+      <c r="Q2" s="647"/>
       <c r="R2" s="134"/>
       <c r="S2" s="135"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="130"/>
-      <c r="B3" s="615"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="624" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="625"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="634"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="136"/>
       <c r="N3" s="137"/>
       <c r="O3" s="137"/>
@@ -8622,9 +8596,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="130"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="619"/>
-      <c r="D4" s="620"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -8643,22 +8617,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="606"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="627"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="609"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="628"/>
+      <c r="J5" s="629"/>
+      <c r="K5" s="630"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="139"/>
       <c r="N5" s="137"/>
       <c r="O5" s="137"/>
@@ -8669,22 +8643,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="130"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="606"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="627"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="607"/>
-      <c r="J6" s="608"/>
-      <c r="K6" s="609"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="136"/>
       <c r="N6" s="137"/>
       <c r="O6" s="137"/>
@@ -8695,27 +8669,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="130"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="518">
+      <c r="C7" s="631"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="611" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="632" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="K7" s="506">
+      <c r="J7" s="631"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="139"/>
       <c r="N7" s="137"/>
       <c r="O7" s="137"/>
@@ -9026,33 +9000,28 @@
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="638" t="s">
+      <c r="L19" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="638"/>
-      <c r="N19" s="638"/>
-      <c r="O19" s="467"/>
-      <c r="P19" s="467"/>
-      <c r="Q19" s="483"/>
-      <c r="R19" s="483"/>
+      <c r="M19" s="633"/>
+      <c r="N19" s="633"/>
+      <c r="O19" s="461"/>
+      <c r="P19" s="461"/>
+      <c r="Q19" s="477"/>
+      <c r="R19" s="477"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="565"/>
+      <c r="Q20" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B2:D4"/>
@@ -9069,6 +9038,11 @@
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.17" bottom="0" header="0" footer="0"/>
@@ -9125,47 +9099,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="259"/>
-      <c r="B2" s="612"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="614"/>
-      <c r="E2" s="621" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="622"/>
-      <c r="G2" s="622"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="627" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="628"/>
-      <c r="K2" s="654">
+      <c r="J2" s="620"/>
+      <c r="K2" s="648">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="L2" s="655"/>
+      <c r="L2" s="649"/>
       <c r="M2" s="260"/>
       <c r="N2" s="261"/>
       <c r="O2" s="262"/>
-      <c r="P2" s="653"/>
-      <c r="Q2" s="653"/>
+      <c r="P2" s="652"/>
+      <c r="Q2" s="652"/>
       <c r="R2" s="263"/>
       <c r="S2" s="264"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="259"/>
-      <c r="B3" s="615"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="624" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="625"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="656"/>
-      <c r="L3" s="657"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="650"/>
+      <c r="L3" s="651"/>
       <c r="M3" s="265"/>
       <c r="N3" s="266"/>
       <c r="O3" s="266"/>
@@ -9176,9 +9150,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="259"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="619"/>
-      <c r="D4" s="620"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -9197,22 +9171,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="259"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="606"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="627"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="609"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="628"/>
+      <c r="J5" s="629"/>
+      <c r="K5" s="630"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="268"/>
       <c r="N5" s="266"/>
       <c r="O5" s="266"/>
@@ -9223,22 +9197,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="259"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="606"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="627"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="607"/>
-      <c r="J6" s="608"/>
-      <c r="K6" s="609"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="265"/>
       <c r="N6" s="266"/>
       <c r="O6" s="266"/>
@@ -9249,27 +9223,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="259"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="518">
+      <c r="C7" s="631"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="611" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="632" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="K7" s="506">
+      <c r="J7" s="631"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="268"/>
       <c r="N7" s="266"/>
       <c r="O7" s="266"/>
@@ -9539,33 +9513,28 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="638" t="s">
+      <c r="L18" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="638"/>
-      <c r="N18" s="638"/>
-      <c r="O18" s="467"/>
-      <c r="P18" s="467"/>
-      <c r="Q18" s="483"/>
-      <c r="R18" s="483"/>
+      <c r="M18" s="633"/>
+      <c r="N18" s="633"/>
+      <c r="O18" s="461"/>
+      <c r="P18" s="461"/>
+      <c r="Q18" s="477"/>
+      <c r="R18" s="477"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="565"/>
+      <c r="Q19" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="I5:J5"/>
@@ -9582,6 +9551,11 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -9608,10 +9582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9632,11 +9606,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="380"/>
-      <c r="B1" s="465" t="s">
+      <c r="B1" s="459" t="s">
         <v>108</v>
       </c>
       <c r="C1" s="380"/>
-      <c r="D1" s="464" t="str">
+      <c r="D1" s="458" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
@@ -9666,17 +9640,17 @@
       <c r="L2" s="381"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="526" t="s">
+      <c r="A3" s="518" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526"/>
-      <c r="D3" s="526"/>
-      <c r="E3" s="526"/>
-      <c r="F3" s="526"/>
-      <c r="G3" s="526"/>
-      <c r="H3" s="526"/>
-      <c r="I3" s="526"/>
+      <c r="B3" s="518"/>
+      <c r="C3" s="518"/>
+      <c r="D3" s="518"/>
+      <c r="E3" s="518"/>
+      <c r="F3" s="518"/>
+      <c r="G3" s="518"/>
+      <c r="H3" s="518"/>
+      <c r="I3" s="518"/>
       <c r="K3" s="382"/>
       <c r="L3" s="382"/>
       <c r="M3" s="383"/>
@@ -9775,7 +9749,7 @@
       </c>
       <c r="F7" s="379"/>
       <c r="G7" s="400">
-        <f t="shared" ref="G7:G17" si="0">E7-F7</f>
+        <f t="shared" ref="G7:G16" si="0">E7-F7</f>
         <v>24</v>
       </c>
       <c r="H7" s="401"/>
@@ -9786,7 +9760,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="398">
-        <f t="shared" ref="A8:A17" si="1">A7+1</f>
+        <f t="shared" ref="A8:A16" si="1">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="399" t="str">
@@ -9864,12 +9838,14 @@
         <v>80</v>
       </c>
       <c r="E10" s="400">
-        <v>130</v>
-      </c>
-      <c r="F10" s="379"/>
+        <v>80</v>
+      </c>
+      <c r="F10" s="379">
+        <v>13</v>
+      </c>
       <c r="G10" s="400">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="H10" s="402"/>
       <c r="I10" s="403"/>
@@ -9895,12 +9871,12 @@
         <v>100</v>
       </c>
       <c r="E11" s="400">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F11" s="379"/>
       <c r="G11" s="400">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11" s="402"/>
       <c r="I11" s="397"/>
@@ -9926,12 +9902,12 @@
         <v>40</v>
       </c>
       <c r="E12" s="400">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F12" s="404"/>
       <c r="G12" s="400">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H12" s="402"/>
       <c r="I12" s="403"/>
@@ -9958,12 +9934,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="400">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F13" s="406"/>
       <c r="G13" s="400">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H13" s="402"/>
       <c r="I13" s="403"/>
@@ -9989,13 +9965,13 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="463">
-        <v>24</v>
+      <c r="E14" s="457">
+        <v>0</v>
       </c>
       <c r="F14" s="379"/>
       <c r="G14" s="400">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H14" s="402" t="s">
         <v>42</v>
@@ -10036,7 +10012,7 @@
       <c r="K15" s="403"/>
       <c r="L15" s="397"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="398">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -10067,374 +10043,380 @@
       <c r="K16" s="403"/>
       <c r="L16" s="397"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="407">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B17" s="408" t="str">
-        <f>Данные!A25</f>
-        <v>Охладитель плунжера</v>
-      </c>
-      <c r="C17" s="409">
-        <f>Данные!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="410">
-        <f>Данные!$B26</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="410">
-        <v>18</v>
-      </c>
-      <c r="F17" s="411"/>
-      <c r="G17" s="410">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H17" s="412"/>
-      <c r="I17" s="403"/>
-      <c r="J17" s="413"/>
-      <c r="K17" s="403"/>
-      <c r="L17" s="397"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="414"/>
-      <c r="B18" s="415"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="416"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="408"/>
+      <c r="B17" s="409"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="410"/>
+      <c r="E17" s="383"/>
+      <c r="F17" s="383"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="383"/>
+      <c r="I17" s="383"/>
+      <c r="J17" s="383"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="383"/>
+      <c r="B18" s="411" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="364"/>
+      <c r="D18" s="364"/>
+      <c r="E18" s="364"/>
+      <c r="F18" s="364"/>
       <c r="G18" s="383"/>
       <c r="H18" s="383"/>
       <c r="I18" s="383"/>
-      <c r="J18" s="383"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="383"/>
-      <c r="B19" s="417" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="364"/>
-      <c r="D19" s="364"/>
-      <c r="E19" s="364"/>
-      <c r="F19" s="364"/>
-      <c r="G19" s="383"/>
-      <c r="H19" s="383"/>
-      <c r="I19" s="383"/>
-      <c r="J19" s="418"/>
-      <c r="K19" s="418"/>
-      <c r="L19" s="418"/>
-    </row>
-    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="387" t="s">
+      <c r="J18" s="412"/>
+      <c r="K18" s="412"/>
+      <c r="L18" s="412"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="387" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="388" t="s">
+      <c r="B19" s="388" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="388" t="s">
+      <c r="C19" s="388" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="388" t="s">
+      <c r="D19" s="388" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="388" t="s">
+      <c r="E19" s="388" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="388" t="s">
+      <c r="F19" s="388" t="s">
         <v>122</v>
       </c>
-      <c r="G20" s="419" t="s">
+      <c r="G19" s="413" t="s">
         <v>123</v>
       </c>
-      <c r="H20" s="420" t="s">
+      <c r="H19" s="414" t="s">
         <v>124</v>
       </c>
-      <c r="I20" s="421" t="s">
+      <c r="I19" s="415" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="421" t="s">
+      <c r="J19" s="415" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="391"/>
-      <c r="L20" s="391"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="422">
+      <c r="K19" s="391"/>
+      <c r="L19" s="391"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="416">
         <f>D6*700000</f>
         <v>16800000</v>
       </c>
-      <c r="B21" s="423">
+      <c r="B20" s="417">
         <v>43942</v>
       </c>
-      <c r="C21" s="424">
+      <c r="C20" s="418">
         <v>43955</v>
       </c>
-      <c r="D21" s="423">
+      <c r="D20" s="417">
         <v>43958</v>
       </c>
-      <c r="E21" s="425">
+      <c r="E20" s="419">
         <v>1924560</v>
       </c>
-      <c r="F21" s="425">
+      <c r="F20" s="419">
         <v>2017634</v>
       </c>
-      <c r="G21" s="426">
-        <f>F21/A$21</f>
+      <c r="G20" s="420">
+        <f>F20/A$20</f>
         <v>0.1200972619047619</v>
       </c>
+      <c r="H20" s="421">
+        <f>A20-F20</f>
+        <v>14782366</v>
+      </c>
+      <c r="I20" s="422">
+        <f>1-G20</f>
+        <v>0.87990273809523811</v>
+      </c>
+      <c r="J20" s="481">
+        <v>190</v>
+      </c>
+      <c r="K20" s="403"/>
+      <c r="L20" s="403"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="424"/>
+      <c r="B21" s="425">
+        <v>43965</v>
+      </c>
+      <c r="C21" s="480" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="425">
+        <v>43983</v>
+      </c>
+      <c r="E21" s="426">
+        <v>3546585</v>
+      </c>
+      <c r="F21" s="426">
+        <v>3673418</v>
+      </c>
+      <c r="G21" s="420">
+        <f>F21/A$20</f>
+        <v>0.21865583333333333</v>
+      </c>
       <c r="H21" s="427">
-        <f>A21-F21</f>
-        <v>14782366</v>
+        <f t="shared" ref="H21:I23" si="2">H20-F21</f>
+        <v>11108948</v>
       </c>
       <c r="I21" s="428">
-        <f>1-G21</f>
-        <v>0.87990273809523811</v>
-      </c>
-      <c r="J21" s="487">
-        <v>190</v>
-      </c>
-      <c r="K21" s="403"/>
-      <c r="L21" s="403"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="430"/>
-      <c r="B22" s="431">
-        <v>43965</v>
-      </c>
-      <c r="C22" s="486" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="431">
-        <v>43983</v>
-      </c>
-      <c r="E22" s="432">
-        <v>3546585</v>
-      </c>
-      <c r="F22" s="432">
-        <v>3673418</v>
-      </c>
-      <c r="G22" s="426">
-        <f>F22/A$21</f>
-        <v>0.21865583333333333</v>
-      </c>
-      <c r="H22" s="433">
-        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
-        <v>11108948</v>
-      </c>
-      <c r="I22" s="434">
         <f t="shared" si="2"/>
         <v>0.66124690476190473</v>
       </c>
-      <c r="J22" s="488">
+      <c r="J21" s="482">
         <v>192</v>
       </c>
-      <c r="K22" s="383"/>
-      <c r="L22" s="383"/>
-    </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="435"/>
-      <c r="B23" s="492" t="s">
+      <c r="K21" s="383"/>
+      <c r="L21" s="383"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="429"/>
+      <c r="B22" s="486" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="436">
+      <c r="C22" s="430">
         <v>43983</v>
       </c>
-      <c r="D23" s="436">
+      <c r="D22" s="430">
         <v>43993</v>
       </c>
-      <c r="E23" s="437">
+      <c r="E22" s="431">
         <v>204120</v>
       </c>
-      <c r="F23" s="437">
+      <c r="F22" s="431">
         <v>205981</v>
       </c>
-      <c r="G23" s="426">
-        <f>F23/A$21</f>
+      <c r="G22" s="420">
+        <f>F22/A$20</f>
         <v>1.226077380952381E-2</v>
       </c>
-      <c r="H23" s="433">
+      <c r="H22" s="427">
         <f t="shared" si="2"/>
         <v>10902967</v>
       </c>
-      <c r="I23" s="434">
+      <c r="I22" s="428">
         <f t="shared" si="2"/>
         <v>0.64898613095238089</v>
       </c>
-      <c r="J23" s="489">
+      <c r="J22" s="483">
         <v>193</v>
       </c>
-      <c r="K23" s="403"/>
-      <c r="L23" s="403"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="435"/>
-      <c r="B24" s="436">
+      <c r="K22" s="403"/>
+      <c r="L22" s="403"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="429"/>
+      <c r="B23" s="430">
         <v>43987</v>
       </c>
-      <c r="C24" s="491"/>
-      <c r="D24" s="436">
-        <v>44006</v>
-      </c>
-      <c r="E24" s="499">
+      <c r="C23" s="497" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="430">
+        <v>44021</v>
+      </c>
+      <c r="E23" s="493">
         <v>5110290</v>
       </c>
-      <c r="F24" s="499">
+      <c r="F23" s="493">
         <v>5309982</v>
       </c>
-      <c r="G24" s="426">
-        <f>F24/A$21</f>
+      <c r="G23" s="420">
+        <f>F23/A$20</f>
         <v>0.31607035714285714</v>
       </c>
-      <c r="H24" s="433">
+      <c r="H23" s="427">
         <f t="shared" si="2"/>
         <v>5592985</v>
       </c>
-      <c r="I24" s="434">
+      <c r="I23" s="428">
         <f t="shared" si="2"/>
         <v>0.33291577380952375</v>
       </c>
-      <c r="J24" s="493">
+      <c r="J23" s="487">
         <v>192</v>
       </c>
-      <c r="K24" s="429"/>
+      <c r="K23" s="423"/>
+      <c r="L23" s="383"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="429"/>
+      <c r="B24" s="486" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="430">
+        <v>44041</v>
+      </c>
+      <c r="D24" s="430">
+        <v>44046</v>
+      </c>
+      <c r="E24" s="494">
+        <v>5799195</v>
+      </c>
+      <c r="F24" s="494">
+        <v>5934931</v>
+      </c>
+      <c r="G24" s="434">
+        <f>F24/A$20</f>
+        <v>0.3532697023809524</v>
+      </c>
+      <c r="H24" s="427">
+        <f t="shared" ref="H24" si="3">H23-F24</f>
+        <v>-341946</v>
+      </c>
+      <c r="I24" s="428">
+        <f t="shared" ref="I24" si="4">I23-G24</f>
+        <v>-2.0353928571428648E-2</v>
+      </c>
+      <c r="J24" s="483">
+        <v>192</v>
+      </c>
+      <c r="K24" s="435"/>
       <c r="L24" s="383"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="435"/>
-      <c r="B25" s="436"/>
-      <c r="C25" s="436"/>
-      <c r="D25" s="436"/>
-      <c r="E25" s="500"/>
-      <c r="F25" s="500"/>
-      <c r="G25" s="440"/>
-      <c r="H25" s="438"/>
-      <c r="I25" s="439"/>
-      <c r="J25" s="489"/>
-      <c r="K25" s="441"/>
+      <c r="A25" s="429"/>
+      <c r="B25" s="430"/>
+      <c r="C25" s="430"/>
+      <c r="D25" s="430"/>
+      <c r="E25" s="494"/>
+      <c r="F25" s="494"/>
+      <c r="G25" s="434"/>
+      <c r="H25" s="432"/>
+      <c r="I25" s="433"/>
+      <c r="J25" s="483"/>
+      <c r="K25" s="423"/>
       <c r="L25" s="383"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="435"/>
-      <c r="B26" s="436"/>
-      <c r="C26" s="436"/>
-      <c r="D26" s="436"/>
-      <c r="E26" s="500"/>
-      <c r="F26" s="500"/>
-      <c r="G26" s="440"/>
-      <c r="H26" s="438"/>
-      <c r="I26" s="439"/>
-      <c r="J26" s="489"/>
-      <c r="K26" s="429"/>
+      <c r="A26" s="429"/>
+      <c r="B26" s="430"/>
+      <c r="C26" s="430"/>
+      <c r="D26" s="430"/>
+      <c r="E26" s="494"/>
+      <c r="F26" s="494"/>
+      <c r="G26" s="434"/>
+      <c r="H26" s="432"/>
+      <c r="I26" s="433"/>
+      <c r="J26" s="483"/>
+      <c r="K26" s="423"/>
       <c r="L26" s="383"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="435"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="436"/>
-      <c r="D27" s="436"/>
-      <c r="E27" s="500"/>
-      <c r="F27" s="500"/>
-      <c r="G27" s="440"/>
-      <c r="H27" s="438"/>
-      <c r="I27" s="439"/>
-      <c r="J27" s="489"/>
-      <c r="K27" s="429"/>
+      <c r="A27" s="429"/>
+      <c r="B27" s="430"/>
+      <c r="C27" s="430"/>
+      <c r="D27" s="430"/>
+      <c r="E27" s="494"/>
+      <c r="F27" s="494"/>
+      <c r="G27" s="434"/>
+      <c r="H27" s="432"/>
+      <c r="I27" s="433"/>
+      <c r="J27" s="483"/>
+      <c r="K27" s="423"/>
       <c r="L27" s="383"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="435"/>
-      <c r="B28" s="436"/>
-      <c r="C28" s="436"/>
-      <c r="D28" s="436"/>
-      <c r="E28" s="500"/>
-      <c r="F28" s="500"/>
-      <c r="G28" s="440"/>
-      <c r="H28" s="438"/>
-      <c r="I28" s="439"/>
+      <c r="A28" s="429"/>
+      <c r="B28" s="430"/>
+      <c r="C28" s="430"/>
+      <c r="D28" s="485"/>
+      <c r="E28" s="493"/>
+      <c r="F28" s="494"/>
+      <c r="G28" s="436"/>
+      <c r="H28" s="432"/>
+      <c r="I28" s="488"/>
       <c r="J28" s="489"/>
-      <c r="K28" s="429"/>
+      <c r="K28" s="423"/>
       <c r="L28" s="383"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="435"/>
-      <c r="B29" s="436"/>
-      <c r="C29" s="436"/>
-      <c r="D29" s="491"/>
-      <c r="E29" s="499"/>
-      <c r="F29" s="500"/>
-      <c r="G29" s="442"/>
-      <c r="H29" s="438"/>
-      <c r="I29" s="494"/>
-      <c r="J29" s="495"/>
-      <c r="K29" s="429"/>
+      <c r="A29" s="429"/>
+      <c r="B29" s="430"/>
+      <c r="C29" s="430"/>
+      <c r="D29" s="485"/>
+      <c r="E29" s="493"/>
+      <c r="F29" s="494"/>
+      <c r="G29" s="434"/>
+      <c r="H29" s="432"/>
+      <c r="I29" s="488"/>
+      <c r="J29" s="489"/>
+      <c r="K29" s="423"/>
       <c r="L29" s="383"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="435"/>
-      <c r="B30" s="436"/>
-      <c r="C30" s="436"/>
-      <c r="D30" s="491"/>
-      <c r="E30" s="499"/>
-      <c r="F30" s="500"/>
-      <c r="G30" s="440"/>
-      <c r="H30" s="438"/>
-      <c r="I30" s="494"/>
-      <c r="J30" s="495"/>
-      <c r="K30" s="429"/>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="437"/>
+      <c r="B30" s="438"/>
+      <c r="C30" s="438"/>
+      <c r="D30" s="490"/>
+      <c r="E30" s="495"/>
+      <c r="F30" s="496"/>
+      <c r="G30" s="439"/>
+      <c r="H30" s="440"/>
+      <c r="I30" s="491"/>
+      <c r="J30" s="492"/>
+      <c r="K30" s="383"/>
       <c r="L30" s="383"/>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="443"/>
-      <c r="B31" s="444"/>
-      <c r="C31" s="444"/>
-      <c r="D31" s="496"/>
-      <c r="E31" s="501"/>
-      <c r="F31" s="502"/>
-      <c r="G31" s="445"/>
-      <c r="H31" s="446"/>
-      <c r="I31" s="497"/>
-      <c r="J31" s="498"/>
-      <c r="K31" s="383"/>
-      <c r="L31" s="383"/>
-    </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="447" t="s">
+      <c r="A31" s="441" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="448"/>
-      <c r="C32" s="448"/>
-      <c r="D32" s="449"/>
-      <c r="E32" s="484">
-        <f>SUM(E21:E31)</f>
-        <v>10785555</v>
-      </c>
-      <c r="F32" s="485">
-        <f>SUM(F21:F31)</f>
-        <v>11207015</v>
-      </c>
-      <c r="G32" s="450">
-        <f>SUM(G21:G31)</f>
-        <v>0.66708422619047614</v>
-      </c>
-      <c r="H32" s="451">
-        <f>A21-F32</f>
-        <v>5592985</v>
-      </c>
-      <c r="I32" s="452">
-        <f>1-G32</f>
-        <v>0.33291577380952386</v>
-      </c>
-      <c r="J32" s="490"/>
-      <c r="K32" s="453"/>
-      <c r="L32" s="453"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="383"/>
-      <c r="B35" s="383"/>
-      <c r="C35" s="383"/>
-      <c r="D35" s="383"/>
+      <c r="B31" s="442"/>
+      <c r="C31" s="442"/>
+      <c r="D31" s="443"/>
+      <c r="E31" s="478">
+        <f>SUM(E20:E30)</f>
+        <v>16584750</v>
+      </c>
+      <c r="F31" s="479">
+        <f>SUM(F20:F30)</f>
+        <v>17141946</v>
+      </c>
+      <c r="G31" s="444">
+        <f>SUM(G20:G30)</f>
+        <v>1.0203539285714285</v>
+      </c>
+      <c r="H31" s="445">
+        <f>A20-F31</f>
+        <v>-341946</v>
+      </c>
+      <c r="I31" s="446">
+        <f>1-G31</f>
+        <v>-2.0353928571428481E-2</v>
+      </c>
+      <c r="J31" s="484"/>
+      <c r="K31" s="447"/>
+      <c r="L31" s="447"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="383"/>
+      <c r="B34" s="383"/>
+      <c r="C34" s="383"/>
+      <c r="D34" s="383"/>
+      <c r="E34" s="383"/>
+      <c r="F34" s="383"/>
+      <c r="G34" s="383"/>
+      <c r="H34" s="383"/>
+      <c r="I34" s="383"/>
+      <c r="J34" s="383"/>
+    </row>
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="519" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="519"/>
+      <c r="C35" s="519"/>
+      <c r="D35" s="519"/>
       <c r="E35" s="383"/>
       <c r="F35" s="383"/>
       <c r="G35" s="383"/>
@@ -10442,13 +10424,17 @@
       <c r="I35" s="383"/>
       <c r="J35" s="383"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="527" t="s">
-        <v>127</v>
-      </c>
-      <c r="B36" s="527"/>
-      <c r="C36" s="527"/>
-      <c r="D36" s="527"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="520" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="520"/>
+      <c r="C36" s="448" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="448" t="s">
+        <v>130</v>
+      </c>
       <c r="E36" s="383"/>
       <c r="F36" s="383"/>
       <c r="G36" s="383"/>
@@ -10457,45 +10443,35 @@
       <c r="J36" s="383"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="528" t="s">
-        <v>128</v>
-      </c>
-      <c r="B37" s="528"/>
-      <c r="C37" s="454" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="454" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="383"/>
-      <c r="F37" s="383"/>
-      <c r="G37" s="383"/>
-      <c r="H37" s="383"/>
-      <c r="I37" s="383"/>
-      <c r="J37" s="383"/>
+      <c r="A37" s="521">
+        <f>A20-F31</f>
+        <v>-341946</v>
+      </c>
+      <c r="B37" s="522"/>
+      <c r="C37" s="449">
+        <f>1-G31</f>
+        <v>-2.0353928571428481E-2</v>
+      </c>
+      <c r="D37" s="450">
+        <f>(C37/0.8)*100</f>
+        <v>-2.5442410714285604</v>
+      </c>
+      <c r="E37" s="451" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="451"/>
+      <c r="G37" s="451"/>
+      <c r="H37" s="451"/>
+      <c r="I37" s="451"/>
+      <c r="J37" s="451"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="529">
-        <f>A21-F32</f>
-        <v>5592985</v>
-      </c>
-      <c r="B38" s="530"/>
-      <c r="C38" s="455">
-        <f>1-G32</f>
-        <v>0.33291577380952386</v>
-      </c>
-      <c r="D38" s="456">
-        <f>(C38/0.8)*100</f>
-        <v>41.61447172619048</v>
-      </c>
-      <c r="E38" s="457" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="457"/>
-      <c r="G38" s="457"/>
-      <c r="H38" s="457"/>
-      <c r="I38" s="457"/>
-      <c r="J38" s="457"/>
+      <c r="A38" s="383"/>
+      <c r="B38" s="383"/>
+      <c r="C38" s="383"/>
+      <c r="D38" s="383"/>
+      <c r="E38" s="383"/>
+      <c r="F38" s="383"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="383"/>
@@ -10504,11 +10480,18 @@
       <c r="D39" s="383"/>
       <c r="E39" s="383"/>
       <c r="F39" s="383"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G39" s="383"/>
+      <c r="H39" s="383"/>
+      <c r="I39" s="383"/>
+      <c r="J39" s="383"/>
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="383"/>
-      <c r="B40" s="383"/>
-      <c r="C40" s="383"/>
+      <c r="B40" s="452"/>
+      <c r="C40" s="452"/>
       <c r="D40" s="383"/>
       <c r="E40" s="383"/>
       <c r="F40" s="383"/>
@@ -10516,209 +10499,194 @@
       <c r="H40" s="383"/>
       <c r="I40" s="383"/>
       <c r="J40" s="383"/>
-      <c r="K40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="458"/>
-      <c r="C41" s="458"/>
-      <c r="D41" s="383"/>
-      <c r="E41" s="383"/>
-      <c r="F41" s="383"/>
-      <c r="G41" s="383"/>
-      <c r="H41" s="383"/>
-      <c r="I41" s="383"/>
-      <c r="J41" s="383"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="453"/>
+      <c r="B41" s="453"/>
+      <c r="C41" s="453"/>
+      <c r="D41" s="453"/>
+      <c r="E41" s="453"/>
+      <c r="F41" s="453"/>
+      <c r="G41" s="453"/>
+      <c r="H41" s="453"/>
+      <c r="I41" s="523"/>
+      <c r="J41" s="524"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="459"/>
-      <c r="B42" s="459"/>
-      <c r="C42" s="459"/>
-      <c r="D42" s="459"/>
-      <c r="E42" s="459"/>
-      <c r="F42" s="459"/>
-      <c r="G42" s="459"/>
-      <c r="H42" s="459"/>
-      <c r="I42" s="521"/>
-      <c r="J42" s="522"/>
+      <c r="A42" s="454"/>
+      <c r="B42" s="455"/>
+      <c r="C42" s="455"/>
+      <c r="D42" s="383"/>
+      <c r="E42" s="383"/>
+      <c r="F42" s="455"/>
+      <c r="G42" s="407"/>
+      <c r="H42" s="455"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="460"/>
-      <c r="B43" s="461"/>
-      <c r="C43" s="461"/>
-      <c r="D43" s="383"/>
-      <c r="E43" s="383"/>
-      <c r="F43" s="461"/>
-      <c r="G43" s="413"/>
-      <c r="H43" s="461"/>
+      <c r="A43" s="454"/>
+      <c r="B43" s="455"/>
+      <c r="C43" s="455"/>
+      <c r="D43" s="455"/>
+      <c r="E43" s="455"/>
+      <c r="F43" s="455"/>
+      <c r="G43" s="407"/>
+      <c r="H43" s="455"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="460"/>
-      <c r="B44" s="461"/>
-      <c r="C44" s="461"/>
-      <c r="D44" s="461"/>
-      <c r="E44" s="461"/>
-      <c r="F44" s="461"/>
-      <c r="G44" s="413"/>
-      <c r="H44" s="461"/>
+      <c r="A44" s="454"/>
+      <c r="B44" s="455"/>
+      <c r="C44" s="455"/>
+      <c r="D44" s="383"/>
+      <c r="E44" s="383"/>
+      <c r="F44" s="455"/>
+      <c r="G44" s="407"/>
+      <c r="H44" s="455"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="460"/>
-      <c r="B45" s="461"/>
-      <c r="C45" s="461"/>
-      <c r="D45" s="383"/>
-      <c r="E45" s="383"/>
-      <c r="F45" s="461"/>
-      <c r="G45" s="413"/>
-      <c r="H45" s="461"/>
+      <c r="A45" s="454"/>
+      <c r="B45" s="455"/>
+      <c r="C45" s="455"/>
+      <c r="D45" s="455"/>
+      <c r="E45" s="455"/>
+      <c r="F45" s="455"/>
+      <c r="G45" s="407"/>
+      <c r="H45" s="455"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="460"/>
-      <c r="B46" s="461"/>
-      <c r="C46" s="461"/>
-      <c r="D46" s="461"/>
-      <c r="E46" s="461"/>
-      <c r="F46" s="461"/>
-      <c r="G46" s="413"/>
-      <c r="H46" s="461"/>
+      <c r="A46" s="454"/>
+      <c r="B46" s="455"/>
+      <c r="C46" s="455"/>
+      <c r="D46" s="383"/>
+      <c r="E46" s="383"/>
+      <c r="F46" s="455"/>
+      <c r="G46" s="407"/>
+      <c r="H46" s="455"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="460"/>
-      <c r="B47" s="461"/>
-      <c r="C47" s="461"/>
-      <c r="D47" s="383"/>
-      <c r="E47" s="383"/>
-      <c r="F47" s="461"/>
-      <c r="G47" s="413"/>
-      <c r="H47" s="461"/>
+      <c r="A47" s="454"/>
+      <c r="B47" s="455"/>
+      <c r="C47" s="403"/>
+      <c r="D47" s="456"/>
+      <c r="E47" s="456"/>
+      <c r="F47" s="403"/>
+      <c r="G47" s="403"/>
+      <c r="H47" s="403"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="460"/>
-      <c r="B48" s="461"/>
-      <c r="C48" s="403"/>
-      <c r="D48" s="462"/>
-      <c r="E48" s="462"/>
-      <c r="F48" s="403"/>
-      <c r="G48" s="403"/>
-      <c r="H48" s="403"/>
+      <c r="A48" s="454"/>
+      <c r="B48" s="455"/>
+      <c r="C48" s="455"/>
+      <c r="D48" s="455"/>
+      <c r="E48" s="455"/>
+      <c r="F48" s="455"/>
+      <c r="G48" s="407"/>
+      <c r="H48" s="455"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="460"/>
-      <c r="B49" s="461"/>
-      <c r="C49" s="461"/>
-      <c r="D49" s="461"/>
-      <c r="E49" s="461"/>
-      <c r="F49" s="461"/>
-      <c r="G49" s="413"/>
-      <c r="H49" s="461"/>
+      <c r="A49" s="454"/>
+      <c r="B49" s="455"/>
+      <c r="C49" s="455"/>
+      <c r="D49" s="455"/>
+      <c r="E49" s="455"/>
+      <c r="F49" s="455"/>
+      <c r="G49" s="407"/>
+      <c r="H49" s="455"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="460"/>
-      <c r="B50" s="461"/>
-      <c r="C50" s="461"/>
-      <c r="D50" s="461"/>
-      <c r="E50" s="461"/>
-      <c r="F50" s="461"/>
-      <c r="G50" s="413"/>
-      <c r="H50" s="461"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="460"/>
-      <c r="B51" s="461"/>
-      <c r="C51" s="461"/>
-      <c r="D51" s="383"/>
-      <c r="E51" s="383"/>
-      <c r="F51" s="461"/>
-      <c r="G51" s="413"/>
-      <c r="H51" s="461"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="383"/>
-      <c r="B52" s="524"/>
-      <c r="C52" s="524"/>
-      <c r="D52" s="525"/>
-      <c r="E52" s="457"/>
-      <c r="F52" s="383"/>
-      <c r="G52" s="383"/>
-      <c r="H52" s="383"/>
-      <c r="I52" s="383"/>
-      <c r="J52" s="383"/>
+      <c r="A50" s="454"/>
+      <c r="B50" s="455"/>
+      <c r="C50" s="455"/>
+      <c r="D50" s="383"/>
+      <c r="E50" s="383"/>
+      <c r="F50" s="455"/>
+      <c r="G50" s="407"/>
+      <c r="H50" s="455"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="383"/>
+      <c r="B51" s="516"/>
+      <c r="C51" s="516"/>
+      <c r="D51" s="517"/>
+      <c r="E51" s="451"/>
+      <c r="F51" s="383"/>
+      <c r="G51" s="383"/>
+      <c r="H51" s="383"/>
+      <c r="I51" s="383"/>
+      <c r="J51" s="383"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="453"/>
+      <c r="B52" s="453"/>
+      <c r="C52" s="453"/>
+      <c r="D52" s="453"/>
+      <c r="E52" s="453"/>
+      <c r="F52" s="453"/>
+      <c r="G52" s="453"/>
+      <c r="H52" s="453"/>
+      <c r="I52" s="523"/>
+      <c r="J52" s="524"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="459"/>
-      <c r="B53" s="459"/>
-      <c r="C53" s="459"/>
-      <c r="D53" s="459"/>
-      <c r="E53" s="459"/>
-      <c r="F53" s="459"/>
-      <c r="G53" s="459"/>
-      <c r="H53" s="459"/>
-      <c r="I53" s="521"/>
-      <c r="J53" s="522"/>
+      <c r="A53" s="454"/>
+      <c r="B53" s="383"/>
+      <c r="C53" s="383"/>
+      <c r="D53" s="383"/>
+      <c r="E53" s="383"/>
+      <c r="F53" s="407"/>
+      <c r="G53" s="407"/>
+      <c r="H53" s="455"/>
+      <c r="I53" s="525"/>
+      <c r="J53" s="525"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="460"/>
+      <c r="A54" s="454"/>
       <c r="B54" s="383"/>
       <c r="C54" s="383"/>
-      <c r="D54" s="383"/>
-      <c r="E54" s="383"/>
-      <c r="F54" s="413"/>
-      <c r="G54" s="413"/>
-      <c r="H54" s="461"/>
-      <c r="I54" s="523"/>
-      <c r="J54" s="523"/>
+      <c r="D54" s="403"/>
+      <c r="E54" s="403"/>
+      <c r="F54" s="403"/>
+      <c r="G54" s="403"/>
+      <c r="H54" s="403"/>
+      <c r="I54" s="525"/>
+      <c r="J54" s="525"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="460"/>
+      <c r="A55" s="383"/>
       <c r="B55" s="383"/>
       <c r="C55" s="383"/>
-      <c r="D55" s="403"/>
-      <c r="E55" s="403"/>
-      <c r="F55" s="403"/>
-      <c r="G55" s="403"/>
-      <c r="H55" s="403"/>
-      <c r="I55" s="523"/>
-      <c r="J55" s="523"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="383"/>
-      <c r="B56" s="383"/>
-      <c r="C56" s="383"/>
-      <c r="D56" s="383"/>
-      <c r="E56" s="383"/>
-      <c r="F56" s="383"/>
-      <c r="G56" s="383"/>
-      <c r="H56" s="383"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="521"/>
-      <c r="C61" s="522"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="521"/>
-      <c r="C68" s="522"/>
+      <c r="D55" s="383"/>
+      <c r="E55" s="383"/>
+      <c r="F55" s="383"/>
+      <c r="G55" s="383"/>
+      <c r="H55" s="383"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="523"/>
+      <c r="C60" s="524"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="523"/>
+      <c r="C67" s="524"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="16383" man="1"/>
+    <brk id="37" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -10727,7 +10695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
@@ -10795,47 +10763,47 @@
       <c r="J8" s="310"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="555" t="s">
+      <c r="A11" s="527" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="555"/>
-      <c r="C11" s="555"/>
-      <c r="D11" s="555"/>
-      <c r="E11" s="555"/>
-      <c r="F11" s="555"/>
-      <c r="G11" s="555"/>
-      <c r="H11" s="555"/>
-      <c r="I11" s="555"/>
-      <c r="J11" s="555"/>
+      <c r="B11" s="527"/>
+      <c r="C11" s="527"/>
+      <c r="D11" s="527"/>
+      <c r="E11" s="527"/>
+      <c r="F11" s="527"/>
+      <c r="G11" s="527"/>
+      <c r="H11" s="527"/>
+      <c r="I11" s="527"/>
+      <c r="J11" s="527"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="554" t="s">
+      <c r="A12" s="526" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="554"/>
-      <c r="C12" s="554"/>
-      <c r="D12" s="554"/>
-      <c r="E12" s="554"/>
-      <c r="F12" s="554"/>
-      <c r="G12" s="554"/>
-      <c r="H12" s="554"/>
-      <c r="I12" s="554"/>
-      <c r="J12" s="554"/>
+      <c r="B12" s="526"/>
+      <c r="C12" s="526"/>
+      <c r="D12" s="526"/>
+      <c r="E12" s="526"/>
+      <c r="F12" s="526"/>
+      <c r="G12" s="526"/>
+      <c r="H12" s="526"/>
+      <c r="I12" s="526"/>
+      <c r="J12" s="526"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="556" t="str">
+      <c r="A13" s="528" t="str">
         <f>Данные!A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="B13" s="555"/>
-      <c r="C13" s="555"/>
-      <c r="D13" s="555"/>
-      <c r="E13" s="555"/>
-      <c r="F13" s="555"/>
-      <c r="G13" s="555"/>
-      <c r="H13" s="555"/>
-      <c r="I13" s="555"/>
-      <c r="J13" s="555"/>
+      <c r="B13" s="527"/>
+      <c r="C13" s="527"/>
+      <c r="D13" s="527"/>
+      <c r="E13" s="527"/>
+      <c r="F13" s="527"/>
+      <c r="G13" s="527"/>
+      <c r="H13" s="527"/>
+      <c r="I13" s="527"/>
+      <c r="J13" s="527"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="304" t="s">
@@ -10960,497 +10928,497 @@
       <c r="J21" s="305"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="552" t="s">
+      <c r="A22" s="532" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="552" t="s">
+      <c r="B22" s="532" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="552"/>
-      <c r="D22" s="552"/>
-      <c r="E22" s="552" t="s">
+      <c r="C22" s="532"/>
+      <c r="D22" s="532"/>
+      <c r="E22" s="532" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="552"/>
-      <c r="G22" s="553" t="s">
+      <c r="F22" s="532"/>
+      <c r="G22" s="550" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="552" t="s">
+      <c r="H22" s="532" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="552"/>
-      <c r="J22" s="552"/>
+      <c r="I22" s="532"/>
+      <c r="J22" s="532"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="552"/>
-      <c r="B23" s="552"/>
-      <c r="C23" s="552"/>
-      <c r="D23" s="552"/>
-      <c r="E23" s="552"/>
-      <c r="F23" s="552"/>
-      <c r="G23" s="553"/>
-      <c r="H23" s="552"/>
-      <c r="I23" s="552"/>
-      <c r="J23" s="552"/>
+      <c r="A23" s="532"/>
+      <c r="B23" s="532"/>
+      <c r="C23" s="532"/>
+      <c r="D23" s="532"/>
+      <c r="E23" s="532"/>
+      <c r="F23" s="532"/>
+      <c r="G23" s="550"/>
+      <c r="H23" s="532"/>
+      <c r="I23" s="532"/>
+      <c r="J23" s="532"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="531">
+      <c r="A24" s="533">
         <v>1</v>
       </c>
-      <c r="B24" s="557" t="s">
+      <c r="B24" s="547" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="558"/>
-      <c r="D24" s="559"/>
-      <c r="E24" s="536" t="str">
+      <c r="C24" s="548"/>
+      <c r="D24" s="549"/>
+      <c r="E24" s="535" t="str">
         <f>Данные!C14</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F24" s="537"/>
-      <c r="G24" s="540">
+      <c r="F24" s="536"/>
+      <c r="G24" s="539">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="H24" s="542"/>
-      <c r="I24" s="543"/>
-      <c r="J24" s="544"/>
+      <c r="H24" s="541"/>
+      <c r="I24" s="542"/>
+      <c r="J24" s="543"/>
     </row>
     <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="532"/>
-      <c r="B25" s="548" t="str">
+      <c r="A25" s="534"/>
+      <c r="B25" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C25" s="549"/>
-      <c r="D25" s="550"/>
-      <c r="E25" s="551"/>
-      <c r="F25" s="539"/>
-      <c r="G25" s="541"/>
-      <c r="H25" s="545"/>
-      <c r="I25" s="546"/>
-      <c r="J25" s="547"/>
+      <c r="C25" s="530"/>
+      <c r="D25" s="531"/>
+      <c r="E25" s="537"/>
+      <c r="F25" s="538"/>
+      <c r="G25" s="540"/>
+      <c r="H25" s="544"/>
+      <c r="I25" s="545"/>
+      <c r="J25" s="546"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="531">
+      <c r="A26" s="533">
         <f>A24+1</f>
         <v>2</v>
       </c>
-      <c r="B26" s="533" t="s">
+      <c r="B26" s="551" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="534"/>
-      <c r="D26" s="535"/>
-      <c r="E26" s="536" t="str">
+      <c r="C26" s="552"/>
+      <c r="D26" s="553"/>
+      <c r="E26" s="535" t="str">
         <f>Данные!C15</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F26" s="537"/>
-      <c r="G26" s="540">
+      <c r="F26" s="536"/>
+      <c r="G26" s="539">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="H26" s="542"/>
-      <c r="I26" s="543"/>
-      <c r="J26" s="544"/>
+      <c r="H26" s="541"/>
+      <c r="I26" s="542"/>
+      <c r="J26" s="543"/>
     </row>
     <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="532"/>
-      <c r="B27" s="548" t="str">
+      <c r="A27" s="534"/>
+      <c r="B27" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C27" s="549"/>
-      <c r="D27" s="550"/>
-      <c r="E27" s="551"/>
-      <c r="F27" s="539"/>
-      <c r="G27" s="541"/>
-      <c r="H27" s="545"/>
-      <c r="I27" s="546"/>
-      <c r="J27" s="547"/>
+      <c r="C27" s="530"/>
+      <c r="D27" s="531"/>
+      <c r="E27" s="537"/>
+      <c r="F27" s="538"/>
+      <c r="G27" s="540"/>
+      <c r="H27" s="544"/>
+      <c r="I27" s="545"/>
+      <c r="J27" s="546"/>
     </row>
     <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="531">
+      <c r="A28" s="533">
         <f t="shared" ref="A28" si="0">A26+1</f>
         <v>3</v>
       </c>
-      <c r="B28" s="533" t="s">
+      <c r="B28" s="551" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="534"/>
-      <c r="D28" s="535"/>
-      <c r="E28" s="536" t="str">
+      <c r="C28" s="552"/>
+      <c r="D28" s="553"/>
+      <c r="E28" s="535" t="str">
         <f>Данные!C16</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F28" s="537"/>
-      <c r="G28" s="540">
+      <c r="F28" s="536"/>
+      <c r="G28" s="539">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="H28" s="542" t="s">
+      <c r="H28" s="541" t="s">
         <v>147</v>
       </c>
-      <c r="I28" s="543"/>
-      <c r="J28" s="544"/>
+      <c r="I28" s="542"/>
+      <c r="J28" s="543"/>
     </row>
     <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="532"/>
-      <c r="B29" s="548" t="str">
+      <c r="A29" s="534"/>
+      <c r="B29" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C29" s="549"/>
-      <c r="D29" s="550"/>
-      <c r="E29" s="551"/>
-      <c r="F29" s="539"/>
-      <c r="G29" s="541"/>
-      <c r="H29" s="545"/>
-      <c r="I29" s="546"/>
-      <c r="J29" s="547"/>
+      <c r="C29" s="530"/>
+      <c r="D29" s="531"/>
+      <c r="E29" s="537"/>
+      <c r="F29" s="538"/>
+      <c r="G29" s="540"/>
+      <c r="H29" s="544"/>
+      <c r="I29" s="545"/>
+      <c r="J29" s="546"/>
     </row>
     <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="531">
+      <c r="A30" s="533">
         <f t="shared" ref="A30" si="1">A28+1</f>
         <v>4</v>
       </c>
-      <c r="B30" s="533" t="s">
+      <c r="B30" s="551" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="534"/>
-      <c r="D30" s="535"/>
-      <c r="E30" s="536" t="str">
+      <c r="C30" s="552"/>
+      <c r="D30" s="553"/>
+      <c r="E30" s="535" t="str">
         <f>Данные!C17</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F30" s="537"/>
-      <c r="G30" s="540">
+      <c r="F30" s="536"/>
+      <c r="G30" s="539">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="H30" s="542"/>
-      <c r="I30" s="543"/>
-      <c r="J30" s="544"/>
+      <c r="H30" s="541"/>
+      <c r="I30" s="542"/>
+      <c r="J30" s="543"/>
     </row>
     <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="532"/>
-      <c r="B31" s="548" t="str">
+      <c r="A31" s="534"/>
+      <c r="B31" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C31" s="549"/>
-      <c r="D31" s="550"/>
-      <c r="E31" s="538"/>
-      <c r="F31" s="539"/>
-      <c r="G31" s="541"/>
-      <c r="H31" s="545"/>
-      <c r="I31" s="546"/>
-      <c r="J31" s="547"/>
+      <c r="C31" s="530"/>
+      <c r="D31" s="531"/>
+      <c r="E31" s="554"/>
+      <c r="F31" s="538"/>
+      <c r="G31" s="540"/>
+      <c r="H31" s="544"/>
+      <c r="I31" s="545"/>
+      <c r="J31" s="546"/>
     </row>
     <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="531">
+      <c r="A32" s="533">
         <f t="shared" ref="A32" si="2">A30+1</f>
         <v>5</v>
       </c>
-      <c r="B32" s="533" t="s">
+      <c r="B32" s="551" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="534"/>
-      <c r="D32" s="535"/>
-      <c r="E32" s="536" t="str">
+      <c r="C32" s="552"/>
+      <c r="D32" s="553"/>
+      <c r="E32" s="535" t="str">
         <f>Данные!C18</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F32" s="537"/>
-      <c r="G32" s="540">
+      <c r="F32" s="536"/>
+      <c r="G32" s="539">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="H32" s="542" t="s">
+      <c r="H32" s="541" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="543"/>
-      <c r="J32" s="544"/>
+      <c r="I32" s="542"/>
+      <c r="J32" s="543"/>
     </row>
     <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="532"/>
-      <c r="B33" s="548" t="str">
+      <c r="A33" s="534"/>
+      <c r="B33" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C33" s="549"/>
-      <c r="D33" s="550"/>
-      <c r="E33" s="538"/>
-      <c r="F33" s="539"/>
-      <c r="G33" s="541"/>
-      <c r="H33" s="545"/>
-      <c r="I33" s="546"/>
-      <c r="J33" s="547"/>
+      <c r="C33" s="530"/>
+      <c r="D33" s="531"/>
+      <c r="E33" s="554"/>
+      <c r="F33" s="538"/>
+      <c r="G33" s="540"/>
+      <c r="H33" s="544"/>
+      <c r="I33" s="545"/>
+      <c r="J33" s="546"/>
     </row>
     <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="531">
+      <c r="A34" s="533">
         <f t="shared" ref="A34" si="3">A32+1</f>
         <v>6</v>
       </c>
-      <c r="B34" s="533" t="s">
+      <c r="B34" s="551" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="534"/>
-      <c r="D34" s="535"/>
-      <c r="E34" s="536" t="str">
+      <c r="C34" s="552"/>
+      <c r="D34" s="553"/>
+      <c r="E34" s="535" t="str">
         <f>Данные!C19</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F34" s="537"/>
-      <c r="G34" s="540">
+      <c r="F34" s="536"/>
+      <c r="G34" s="539">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="H34" s="542"/>
-      <c r="I34" s="543"/>
-      <c r="J34" s="544"/>
+      <c r="H34" s="541"/>
+      <c r="I34" s="542"/>
+      <c r="J34" s="543"/>
     </row>
     <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="532"/>
-      <c r="B35" s="548" t="str">
+      <c r="A35" s="534"/>
+      <c r="B35" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C35" s="549"/>
-      <c r="D35" s="550"/>
-      <c r="E35" s="538"/>
-      <c r="F35" s="539"/>
-      <c r="G35" s="541"/>
-      <c r="H35" s="545"/>
-      <c r="I35" s="546"/>
-      <c r="J35" s="547"/>
+      <c r="C35" s="530"/>
+      <c r="D35" s="531"/>
+      <c r="E35" s="554"/>
+      <c r="F35" s="538"/>
+      <c r="G35" s="540"/>
+      <c r="H35" s="544"/>
+      <c r="I35" s="545"/>
+      <c r="J35" s="546"/>
     </row>
     <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="531">
+      <c r="A36" s="533">
         <f t="shared" ref="A36" si="4">A34+1</f>
         <v>7</v>
       </c>
-      <c r="B36" s="533" t="s">
+      <c r="B36" s="551" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="534"/>
-      <c r="D36" s="535"/>
-      <c r="E36" s="536" t="str">
+      <c r="C36" s="552"/>
+      <c r="D36" s="553"/>
+      <c r="E36" s="535" t="str">
         <f>Данные!C20</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F36" s="537"/>
-      <c r="G36" s="540">
+      <c r="F36" s="536"/>
+      <c r="G36" s="539">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="542"/>
-      <c r="I36" s="543"/>
-      <c r="J36" s="544"/>
+      <c r="H36" s="541"/>
+      <c r="I36" s="542"/>
+      <c r="J36" s="543"/>
     </row>
     <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="532"/>
-      <c r="B37" s="548" t="str">
+      <c r="A37" s="534"/>
+      <c r="B37" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C37" s="549"/>
-      <c r="D37" s="550"/>
-      <c r="E37" s="538"/>
-      <c r="F37" s="539"/>
-      <c r="G37" s="541"/>
-      <c r="H37" s="545"/>
-      <c r="I37" s="546"/>
-      <c r="J37" s="547"/>
+      <c r="C37" s="530"/>
+      <c r="D37" s="531"/>
+      <c r="E37" s="554"/>
+      <c r="F37" s="538"/>
+      <c r="G37" s="540"/>
+      <c r="H37" s="544"/>
+      <c r="I37" s="545"/>
+      <c r="J37" s="546"/>
     </row>
     <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="531">
+      <c r="A38" s="533">
         <f t="shared" ref="A38" si="5">A36+1</f>
         <v>8</v>
       </c>
-      <c r="B38" s="533" t="s">
+      <c r="B38" s="551" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="534"/>
-      <c r="D38" s="535"/>
-      <c r="E38" s="536">
+      <c r="C38" s="552"/>
+      <c r="D38" s="553"/>
+      <c r="E38" s="535">
         <f>Данные!C21</f>
         <v>0</v>
       </c>
-      <c r="F38" s="537"/>
-      <c r="G38" s="540">
+      <c r="F38" s="536"/>
+      <c r="G38" s="539">
         <f>Данные!B21</f>
         <v>0</v>
       </c>
-      <c r="H38" s="542"/>
-      <c r="I38" s="543"/>
-      <c r="J38" s="544"/>
+      <c r="H38" s="541"/>
+      <c r="I38" s="542"/>
+      <c r="J38" s="543"/>
     </row>
     <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="532"/>
-      <c r="B39" s="548" t="str">
+      <c r="A39" s="534"/>
+      <c r="B39" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C39" s="549"/>
-      <c r="D39" s="550"/>
-      <c r="E39" s="538"/>
-      <c r="F39" s="539"/>
-      <c r="G39" s="541"/>
-      <c r="H39" s="545"/>
-      <c r="I39" s="546"/>
-      <c r="J39" s="547"/>
+      <c r="C39" s="530"/>
+      <c r="D39" s="531"/>
+      <c r="E39" s="554"/>
+      <c r="F39" s="538"/>
+      <c r="G39" s="540"/>
+      <c r="H39" s="544"/>
+      <c r="I39" s="545"/>
+      <c r="J39" s="546"/>
     </row>
     <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="531">
+      <c r="A40" s="533">
         <f t="shared" ref="A40" si="6">A38+1</f>
         <v>9</v>
       </c>
-      <c r="B40" s="533" t="s">
+      <c r="B40" s="551" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="534"/>
-      <c r="D40" s="535"/>
-      <c r="E40" s="536" t="str">
+      <c r="C40" s="552"/>
+      <c r="D40" s="553"/>
+      <c r="E40" s="535" t="str">
         <f>Данные!C23</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F40" s="537"/>
-      <c r="G40" s="540">
+      <c r="F40" s="536"/>
+      <c r="G40" s="539">
         <f>Данные!B23</f>
         <v>20</v>
       </c>
-      <c r="H40" s="542"/>
-      <c r="I40" s="543"/>
-      <c r="J40" s="544"/>
+      <c r="H40" s="541"/>
+      <c r="I40" s="542"/>
+      <c r="J40" s="543"/>
     </row>
     <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="532"/>
-      <c r="B41" s="548" t="str">
+      <c r="A41" s="534"/>
+      <c r="B41" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C41" s="549"/>
-      <c r="D41" s="550"/>
-      <c r="E41" s="538"/>
-      <c r="F41" s="539"/>
-      <c r="G41" s="541"/>
-      <c r="H41" s="545"/>
-      <c r="I41" s="546"/>
-      <c r="J41" s="547"/>
+      <c r="C41" s="530"/>
+      <c r="D41" s="531"/>
+      <c r="E41" s="554"/>
+      <c r="F41" s="538"/>
+      <c r="G41" s="540"/>
+      <c r="H41" s="544"/>
+      <c r="I41" s="545"/>
+      <c r="J41" s="546"/>
     </row>
     <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="531">
+      <c r="A42" s="533">
         <f t="shared" ref="A42" si="7">A40+1</f>
         <v>10</v>
       </c>
-      <c r="B42" s="533" t="s">
+      <c r="B42" s="551" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="534"/>
-      <c r="D42" s="535"/>
-      <c r="E42" s="536">
+      <c r="C42" s="552"/>
+      <c r="D42" s="553"/>
+      <c r="E42" s="535">
         <f>Данные!C26</f>
         <v>0</v>
       </c>
-      <c r="F42" s="537"/>
-      <c r="G42" s="540">
+      <c r="F42" s="536"/>
+      <c r="G42" s="539">
         <f>Данные!B26</f>
         <v>0</v>
       </c>
-      <c r="H42" s="542"/>
-      <c r="I42" s="543"/>
-      <c r="J42" s="544"/>
+      <c r="H42" s="541"/>
+      <c r="I42" s="542"/>
+      <c r="J42" s="543"/>
     </row>
     <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="532"/>
-      <c r="B43" s="548" t="str">
+      <c r="A43" s="534"/>
+      <c r="B43" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C43" s="549"/>
-      <c r="D43" s="550"/>
-      <c r="E43" s="538"/>
-      <c r="F43" s="539"/>
-      <c r="G43" s="541"/>
-      <c r="H43" s="545"/>
-      <c r="I43" s="546"/>
-      <c r="J43" s="547"/>
+      <c r="C43" s="530"/>
+      <c r="D43" s="531"/>
+      <c r="E43" s="554"/>
+      <c r="F43" s="538"/>
+      <c r="G43" s="540"/>
+      <c r="H43" s="544"/>
+      <c r="I43" s="545"/>
+      <c r="J43" s="546"/>
     </row>
     <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="531">
+      <c r="A44" s="533">
         <f t="shared" ref="A44" si="8">A42+1</f>
         <v>11</v>
       </c>
-      <c r="B44" s="533" t="s">
+      <c r="B44" s="551" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="534"/>
-      <c r="D44" s="535"/>
-      <c r="E44" s="536">
+      <c r="C44" s="552"/>
+      <c r="D44" s="553"/>
+      <c r="E44" s="535">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="537"/>
-      <c r="G44" s="540">
+      <c r="F44" s="536"/>
+      <c r="G44" s="539">
         <f>Данные!B27</f>
         <v>0</v>
       </c>
-      <c r="H44" s="542"/>
-      <c r="I44" s="543"/>
-      <c r="J44" s="544"/>
+      <c r="H44" s="541"/>
+      <c r="I44" s="542"/>
+      <c r="J44" s="543"/>
     </row>
     <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="532"/>
-      <c r="B45" s="548" t="str">
+      <c r="A45" s="534"/>
+      <c r="B45" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C45" s="549"/>
-      <c r="D45" s="550"/>
-      <c r="E45" s="538"/>
-      <c r="F45" s="539"/>
-      <c r="G45" s="541"/>
-      <c r="H45" s="545"/>
-      <c r="I45" s="546"/>
-      <c r="J45" s="547"/>
+      <c r="C45" s="530"/>
+      <c r="D45" s="531"/>
+      <c r="E45" s="554"/>
+      <c r="F45" s="538"/>
+      <c r="G45" s="540"/>
+      <c r="H45" s="544"/>
+      <c r="I45" s="545"/>
+      <c r="J45" s="546"/>
     </row>
     <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="531">
+      <c r="A46" s="533">
         <f t="shared" ref="A46" si="9">A44+1</f>
         <v>12</v>
       </c>
-      <c r="B46" s="533" t="s">
+      <c r="B46" s="551" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="534"/>
-      <c r="D46" s="535"/>
-      <c r="E46" s="536" t="str">
+      <c r="C46" s="552"/>
+      <c r="D46" s="553"/>
+      <c r="E46" s="535" t="str">
         <f>Данные!C24</f>
         <v>200CC OVAL FLASK</v>
       </c>
-      <c r="F46" s="537"/>
-      <c r="G46" s="540">
+      <c r="F46" s="536"/>
+      <c r="G46" s="539">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="542"/>
-      <c r="I46" s="543"/>
-      <c r="J46" s="544"/>
+      <c r="H46" s="541"/>
+      <c r="I46" s="542"/>
+      <c r="J46" s="543"/>
     </row>
     <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="532"/>
-      <c r="B47" s="548" t="str">
+      <c r="A47" s="534"/>
+      <c r="B47" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту Бутылка XXI-В-28-2-200-3 Фляга)</v>
       </c>
-      <c r="C47" s="549"/>
-      <c r="D47" s="550"/>
-      <c r="E47" s="538"/>
-      <c r="F47" s="539"/>
-      <c r="G47" s="541"/>
-      <c r="H47" s="545"/>
-      <c r="I47" s="546"/>
-      <c r="J47" s="547"/>
+      <c r="C47" s="530"/>
+      <c r="D47" s="531"/>
+      <c r="E47" s="554"/>
+      <c r="F47" s="538"/>
+      <c r="G47" s="540"/>
+      <c r="H47" s="544"/>
+      <c r="I47" s="545"/>
+      <c r="J47" s="546"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="304"/>
@@ -11579,6 +11547,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -11595,70 +11627,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11713,47 +11681,47 @@
     </row>
     <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="569"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="571"/>
+      <c r="E2" s="578" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="579"/>
+      <c r="G2" s="579"/>
+      <c r="H2" s="580"/>
+      <c r="I2" s="585" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="586"/>
+      <c r="K2" s="589">
         <f>Данные!B14</f>
         <v>24</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="590"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="581"/>
+      <c r="Q2" s="581"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="572"/>
+      <c r="C3" s="573"/>
+      <c r="D3" s="574"/>
+      <c r="E3" s="582" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="583"/>
+      <c r="G3" s="583"/>
+      <c r="H3" s="584"/>
+      <c r="I3" s="587"/>
+      <c r="J3" s="588"/>
+      <c r="K3" s="591"/>
+      <c r="L3" s="592"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11764,9 +11732,9 @@
     </row>
     <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="577"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11785,22 +11753,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="593"/>
-      <c r="J5" s="594"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="558"/>
+      <c r="J5" s="559"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11811,22 +11779,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="598"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="593"/>
-      <c r="J6" s="594"/>
-      <c r="K6" s="516"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="558"/>
+      <c r="J6" s="559"/>
+      <c r="K6" s="509"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11837,27 +11805,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="518">
+      <c r="C7" s="561"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="560" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="506">
+      <c r="J7" s="564"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12347,12 +12315,12 @@
     </row>
     <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="598" t="s">
+      <c r="B23" s="555" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="599"/>
-      <c r="D23" s="599"/>
-      <c r="E23" s="600"/>
+      <c r="C23" s="556"/>
+      <c r="D23" s="556"/>
+      <c r="E23" s="557"/>
       <c r="F23" s="114" t="s">
         <v>16</v>
       </c>
@@ -12374,12 +12342,12 @@
     </row>
     <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="588" t="s">
+      <c r="B24" s="593" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="589"/>
-      <c r="D24" s="589"/>
-      <c r="E24" s="590"/>
+      <c r="C24" s="594"/>
+      <c r="D24" s="594"/>
+      <c r="E24" s="595"/>
       <c r="F24" s="114" t="s">
         <v>16</v>
       </c>
@@ -12422,35 +12390,28 @@
     </row>
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K27" s="563" t="s">
+      <c r="K27" s="568" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="563"/>
-      <c r="M27" s="563"/>
-      <c r="N27" s="467"/>
-      <c r="O27" s="467"/>
-      <c r="P27" s="483"/>
-      <c r="Q27" s="483"/>
+      <c r="L27" s="568"/>
+      <c r="M27" s="568"/>
+      <c r="N27" s="461"/>
+      <c r="O27" s="461"/>
+      <c r="P27" s="477"/>
+      <c r="Q27" s="477"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="N28" s="560" t="s">
+      <c r="N28" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="O28" s="560"/>
-      <c r="P28" s="561" t="s">
+      <c r="O28" s="565"/>
+      <c r="P28" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="Q28" s="562"/>
+      <c r="Q28" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="K27:M27"/>
@@ -12467,6 +12428,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="17" priority="1" stopIfTrue="1" operator="equal">
@@ -12532,50 +12500,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="612">
+      <c r="B2" s="604">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="613"/>
-      <c r="D2" s="614"/>
-      <c r="E2" s="621" t="s">
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="622"/>
-      <c r="G2" s="622"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="627" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="628"/>
-      <c r="K2" s="631">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B15</f>
         <v>24</v>
       </c>
-      <c r="L2" s="632"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="581"/>
+      <c r="Q2" s="581"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="615"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="624" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="625"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="634"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12586,9 +12554,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="619"/>
-      <c r="D4" s="620"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -12607,22 +12575,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="606"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="627"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="609"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="628"/>
+      <c r="J5" s="629"/>
+      <c r="K5" s="630"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12633,22 +12601,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="606"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="627"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="607"/>
-      <c r="J6" s="608"/>
-      <c r="K6" s="609"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12659,27 +12627,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="518">
+      <c r="C7" s="631"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="611" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="632" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="K7" s="506">
+      <c r="J7" s="631"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12870,12 +12838,12 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="636" t="s">
+      <c r="B14" s="602" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="637"/>
-      <c r="D14" s="637"/>
-      <c r="E14" s="637"/>
+      <c r="C14" s="603"/>
+      <c r="D14" s="603"/>
+      <c r="E14" s="603"/>
       <c r="F14" s="114" t="s">
         <v>16</v>
       </c>
@@ -12897,13 +12865,13 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
-      <c r="B15" s="598" t="s">
+      <c r="B15" s="555" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="599"/>
-      <c r="D15" s="599"/>
-      <c r="E15" s="599"/>
-      <c r="F15" s="635"/>
+      <c r="C15" s="556"/>
+      <c r="D15" s="556"/>
+      <c r="E15" s="556"/>
+      <c r="F15" s="601"/>
       <c r="G15" s="56" t="s">
         <v>76</v>
       </c>
@@ -12922,12 +12890,12 @@
     </row>
     <row r="16" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="593" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="594"/>
+      <c r="D16" s="594"/>
+      <c r="E16" s="595"/>
       <c r="F16" s="114" t="s">
         <v>16</v>
       </c>
@@ -12974,39 +12942,28 @@
     </row>
     <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="121"/>
-      <c r="L19" s="563" t="s">
+      <c r="L19" s="568" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="563"/>
-      <c r="N19" s="563"/>
-      <c r="O19" s="467"/>
-      <c r="P19" s="467"/>
-      <c r="Q19" s="483"/>
-      <c r="R19" s="483"/>
+      <c r="M19" s="568"/>
+      <c r="N19" s="568"/>
+      <c r="O19" s="461"/>
+      <c r="P19" s="461"/>
+      <c r="Q19" s="477"/>
+      <c r="R19" s="477"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="565"/>
+      <c r="Q20" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -13020,6 +12977,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <conditionalFormatting sqref="H16:R16">
     <cfRule type="cellIs" dxfId="15" priority="3" stopIfTrue="1" operator="notBetween">
@@ -13093,47 +13061,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="569"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="571"/>
+      <c r="E2" s="578" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="579"/>
+      <c r="G2" s="579"/>
+      <c r="H2" s="580"/>
+      <c r="I2" s="585" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="586"/>
+      <c r="K2" s="589">
         <f>Данные!B16</f>
         <v>30</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="590"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="581"/>
+      <c r="Q2" s="581"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="572"/>
+      <c r="C3" s="573"/>
+      <c r="D3" s="574"/>
+      <c r="E3" s="582" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="583"/>
+      <c r="G3" s="583"/>
+      <c r="H3" s="584"/>
+      <c r="I3" s="587"/>
+      <c r="J3" s="588"/>
+      <c r="K3" s="591"/>
+      <c r="L3" s="592"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -13144,9 +13112,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="577"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13165,22 +13133,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="593"/>
-      <c r="J5" s="594"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="558"/>
+      <c r="J5" s="559"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -13191,22 +13159,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="598"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="593"/>
-      <c r="J6" s="594"/>
-      <c r="K6" s="516"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="558"/>
+      <c r="J6" s="559"/>
+      <c r="K6" s="509"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -13217,27 +13185,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="518">
+      <c r="C7" s="561"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="560" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="506">
+      <c r="J7" s="564"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -13717,28 +13685,35 @@
     </row>
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L23" s="638" t="s">
+      <c r="L23" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M23" s="638"/>
-      <c r="N23" s="638"/>
-      <c r="O23" s="467"/>
-      <c r="P23" s="467"/>
-      <c r="Q23" s="483"/>
-      <c r="R23" s="483"/>
+      <c r="M23" s="633"/>
+      <c r="N23" s="633"/>
+      <c r="O23" s="461"/>
+      <c r="P23" s="461"/>
+      <c r="Q23" s="477"/>
+      <c r="R23" s="477"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="O24" s="560" t="s">
+      <c r="O24" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P24" s="560"/>
-      <c r="Q24" s="561" t="s">
+      <c r="P24" s="565"/>
+      <c r="Q24" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R24" s="562"/>
+      <c r="R24" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B6:C6"/>
@@ -13753,13 +13728,6 @@
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
@@ -13827,47 +13795,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="569"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="571"/>
+      <c r="E2" s="578" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="579"/>
+      <c r="G2" s="579"/>
+      <c r="H2" s="580"/>
+      <c r="I2" s="585" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="586"/>
+      <c r="K2" s="589">
         <f>Данные!B17</f>
         <v>32</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="590"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="639"/>
-      <c r="Q2" s="639"/>
+      <c r="P2" s="634"/>
+      <c r="Q2" s="634"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="572"/>
+      <c r="C3" s="573"/>
+      <c r="D3" s="574"/>
+      <c r="E3" s="582" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="583"/>
+      <c r="G3" s="583"/>
+      <c r="H3" s="584"/>
+      <c r="I3" s="587"/>
+      <c r="J3" s="588"/>
+      <c r="K3" s="591"/>
+      <c r="L3" s="592"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13878,9 +13846,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="575"/>
+      <c r="C4" s="576"/>
+      <c r="D4" s="577"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13899,22 +13867,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="597"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="593"/>
-      <c r="J5" s="594"/>
-      <c r="K5" s="516"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="558"/>
+      <c r="J5" s="559"/>
+      <c r="K5" s="509"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13925,22 +13893,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="595"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="598"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="593"/>
-      <c r="J6" s="594"/>
-      <c r="K6" s="516"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="558"/>
+      <c r="J6" s="559"/>
+      <c r="K6" s="509"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13951,27 +13919,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="602"/>
-      <c r="D7" s="518">
+      <c r="C7" s="561"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="601" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="560" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="605"/>
-      <c r="K7" s="506">
+      <c r="J7" s="564"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -14255,28 +14223,34 @@
     </row>
     <row r="17" spans="12:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="638" t="s">
+      <c r="L18" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M18" s="638"/>
-      <c r="N18" s="638"/>
-      <c r="O18" s="467"/>
-      <c r="P18" s="467"/>
-      <c r="Q18" s="483"/>
-      <c r="R18" s="483"/>
+      <c r="M18" s="633"/>
+      <c r="N18" s="633"/>
+      <c r="O18" s="461"/>
+      <c r="P18" s="461"/>
+      <c r="Q18" s="477"/>
+      <c r="R18" s="477"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="O19" s="560" t="s">
+      <c r="O19" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="560"/>
-      <c r="Q19" s="561" t="s">
+      <c r="P19" s="565"/>
+      <c r="Q19" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R19" s="562"/>
+      <c r="R19" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B7:C7"/>
@@ -14292,12 +14266,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="L18:N18"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -14369,60 +14337,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="612"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="614"/>
-      <c r="E2" s="621" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="622"/>
-      <c r="G2" s="622"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="627" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="628"/>
-      <c r="K2" s="631">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B18</f>
         <v>80</v>
       </c>
-      <c r="L2" s="632"/>
-      <c r="M2" s="640"/>
-      <c r="N2" s="641"/>
-      <c r="O2" s="641"/>
-      <c r="P2" s="641"/>
-      <c r="Q2" s="641"/>
-      <c r="R2" s="642"/>
+      <c r="L2" s="624"/>
+      <c r="M2" s="635"/>
+      <c r="N2" s="636"/>
+      <c r="O2" s="636"/>
+      <c r="P2" s="636"/>
+      <c r="Q2" s="636"/>
+      <c r="R2" s="637"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="615"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="624" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="625"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="634"/>
-      <c r="M3" s="643"/>
-      <c r="N3" s="644"/>
-      <c r="O3" s="644"/>
-      <c r="P3" s="644"/>
-      <c r="Q3" s="644"/>
-      <c r="R3" s="645"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
+      <c r="M3" s="638"/>
+      <c r="N3" s="639"/>
+      <c r="O3" s="639"/>
+      <c r="P3" s="639"/>
+      <c r="Q3" s="639"/>
+      <c r="R3" s="640"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="619"/>
-      <c r="D4" s="620"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -14431,95 +14399,95 @@
       <c r="J4" s="242"/>
       <c r="K4" s="245"/>
       <c r="L4" s="246"/>
-      <c r="M4" s="643"/>
-      <c r="N4" s="644"/>
-      <c r="O4" s="644"/>
-      <c r="P4" s="644"/>
-      <c r="Q4" s="644"/>
-      <c r="R4" s="645"/>
+      <c r="M4" s="638"/>
+      <c r="N4" s="639"/>
+      <c r="O4" s="639"/>
+      <c r="P4" s="639"/>
+      <c r="Q4" s="639"/>
+      <c r="R4" s="640"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="606"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="627"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="609"/>
-      <c r="L5" s="517"/>
-      <c r="M5" s="643"/>
-      <c r="N5" s="644"/>
-      <c r="O5" s="644"/>
-      <c r="P5" s="644"/>
-      <c r="Q5" s="644"/>
-      <c r="R5" s="645"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="628"/>
+      <c r="J5" s="629"/>
+      <c r="K5" s="630"/>
+      <c r="L5" s="510"/>
+      <c r="M5" s="638"/>
+      <c r="N5" s="639"/>
+      <c r="O5" s="639"/>
+      <c r="P5" s="639"/>
+      <c r="Q5" s="639"/>
+      <c r="R5" s="640"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="606"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="627"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="607"/>
-      <c r="J6" s="608"/>
-      <c r="K6" s="609"/>
-      <c r="L6" s="517"/>
-      <c r="M6" s="643"/>
-      <c r="N6" s="644"/>
-      <c r="O6" s="644"/>
-      <c r="P6" s="644"/>
-      <c r="Q6" s="644"/>
-      <c r="R6" s="645"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="510"/>
+      <c r="M6" s="638"/>
+      <c r="N6" s="639"/>
+      <c r="O6" s="639"/>
+      <c r="P6" s="639"/>
+      <c r="Q6" s="639"/>
+      <c r="R6" s="640"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="518">
+      <c r="C7" s="631"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="611" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="632" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="K7" s="506">
+      <c r="J7" s="631"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
-      <c r="M7" s="643"/>
-      <c r="N7" s="644"/>
-      <c r="O7" s="644"/>
-      <c r="P7" s="644"/>
-      <c r="Q7" s="644"/>
-      <c r="R7" s="645"/>
+      <c r="L7" s="500"/>
+      <c r="M7" s="638"/>
+      <c r="N7" s="639"/>
+      <c r="O7" s="639"/>
+      <c r="P7" s="639"/>
+      <c r="Q7" s="639"/>
+      <c r="R7" s="640"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -14675,38 +14643,38 @@
       <c r="R12" s="322"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" s="478" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="468"/>
-      <c r="B13" s="469" t="s">
+    <row r="13" spans="1:19" s="472" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="462"/>
+      <c r="B13" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="470">
+      <c r="C13" s="464">
         <v>38.1</v>
       </c>
-      <c r="D13" s="471">
+      <c r="D13" s="465">
         <v>0.03</v>
       </c>
-      <c r="E13" s="471">
+      <c r="E13" s="465">
         <v>0</v>
       </c>
-      <c r="F13" s="472" t="s">
+      <c r="F13" s="466" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="296" t="s">
         <v>136</v>
       </c>
-      <c r="H13" s="473"/>
-      <c r="I13" s="474"/>
-      <c r="J13" s="474"/>
-      <c r="K13" s="474"/>
-      <c r="L13" s="474"/>
-      <c r="M13" s="475"/>
-      <c r="N13" s="475"/>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
-      <c r="Q13" s="475"/>
-      <c r="R13" s="476"/>
-      <c r="S13" s="477"/>
+      <c r="H13" s="467"/>
+      <c r="I13" s="468"/>
+      <c r="J13" s="468"/>
+      <c r="K13" s="468"/>
+      <c r="L13" s="468"/>
+      <c r="M13" s="469"/>
+      <c r="N13" s="469"/>
+      <c r="O13" s="469"/>
+      <c r="P13" s="469"/>
+      <c r="Q13" s="469"/>
+      <c r="R13" s="470"/>
+      <c r="S13" s="471"/>
     </row>
     <row r="14" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
@@ -14933,12 +14901,12 @@
     </row>
     <row r="21" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
-      <c r="B21" s="588" t="s">
+      <c r="B21" s="593" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="589"/>
-      <c r="D21" s="589"/>
-      <c r="E21" s="590"/>
+      <c r="C21" s="594"/>
+      <c r="D21" s="594"/>
+      <c r="E21" s="595"/>
       <c r="F21" s="114" t="s">
         <v>16</v>
       </c>
@@ -14983,34 +14951,28 @@
       <c r="B23" s="121"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L24" s="638" t="s">
+      <c r="L24" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M24" s="638"/>
-      <c r="N24" s="638"/>
-      <c r="O24" s="467"/>
-      <c r="P24" s="467"/>
-      <c r="Q24" s="483"/>
-      <c r="R24" s="483"/>
+      <c r="M24" s="633"/>
+      <c r="N24" s="633"/>
+      <c r="O24" s="461"/>
+      <c r="P24" s="461"/>
+      <c r="Q24" s="477"/>
+      <c r="R24" s="477"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O25" s="560" t="s">
+      <c r="O25" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P25" s="560"/>
-      <c r="Q25" s="561" t="s">
+      <c r="P25" s="565"/>
+      <c r="Q25" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R25" s="562"/>
+      <c r="R25" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="B2:D4"/>
@@ -15027,6 +14989,12 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R21">
     <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
@@ -15091,47 +15059,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="612"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="614"/>
-      <c r="E2" s="621" t="s">
+      <c r="B2" s="604"/>
+      <c r="C2" s="605"/>
+      <c r="D2" s="606"/>
+      <c r="E2" s="613" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="622"/>
-      <c r="G2" s="622"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="627" t="s">
+      <c r="F2" s="614"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="619" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="628"/>
-      <c r="K2" s="631">
+      <c r="J2" s="620"/>
+      <c r="K2" s="623">
         <f>Данные!B19</f>
         <v>100</v>
       </c>
-      <c r="L2" s="632"/>
+      <c r="L2" s="624"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="646"/>
-      <c r="Q2" s="646"/>
+      <c r="P2" s="641"/>
+      <c r="Q2" s="641"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="615"/>
-      <c r="C3" s="616"/>
-      <c r="D3" s="617"/>
-      <c r="E3" s="624" t="s">
+      <c r="B3" s="607"/>
+      <c r="C3" s="608"/>
+      <c r="D3" s="609"/>
+      <c r="E3" s="616" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="625"/>
-      <c r="G3" s="625"/>
-      <c r="H3" s="626"/>
-      <c r="I3" s="629"/>
-      <c r="J3" s="630"/>
-      <c r="K3" s="633"/>
-      <c r="L3" s="634"/>
+      <c r="F3" s="617"/>
+      <c r="G3" s="617"/>
+      <c r="H3" s="618"/>
+      <c r="I3" s="621"/>
+      <c r="J3" s="622"/>
+      <c r="K3" s="625"/>
+      <c r="L3" s="626"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -15142,9 +15110,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="618"/>
-      <c r="C4" s="619"/>
-      <c r="D4" s="620"/>
+      <c r="B4" s="610"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="612"/>
       <c r="E4" s="243"/>
       <c r="F4" s="243"/>
       <c r="G4" s="243"/>
@@ -15163,22 +15131,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="606"/>
-      <c r="D5" s="515" t="str">
+      <c r="C5" s="627"/>
+      <c r="D5" s="508" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="516"/>
-      <c r="H5" s="517"/>
-      <c r="I5" s="607"/>
-      <c r="J5" s="608"/>
-      <c r="K5" s="609"/>
-      <c r="L5" s="517"/>
+      <c r="E5" s="509"/>
+      <c r="F5" s="509"/>
+      <c r="G5" s="509"/>
+      <c r="H5" s="510"/>
+      <c r="I5" s="628"/>
+      <c r="J5" s="629"/>
+      <c r="K5" s="630"/>
+      <c r="L5" s="510"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -15189,22 +15157,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="591" t="s">
+      <c r="B6" s="596" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="606"/>
-      <c r="D6" s="509" t="str">
+      <c r="C6" s="627"/>
+      <c r="D6" s="502" t="str">
         <f>Данные!$A2</f>
         <v>XXI-В-28-2-200-3 (Фляга 0,2 л.)</v>
       </c>
-      <c r="E6" s="596"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="596"/>
-      <c r="H6" s="597"/>
-      <c r="I6" s="607"/>
-      <c r="J6" s="608"/>
-      <c r="K6" s="609"/>
-      <c r="L6" s="517"/>
+      <c r="E6" s="599"/>
+      <c r="F6" s="599"/>
+      <c r="G6" s="599"/>
+      <c r="H6" s="600"/>
+      <c r="I6" s="628"/>
+      <c r="J6" s="629"/>
+      <c r="K6" s="630"/>
+      <c r="L6" s="510"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -15215,27 +15183,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="601" t="s">
+      <c r="B7" s="560" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="610"/>
-      <c r="D7" s="518">
+      <c r="C7" s="631"/>
+      <c r="D7" s="511">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="603"/>
-      <c r="F7" s="603"/>
-      <c r="G7" s="603"/>
-      <c r="H7" s="604"/>
-      <c r="I7" s="611" t="s">
+      <c r="E7" s="562"/>
+      <c r="F7" s="562"/>
+      <c r="G7" s="562"/>
+      <c r="H7" s="563"/>
+      <c r="I7" s="632" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="K7" s="506">
+      <c r="J7" s="631"/>
+      <c r="K7" s="499">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="507"/>
+      <c r="L7" s="500"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -15364,38 +15332,38 @@
       <c r="R11" s="99"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" s="478" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="468"/>
-      <c r="B12" s="479" t="s">
+    <row r="12" spans="1:19" s="472" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="462"/>
+      <c r="B12" s="473" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="480">
+      <c r="C12" s="474">
         <v>28.6</v>
       </c>
-      <c r="D12" s="474">
+      <c r="D12" s="468">
         <v>0</v>
       </c>
-      <c r="E12" s="474">
+      <c r="E12" s="468">
         <v>-0.03</v>
       </c>
-      <c r="F12" s="472" t="s">
+      <c r="F12" s="466" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="296" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="481"/>
-      <c r="I12" s="474"/>
-      <c r="J12" s="474"/>
-      <c r="K12" s="474"/>
-      <c r="L12" s="474"/>
-      <c r="M12" s="474"/>
-      <c r="N12" s="474"/>
-      <c r="O12" s="474"/>
-      <c r="P12" s="474"/>
-      <c r="Q12" s="474"/>
-      <c r="R12" s="482"/>
-      <c r="S12" s="477"/>
+      <c r="H12" s="475"/>
+      <c r="I12" s="468"/>
+      <c r="J12" s="468"/>
+      <c r="K12" s="468"/>
+      <c r="L12" s="468"/>
+      <c r="M12" s="468"/>
+      <c r="N12" s="468"/>
+      <c r="O12" s="468"/>
+      <c r="P12" s="468"/>
+      <c r="Q12" s="468"/>
+      <c r="R12" s="476"/>
+      <c r="S12" s="471"/>
     </row>
     <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
@@ -15498,12 +15466,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="588" t="s">
+      <c r="B16" s="593" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="589"/>
-      <c r="D16" s="589"/>
-      <c r="E16" s="590"/>
+      <c r="C16" s="594"/>
+      <c r="D16" s="594"/>
+      <c r="E16" s="595"/>
       <c r="F16" s="252" t="s">
         <v>16</v>
       </c>
@@ -15548,38 +15516,28 @@
       <c r="B18" s="121"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="L19" s="638" t="s">
+      <c r="L19" s="633" t="s">
         <v>135</v>
       </c>
-      <c r="M19" s="638"/>
-      <c r="N19" s="638"/>
-      <c r="O19" s="467"/>
-      <c r="P19" s="467"/>
-      <c r="Q19" s="483"/>
-      <c r="R19" s="483"/>
+      <c r="M19" s="633"/>
+      <c r="N19" s="633"/>
+      <c r="O19" s="461"/>
+      <c r="P19" s="461"/>
+      <c r="Q19" s="477"/>
+      <c r="R19" s="477"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O20" s="560" t="s">
+      <c r="O20" s="565" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="560"/>
-      <c r="Q20" s="561" t="s">
+      <c r="P20" s="565"/>
+      <c r="Q20" s="566" t="s">
         <v>140</v>
       </c>
-      <c r="R20" s="562"/>
+      <c r="R20" s="567"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
@@ -15592,6 +15550,16 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
